--- a/DDAf_2023_Tableau_annexe_Tab08.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab08.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab08" sheetId="1" r:id="rId1"/>
@@ -3229,7 +3229,7 @@
         <v>9.0244424730031501</v>
       </c>
       <c r="I56" s="19">
-        <v>0.14420232241072001</v>
+        <v>0.14420222241072</v>
       </c>
       <c r="J56" s="19">
         <v>18.680314040395501</v>

--- a/DDAf_2023_Tableau_annexe_Tab08.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab08.xlsx
@@ -1,29 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CCA0757-CD78-4C5B-BF0B-33FC0BE6BAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B76235C4-11FE-4696-B46E-31412F0BB81E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab08" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab08'!$A$2:$C$99</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab08'!$A$1:$G$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab08'!$A$2:$C$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab08'!$A$1:$G$104</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="170">
   <si>
     <t>Tableau 8 : Projections sur les profils d'éducation des jeunes</t>
   </si>
@@ -430,7 +442,7 @@
     <t>CEEAC</t>
   </si>
   <si>
-    <t>CÉDÉAO</t>
+    <t>CEDEAO</t>
   </si>
   <si>
     <t>IGAD</t>
@@ -508,9 +520,6 @@
     <t>RDM, États fragiles</t>
   </si>
   <si>
-    <t>États extrêmement fragiles</t>
-  </si>
-  <si>
     <t>Note : *Pays riches en ressources ; ".."signifie que les données ne sont pas disponibles ou qu'elles ne sont pas valables.</t>
   </si>
   <si>
@@ -518,9 +527,6 @@
   </si>
   <si>
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
-  </si>
-  <si>
-    <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
   </si>
   <si>
     <t>Source : Wittgenstein Centre Human Capital Data Explorer, 2018.</t>
@@ -544,26 +550,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\)"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -853,153 +853,155 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1037,7 +1039,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1049,7 +1051,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1096,6 +1098,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1131,6 +1150,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1282,24 +1318,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15997B95-FD66-421F-9CC6-B72E9CB51164}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K115"/>
+  <dimension ref="A1:K114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="47" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.26953125" style="51" customWidth="1"/>
     <col min="4" max="11" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1419,212 +1454,212 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="18">
         <v>9.5961887477314001</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <v>44.419237749546298</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <v>45.984573502722299</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="18">
         <v>0.66291683406990998</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="18">
         <v>33.085576536761799</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="19">
         <v>66.251506629168404</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="18">
         <v>2.19298245614E-2</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="18">
         <v>19.0570175438597</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="19">
         <v>80.921052631579002</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="18">
         <v>20.354861603974499</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18">
         <v>55.159687721788501</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <v>24.4854506742371</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="18">
         <v>4.96926899437688</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="18">
         <v>51.758859683536002</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="19">
         <v>43.271871322087101</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="18">
         <v>4.3208987469390003E-2</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="18">
         <v>18.695088578424301</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="19">
         <v>81.261702434106297</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <v>29.117950626892998</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <v>51.851914519212897</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <v>19.0301348538942</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="18">
         <v>11.8134715025907</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="18">
         <v>55.760529420817797</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="19">
         <v>32.425999076591602</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="18">
         <v>3.4265015419259998E-2</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="18">
         <v>19.703607616623401</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="19">
         <v>80.262127367957305</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="18">
         <v>54.902091900988601</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="18">
         <v>34.182576036198697</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <v>10.9153320628128</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="18">
         <v>30.484119416122699</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="18">
         <v>47.665224088608497</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="19">
         <v>21.850656495268801</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="18">
         <v>9.8697544898569994E-2</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="18">
         <v>17.207740707449901</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="19">
         <v>82.6935617476516</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="18">
         <v>12.496812037745499</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="18">
         <v>53.073195613364</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="19">
         <v>34.4299923488906</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="18">
         <v>1.86221634272922</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="18">
         <v>43.828228350463</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="19">
         <v>54.309555306807802</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="18">
         <v>2.2591212018520001E-2</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="18">
         <v>18.479611431153302</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="19">
         <v>81.497797356828201</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="18">
         <v>3.5795820690593199</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="18">
         <v>44.4756757456923</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="19">
         <v>51.944742185248401</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="18">
         <v>0.33423969502885997</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="18">
         <v>30.214666196924401</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="19">
         <v>69.451094108046803</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="18">
         <v>1.2496719611099999E-3</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="18">
         <v>19.709826170630201</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="19">
         <v>80.288924157408701</v>
       </c>
     </row>
@@ -1632,7 +1667,7 @@
       <c r="A11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="15">
@@ -1664,177 +1699,177 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="21">
         <v>6.2656791303309101</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="21">
         <v>39.947437582128799</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="22">
         <v>53.786883287540299</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="21">
         <v>0.52597649954581005</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="21">
         <v>26.2695226653383</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="22">
         <v>73.204500835115894</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="21">
         <v>1.897563212575E-2</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J12" s="21">
         <v>18.8601970303136</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="22">
         <v>81.120827337560698</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="25">
         <v>23.4575603538301</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="25">
         <v>45.941857607961197</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="26">
         <v>30.600582038208699</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="25">
         <v>13.2024740747969</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="25">
         <v>44.869032324513597</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H13" s="26">
         <v>41.928493600689499</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I13" s="25">
         <v>4.5395848733670002E-2</v>
       </c>
-      <c r="J13" s="26">
+      <c r="J13" s="25">
         <v>18.813051919968402</v>
       </c>
-      <c r="K13" s="27">
+      <c r="K13" s="26">
         <v>81.141552231297993</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="18">
         <v>42.463605823068299</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="18">
         <v>49.364901615741502</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="19">
         <v>8.1714925611902096</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="18">
         <v>17.4051928904906</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="18">
         <v>64.446310099107194</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="19">
         <v>18.148497010402199</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="18">
         <v>3.6955768564500002E-2</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="18">
         <v>17.9720522000231</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="19">
         <v>81.990992031412404</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="18">
         <v>12.594615576565801</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="18">
         <v>62.468461474478097</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="19">
         <v>24.936922948956099</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="18">
         <v>2.3016781083142601</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="18">
         <v>57.009916094584298</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="19">
         <v>40.688405797101503</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="18">
         <v>0</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="18">
         <v>18.256516709372601</v>
       </c>
-      <c r="K15" s="20">
+      <c r="K15" s="19">
         <v>81.743483290627395</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="18">
         <v>22.0127492201275</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="18">
         <v>65.963651159636498</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="19">
         <v>12.023599620236</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="18">
         <v>3.8093728535953901</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="18">
         <v>73.545728324615695</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="19">
         <v>22.644898821788999</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="18">
         <v>0</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="18">
         <v>17.594471214811101</v>
       </c>
-      <c r="K16" s="20">
+      <c r="K16" s="19">
         <v>82.405528785189006</v>
       </c>
     </row>
@@ -1842,7 +1877,7 @@
       <c r="A17" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="27" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="12">
@@ -1877,7 +1912,7 @@
       <c r="A18" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="27" t="s">
         <v>43</v>
       </c>
       <c r="C18" s="12">
@@ -1912,7 +1947,7 @@
       <c r="A19" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>45</v>
       </c>
       <c r="C19" s="15">
@@ -1947,7 +1982,7 @@
       <c r="A20" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="27" t="s">
         <v>47</v>
       </c>
       <c r="C20" s="12">
@@ -1982,7 +2017,7 @@
       <c r="A21" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="27" t="s">
         <v>49</v>
       </c>
       <c r="C21" s="12">
@@ -2014,422 +2049,422 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="18">
         <v>23.414634146341498</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="18">
         <v>66.016260162601597</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="19">
         <v>10.569105691056899</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="18">
         <v>5.11221945137157</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="18">
         <v>74.812967581047403</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H22" s="19">
         <v>20.074812967581099</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="18">
         <v>0</v>
       </c>
-      <c r="J22" s="19">
+      <c r="J22" s="18">
         <v>17.897727272727298</v>
       </c>
-      <c r="K22" s="20">
+      <c r="K22" s="19">
         <v>82.102272727272805</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="25">
         <v>24.6794328245713</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="25">
         <v>54.085641605426801</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="26">
         <v>21.234925570001899</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="25">
         <v>7.7474132206028301</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="25">
         <v>55.951699169517099</v>
       </c>
-      <c r="H23" s="27">
+      <c r="H23" s="26">
         <v>36.3008876098801</v>
       </c>
-      <c r="I23" s="26">
+      <c r="I23" s="25">
         <v>1.425193534804E-2</v>
       </c>
-      <c r="J23" s="26">
+      <c r="J23" s="25">
         <v>18.868428724127899</v>
       </c>
-      <c r="K23" s="27">
+      <c r="K23" s="26">
         <v>81.117319340524105</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="18">
         <v>16.397515527950301</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="18">
         <v>52.422360248447198</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="19">
         <v>31.180124223602501</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="18">
         <v>5.0191910245054601</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="18">
         <v>42.869796279893698</v>
       </c>
-      <c r="H24" s="20">
+      <c r="H24" s="19">
         <v>52.111012695600799</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="18">
         <v>9.8071265119320003E-2</v>
       </c>
-      <c r="J24" s="19">
+      <c r="J24" s="18">
         <v>18.731611637790099</v>
       </c>
-      <c r="K24" s="20">
+      <c r="K24" s="19">
         <v>81.170317097090603</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="18">
         <v>47.552208147894603</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="18">
         <v>30.811365970558001</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="19">
         <v>21.6364258815474</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="18">
         <v>22.062947958865699</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="18">
         <v>40.511062636335303</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="19">
         <v>37.425989404798997</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I25" s="18">
         <v>0.24535576586050001</v>
       </c>
-      <c r="J25" s="19">
+      <c r="J25" s="18">
         <v>18.4016824395373</v>
       </c>
-      <c r="K25" s="20">
+      <c r="K25" s="19">
         <v>81.352961794602194</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="18">
         <v>48.210822018594101</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="18">
         <v>31.910908969299701</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="19">
         <v>19.878269012106198</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="18">
         <v>22.723640295209901</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="18">
         <v>40.694777417383499</v>
       </c>
-      <c r="H26" s="20">
+      <c r="H26" s="19">
         <v>36.581582287406597</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I26" s="18">
         <v>0.22795115332429</v>
       </c>
-      <c r="J26" s="19">
+      <c r="J26" s="18">
         <v>17.611940298507498</v>
       </c>
-      <c r="K26" s="20">
+      <c r="K26" s="19">
         <v>82.160108548168296</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="18">
         <v>54.351698838531199</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="18">
         <v>32.812371810648898</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="19">
         <v>12.8359293508198</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="18">
         <v>31.142316001948601</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="18">
         <v>43.286591533173301</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H27" s="19">
         <v>25.571092464878099</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I27" s="18">
         <v>0.26890519874367003</v>
       </c>
-      <c r="J27" s="19">
+      <c r="J27" s="18">
         <v>16.883134449894101</v>
       </c>
-      <c r="K27" s="20">
+      <c r="K27" s="19">
         <v>82.847960351362303</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="18">
         <v>11.6301857854013</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="18">
         <v>53.9606799568718</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="19">
         <v>34.409134257726897</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="18">
         <v>1.6092002246913399</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="18">
         <v>44.170028878897398</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H28" s="19">
         <v>54.220770896411203</v>
       </c>
-      <c r="I28" s="19">
+      <c r="I28" s="18">
         <v>0</v>
       </c>
-      <c r="J28" s="19">
+      <c r="J28" s="18">
         <v>19.621228060605599</v>
       </c>
-      <c r="K28" s="20">
+      <c r="K28" s="19">
         <v>80.378771939394397</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="18">
         <v>44.589757535130197</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="18">
         <v>46.5906934975905</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="19">
         <v>8.8195489672792604</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="18">
         <v>20.766280810209999</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="18">
         <v>60.843688279942299</v>
       </c>
-      <c r="H29" s="20">
+      <c r="H29" s="19">
         <v>18.390030909847798</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I29" s="18">
         <v>5.6896606222800003E-2</v>
       </c>
-      <c r="J29" s="19">
+      <c r="J29" s="18">
         <v>17.731721965250902</v>
       </c>
-      <c r="K29" s="20">
+      <c r="K29" s="19">
         <v>82.211381428526295</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="18">
         <v>4.0687478077867398</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="18">
         <v>45.457734128376003</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="19">
         <v>50.473518063837297</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="18">
         <v>2.4841437632135301</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="18">
         <v>36.310782241014799</v>
       </c>
-      <c r="H30" s="20">
+      <c r="H30" s="19">
         <v>61.205073995771698</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I30" s="18">
         <v>5.595970900951E-2</v>
       </c>
-      <c r="J30" s="19">
+      <c r="J30" s="18">
         <v>20.593172915500801</v>
       </c>
-      <c r="K30" s="20">
+      <c r="K30" s="19">
         <v>79.350867375489699</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="18">
         <v>46.086443676805096</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="18">
         <v>40.500463392029701</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="19">
         <v>13.413092931165201</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="18">
         <v>26.272323537749202</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="18">
         <v>48.698856656902599</v>
       </c>
-      <c r="H31" s="20">
+      <c r="H31" s="19">
         <v>25.028819805348199</v>
       </c>
-      <c r="I31" s="19">
+      <c r="I31" s="18">
         <v>0.15837545831253999</v>
       </c>
-      <c r="J31" s="19">
+      <c r="J31" s="18">
         <v>18.903087236673699</v>
       </c>
-      <c r="K31" s="20">
+      <c r="K31" s="19">
         <v>80.938537305013796</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="18">
         <v>0.56818181818182001</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="18">
         <v>36.363636363636402</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="19">
         <v>63.068181818181799</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="18">
         <v>0</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="18">
         <v>26.960784313725501</v>
       </c>
-      <c r="H32" s="20">
+      <c r="H32" s="19">
         <v>73.039215686274503</v>
       </c>
-      <c r="I32" s="19">
+      <c r="I32" s="18">
         <v>0</v>
       </c>
-      <c r="J32" s="19">
+      <c r="J32" s="18">
         <v>17.989417989418001</v>
       </c>
-      <c r="K32" s="20">
+      <c r="K32" s="19">
         <v>82.010582010581999</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="18">
         <v>54.6740054593458</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="18">
         <v>32.6934264107039</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E33" s="19">
         <v>12.6325681299503</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="18">
         <v>29.2491409608174</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="18">
         <v>46.692535831406197</v>
       </c>
-      <c r="H33" s="20">
+      <c r="H33" s="19">
         <v>24.0583232077764</v>
       </c>
-      <c r="I33" s="19">
+      <c r="I33" s="18">
         <v>0.15956128392614</v>
       </c>
-      <c r="J33" s="19">
+      <c r="J33" s="18">
         <v>18.667121080679099</v>
       </c>
-      <c r="K33" s="20">
+      <c r="K33" s="19">
         <v>81.173317635394696</v>
       </c>
     </row>
@@ -2469,142 +2504,142 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="19">
+      <c r="C35" s="18">
         <v>35.0971411806891</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D35" s="18">
         <v>29.637024480881401</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35" s="19">
         <v>35.265834338429499</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F35" s="18">
         <v>6.9095240341525601</v>
       </c>
-      <c r="G35" s="19">
+      <c r="G35" s="18">
         <v>33.896056417755602</v>
       </c>
-      <c r="H35" s="20">
+      <c r="H35" s="19">
         <v>59.194419548091901</v>
       </c>
-      <c r="I35" s="19">
+      <c r="I35" s="18">
         <v>0.22215562620523999</v>
       </c>
-      <c r="J35" s="19">
+      <c r="J35" s="18">
         <v>19.6539323500287</v>
       </c>
-      <c r="K35" s="20">
+      <c r="K35" s="19">
         <v>80.123912023766096</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C36" s="18">
         <v>12.502701723845901</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="18">
         <v>78.135606091584094</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="19">
         <v>9.3616921845700904</v>
       </c>
-      <c r="F36" s="19">
+      <c r="F36" s="18">
         <v>2.2902129182322399</v>
       </c>
-      <c r="G36" s="19">
+      <c r="G36" s="18">
         <v>77.819411756609796</v>
       </c>
-      <c r="H36" s="20">
+      <c r="H36" s="19">
         <v>19.890375325157901</v>
       </c>
-      <c r="I36" s="19">
+      <c r="I36" s="18">
         <v>4.0482552019999998E-4</v>
       </c>
-      <c r="J36" s="19">
+      <c r="J36" s="18">
         <v>18.4928345882924</v>
       </c>
-      <c r="K36" s="20">
+      <c r="K36" s="19">
         <v>81.506760586187397</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C37" s="18">
         <v>30.220946572188801</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D37" s="18">
         <v>57.142643585373897</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E37" s="19">
         <v>12.636409842437301</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F37" s="18">
         <v>11.841417137693099</v>
       </c>
-      <c r="G37" s="19">
+      <c r="G37" s="18">
         <v>63.928925557596301</v>
       </c>
-      <c r="H37" s="20">
+      <c r="H37" s="19">
         <v>24.229657304710599</v>
       </c>
-      <c r="I37" s="19">
+      <c r="I37" s="18">
         <v>3.5029074131530002E-2</v>
       </c>
-      <c r="J37" s="19">
+      <c r="J37" s="18">
         <v>19.476165217130202</v>
       </c>
-      <c r="K37" s="20">
+      <c r="K37" s="19">
         <v>80.488805708738298</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="26">
+      <c r="C38" s="25">
         <v>36.226541452413599</v>
       </c>
-      <c r="D38" s="26">
+      <c r="D38" s="25">
         <v>45.599163140043402</v>
       </c>
-      <c r="E38" s="27">
+      <c r="E38" s="26">
         <v>18.174295407542999</v>
       </c>
-      <c r="F38" s="26">
+      <c r="F38" s="25">
         <v>16.340024912932201</v>
       </c>
-      <c r="G38" s="26">
+      <c r="G38" s="25">
         <v>51.639359386765797</v>
       </c>
-      <c r="H38" s="27">
+      <c r="H38" s="26">
         <v>32.020615700302102</v>
       </c>
-      <c r="I38" s="26">
+      <c r="I38" s="25">
         <v>0.13488462153094</v>
       </c>
-      <c r="J38" s="26">
+      <c r="J38" s="25">
         <v>17.763628161617198</v>
       </c>
-      <c r="K38" s="27">
+      <c r="K38" s="26">
         <v>82.101487216851893</v>
       </c>
     </row>
@@ -2612,7 +2647,7 @@
       <c r="A39" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="28" t="s">
         <v>83</v>
       </c>
       <c r="C39" s="12">
@@ -2644,37 +2679,37 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="19">
+      <c r="C40" s="18">
         <v>7.8148800931501201</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D40" s="18">
         <v>27.060188692788099</v>
       </c>
-      <c r="E40" s="20">
+      <c r="E40" s="19">
         <v>65.124931214061903</v>
       </c>
-      <c r="F40" s="19">
+      <c r="F40" s="18">
         <v>0.67263134549614001</v>
       </c>
-      <c r="G40" s="19">
+      <c r="G40" s="18">
         <v>21.033371852785699</v>
       </c>
-      <c r="H40" s="20">
+      <c r="H40" s="19">
         <v>78.293996801718194</v>
       </c>
-      <c r="I40" s="19">
+      <c r="I40" s="18">
         <v>0.2491066131012</v>
       </c>
-      <c r="J40" s="19">
+      <c r="J40" s="18">
         <v>19.045332874373301</v>
       </c>
-      <c r="K40" s="20">
+      <c r="K40" s="19">
         <v>80.705560512525494</v>
       </c>
     </row>
@@ -2682,7 +2717,7 @@
       <c r="A41" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="28" t="s">
         <v>87</v>
       </c>
       <c r="C41" s="12">
@@ -2717,7 +2752,7 @@
       <c r="A42" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="28" t="s">
         <v>89</v>
       </c>
       <c r="C42" s="12">
@@ -2749,282 +2784,282 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="19">
+      <c r="C43" s="18">
         <v>18.669168623661498</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D43" s="18">
         <v>45.256581682528598</v>
       </c>
-      <c r="E43" s="20">
+      <c r="E43" s="19">
         <v>36.074249693809897</v>
       </c>
-      <c r="F43" s="19">
+      <c r="F43" s="18">
         <v>1.79738207393579</v>
       </c>
-      <c r="G43" s="19">
+      <c r="G43" s="18">
         <v>36.813771246228299</v>
       </c>
-      <c r="H43" s="20">
+      <c r="H43" s="19">
         <v>61.3888466798359</v>
       </c>
-      <c r="I43" s="19">
+      <c r="I43" s="18">
         <v>5.4871566240270002E-2</v>
       </c>
-      <c r="J43" s="19">
+      <c r="J43" s="18">
         <v>18.439132571990399</v>
       </c>
-      <c r="K43" s="20">
+      <c r="K43" s="19">
         <v>81.505995861769406</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="19">
+      <c r="C44" s="18">
         <v>1.5362686094393401</v>
       </c>
-      <c r="D44" s="19">
+      <c r="D44" s="18">
         <v>51.627336078555601</v>
       </c>
-      <c r="E44" s="20">
+      <c r="E44" s="19">
         <v>46.836395312005102</v>
       </c>
-      <c r="F44" s="19">
+      <c r="F44" s="18">
         <v>5.0662227690529998E-2</v>
       </c>
-      <c r="G44" s="19">
+      <c r="G44" s="18">
         <v>30.107838170369799</v>
       </c>
-      <c r="H44" s="20">
+      <c r="H44" s="19">
         <v>69.841499601939702</v>
       </c>
-      <c r="I44" s="19">
+      <c r="I44" s="18">
         <v>0</v>
       </c>
-      <c r="J44" s="19">
+      <c r="J44" s="18">
         <v>18.198731822151299</v>
       </c>
-      <c r="K44" s="20">
+      <c r="K44" s="19">
         <v>81.801268177848698</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="26">
+      <c r="C45" s="25">
         <v>9.5579594727942006</v>
       </c>
-      <c r="D45" s="26">
+      <c r="D45" s="25">
         <v>34.323857331788403</v>
       </c>
-      <c r="E45" s="27">
+      <c r="E45" s="26">
         <v>56.118183195417501</v>
       </c>
-      <c r="F45" s="26">
+      <c r="F45" s="25">
         <v>1.30567640689163</v>
       </c>
-      <c r="G45" s="26">
+      <c r="G45" s="25">
         <v>25.475390240924401</v>
       </c>
-      <c r="H45" s="27">
+      <c r="H45" s="26">
         <v>73.218933352183996</v>
       </c>
-      <c r="I45" s="26">
+      <c r="I45" s="25">
         <v>0.15291223356424</v>
       </c>
-      <c r="J45" s="26">
+      <c r="J45" s="25">
         <v>18.7807675223785</v>
       </c>
-      <c r="K45" s="27">
+      <c r="K45" s="26">
         <v>81.066320244057295</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="19">
+      <c r="C46" s="18">
         <v>40.759621977759899</v>
       </c>
-      <c r="D46" s="19">
+      <c r="D46" s="18">
         <v>46.793667829353403</v>
       </c>
-      <c r="E46" s="20">
+      <c r="E46" s="19">
         <v>12.4467101928867</v>
       </c>
-      <c r="F46" s="19">
+      <c r="F46" s="18">
         <v>35.343133401462197</v>
       </c>
-      <c r="G46" s="19">
+      <c r="G46" s="18">
         <v>41.924770065246399</v>
       </c>
-      <c r="H46" s="20">
+      <c r="H46" s="19">
         <v>22.732096533291401</v>
       </c>
-      <c r="I46" s="19">
+      <c r="I46" s="18">
         <v>0.18233797807442001</v>
       </c>
-      <c r="J46" s="19">
+      <c r="J46" s="18">
         <v>18.515183576075501</v>
       </c>
-      <c r="K46" s="20">
+      <c r="K46" s="19">
         <v>81.302478445850198</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="19">
+      <c r="C47" s="18">
         <v>61.569679460723599</v>
       </c>
-      <c r="D47" s="19">
+      <c r="D47" s="18">
         <v>29.280162333195801</v>
       </c>
-      <c r="E47" s="20">
+      <c r="E47" s="19">
         <v>9.1501582060806204</v>
       </c>
-      <c r="F47" s="19">
+      <c r="F47" s="18">
         <v>37.060141596271798</v>
       </c>
-      <c r="G47" s="19">
+      <c r="G47" s="18">
         <v>44.228321358314297</v>
       </c>
-      <c r="H47" s="20">
+      <c r="H47" s="19">
         <v>18.711537045413898</v>
       </c>
-      <c r="I47" s="19">
+      <c r="I47" s="18">
         <v>0.12785781198571999</v>
       </c>
-      <c r="J47" s="19">
+      <c r="J47" s="18">
         <v>18.258348735346999</v>
       </c>
-      <c r="K47" s="20">
+      <c r="K47" s="19">
         <v>81.613793452667295</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="19">
+      <c r="C48" s="12">
         <v>25.3333333333333</v>
       </c>
-      <c r="D48" s="19">
+      <c r="D48" s="12">
         <v>56.727272727272698</v>
       </c>
-      <c r="E48" s="20">
+      <c r="E48" s="13">
         <v>17.939393939393899</v>
       </c>
-      <c r="F48" s="19">
+      <c r="F48" s="12">
         <v>14.690026954177901</v>
       </c>
-      <c r="G48" s="19">
+      <c r="G48" s="12">
         <v>56.536388140161698</v>
       </c>
-      <c r="H48" s="20">
+      <c r="H48" s="13">
         <v>28.7735849056604</v>
       </c>
-      <c r="I48" s="19">
+      <c r="I48" s="12">
         <v>7.479431563201E-2</v>
       </c>
-      <c r="J48" s="19">
+      <c r="J48" s="12">
         <v>19.072550486163099</v>
       </c>
-      <c r="K48" s="20">
+      <c r="K48" s="13">
         <v>80.852655198204999</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="19">
+      <c r="C49" s="18">
         <v>41.841677943166403</v>
       </c>
-      <c r="D49" s="19">
+      <c r="D49" s="18">
         <v>42.323410013531799</v>
       </c>
-      <c r="E49" s="20">
+      <c r="E49" s="19">
         <v>15.8349120433018</v>
       </c>
-      <c r="F49" s="19">
+      <c r="F49" s="18">
         <v>21.216018323821</v>
       </c>
-      <c r="G49" s="19">
+      <c r="G49" s="18">
         <v>49.702425653349401</v>
       </c>
-      <c r="H49" s="20">
+      <c r="H49" s="19">
         <v>29.081556022829702</v>
       </c>
-      <c r="I49" s="19">
+      <c r="I49" s="18">
         <v>0.17256446278248999</v>
       </c>
-      <c r="J49" s="19">
+      <c r="J49" s="18">
         <v>17.311755400935802</v>
       </c>
-      <c r="K49" s="20">
+      <c r="K49" s="19">
         <v>82.515680136281702</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="19">
+      <c r="C50" s="18">
         <v>35.727758566488497</v>
       </c>
-      <c r="D50" s="19">
+      <c r="D50" s="18">
         <v>40.443256837472497</v>
       </c>
-      <c r="E50" s="20">
+      <c r="E50" s="19">
         <v>23.828984596039</v>
       </c>
-      <c r="F50" s="19">
+      <c r="F50" s="18">
         <v>20.667135537023999</v>
       </c>
-      <c r="G50" s="19">
+      <c r="G50" s="18">
         <v>42.017482166181097</v>
       </c>
-      <c r="H50" s="20">
+      <c r="H50" s="19">
         <v>37.315382296794901</v>
       </c>
-      <c r="I50" s="19">
+      <c r="I50" s="18">
         <v>0.18258587241811999</v>
       </c>
-      <c r="J50" s="19">
+      <c r="J50" s="18">
         <v>17.767887709688502</v>
       </c>
-      <c r="K50" s="20">
+      <c r="K50" s="19">
         <v>82.049526417893404</v>
       </c>
     </row>
@@ -3064,177 +3099,177 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A52" s="17" t="s">
+      <c r="A52" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="19">
+      <c r="C52" s="18">
         <v>49.212970250275497</v>
       </c>
-      <c r="D52" s="19">
+      <c r="D52" s="18">
         <v>32.129177816254803</v>
       </c>
-      <c r="E52" s="20">
+      <c r="E52" s="19">
         <v>18.6578519334698</v>
       </c>
-      <c r="F52" s="19">
+      <c r="F52" s="18">
         <v>30.381245141686101</v>
       </c>
-      <c r="G52" s="19">
+      <c r="G52" s="18">
         <v>37.643982757402298</v>
       </c>
-      <c r="H52" s="20">
+      <c r="H52" s="19">
         <v>31.974772100911601</v>
       </c>
-      <c r="I52" s="19">
+      <c r="I52" s="18">
         <v>0.32898161450850999</v>
       </c>
-      <c r="J52" s="19">
+      <c r="J52" s="18">
         <v>17.8982655589564</v>
       </c>
-      <c r="K52" s="20">
+      <c r="K52" s="19">
         <v>81.772752826535097</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="19">
+      <c r="C53" s="18">
         <v>43.629697525206197</v>
       </c>
-      <c r="D53" s="19">
+      <c r="D53" s="18">
         <v>38.790100824931301</v>
       </c>
-      <c r="E53" s="20">
+      <c r="E53" s="19">
         <v>17.580201649862499</v>
       </c>
-      <c r="F53" s="19">
+      <c r="F53" s="18">
         <v>19.979296066252601</v>
       </c>
-      <c r="G53" s="19">
+      <c r="G53" s="18">
         <v>46.2474120082816</v>
       </c>
-      <c r="H53" s="20">
+      <c r="H53" s="19">
         <v>33.773291925465799</v>
       </c>
-      <c r="I53" s="19">
+      <c r="I53" s="18">
         <v>0.14751438265231001</v>
       </c>
-      <c r="J53" s="19">
+      <c r="J53" s="18">
         <v>17.922997492255501</v>
       </c>
-      <c r="K53" s="20">
+      <c r="K53" s="19">
         <v>81.929488125092206</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="C54" s="19">
+      <c r="C54" s="18">
         <v>37.912710783619097</v>
       </c>
-      <c r="D54" s="19">
+      <c r="D54" s="18">
         <v>39.1667847527278</v>
       </c>
-      <c r="E54" s="20">
+      <c r="E54" s="19">
         <v>22.920504463653099</v>
       </c>
-      <c r="F54" s="19">
+      <c r="F54" s="18">
         <v>17.203486169003401</v>
       </c>
-      <c r="G54" s="19">
+      <c r="G54" s="18">
         <v>43.2029177718833</v>
       </c>
-      <c r="H54" s="20">
+      <c r="H54" s="19">
         <v>39.593596059113302</v>
       </c>
-      <c r="I54" s="19">
+      <c r="I54" s="18">
         <v>0.14243453489645999</v>
       </c>
-      <c r="J54" s="19">
+      <c r="J54" s="18">
         <v>18.439794017749499</v>
       </c>
-      <c r="K54" s="20">
+      <c r="K54" s="19">
         <v>81.417771447353999</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="19">
+      <c r="C55" s="18">
         <v>67.571556106181802</v>
       </c>
-      <c r="D55" s="19">
+      <c r="D55" s="18">
         <v>23.934629329349399</v>
       </c>
-      <c r="E55" s="20">
+      <c r="E55" s="19">
         <v>8.4938145644688205</v>
       </c>
-      <c r="F55" s="19">
+      <c r="F55" s="18">
         <v>52.559292935715703</v>
       </c>
-      <c r="G55" s="19">
+      <c r="G55" s="18">
         <v>30.971153642356001</v>
       </c>
-      <c r="H55" s="20">
+      <c r="H55" s="19">
         <v>16.4695534219283</v>
       </c>
-      <c r="I55" s="19">
+      <c r="I55" s="18">
         <v>0.29293480959237</v>
       </c>
-      <c r="J55" s="19">
+      <c r="J55" s="18">
         <v>18.3928305446601</v>
       </c>
-      <c r="K55" s="20">
+      <c r="K55" s="19">
         <v>81.314234645747504</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C56" s="19">
+      <c r="C56" s="18">
         <v>67.065712426805504</v>
       </c>
-      <c r="D56" s="19">
+      <c r="D56" s="18">
         <v>29.2469095640859</v>
       </c>
-      <c r="E56" s="20">
+      <c r="E56" s="19">
         <v>3.6873780091086501</v>
       </c>
-      <c r="F56" s="19">
+      <c r="F56" s="18">
         <v>51.703172320964299</v>
       </c>
-      <c r="G56" s="19">
+      <c r="G56" s="18">
         <v>39.272385206032602</v>
       </c>
-      <c r="H56" s="20">
+      <c r="H56" s="19">
         <v>9.0244424730031501</v>
       </c>
-      <c r="I56" s="19">
+      <c r="I56" s="18">
         <v>0.14420222241072</v>
       </c>
-      <c r="J56" s="19">
+      <c r="J56" s="18">
         <v>18.680314040395501</v>
       </c>
-      <c r="K56" s="20">
+      <c r="K56" s="19">
         <v>81.175483737193801</v>
       </c>
     </row>
@@ -3242,7 +3277,7 @@
       <c r="A57" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="28" t="s">
         <v>118</v>
       </c>
       <c r="C57" s="12">
@@ -3274,72 +3309,72 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C58" s="19">
+      <c r="C58" s="18">
         <v>41.814549550506896</v>
       </c>
-      <c r="D58" s="19">
+      <c r="D58" s="18">
         <v>43.368116804454601</v>
       </c>
-      <c r="E58" s="20">
+      <c r="E58" s="19">
         <v>14.8173336450386</v>
       </c>
-      <c r="F58" s="19">
+      <c r="F58" s="18">
         <v>21.4226968140328</v>
       </c>
-      <c r="G58" s="19">
+      <c r="G58" s="18">
         <v>52.021734147689799</v>
       </c>
-      <c r="H58" s="20">
+      <c r="H58" s="19">
         <v>26.5555690382775</v>
       </c>
-      <c r="I58" s="19">
+      <c r="I58" s="18">
         <v>0.14828921078921001</v>
       </c>
-      <c r="J58" s="19">
+      <c r="J58" s="18">
         <v>18.194305694305701</v>
       </c>
-      <c r="K58" s="20">
+      <c r="K58" s="19">
         <v>81.657405094905101</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C59" s="19">
+      <c r="C59" s="18">
         <v>47.982490356694001</v>
       </c>
-      <c r="D59" s="19">
+      <c r="D59" s="18">
         <v>35.283664889697903</v>
       </c>
-      <c r="E59" s="20">
+      <c r="E59" s="19">
         <v>16.7338447536081</v>
       </c>
-      <c r="F59" s="19">
+      <c r="F59" s="18">
         <v>26.403274043758898</v>
       </c>
-      <c r="G59" s="19">
+      <c r="G59" s="18">
         <v>44.737919093341702</v>
       </c>
-      <c r="H59" s="20">
+      <c r="H59" s="19">
         <v>28.858806862899399</v>
       </c>
-      <c r="I59" s="19">
+      <c r="I59" s="18">
         <v>0.11507921285818</v>
       </c>
-      <c r="J59" s="19">
+      <c r="J59" s="18">
         <v>16.981855844106001</v>
       </c>
-      <c r="K59" s="20">
+      <c r="K59" s="19">
         <v>82.903064943035801</v>
       </c>
     </row>
@@ -3379,1310 +3414,1288 @@
       </c>
     </row>
     <row r="61" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="24"/>
-      <c r="B61" s="25" t="s">
+      <c r="A61" s="23"/>
+      <c r="B61" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="C61" s="26">
+      <c r="C61" s="25">
         <v>34.608695006524698</v>
       </c>
-      <c r="D61" s="26">
+      <c r="D61" s="25">
         <v>37.219869951719197</v>
       </c>
-      <c r="E61" s="27">
+      <c r="E61" s="26">
         <v>28.171435041756201</v>
       </c>
-      <c r="F61" s="26">
+      <c r="F61" s="25">
         <v>19.050560101774799</v>
       </c>
-      <c r="G61" s="26">
+      <c r="G61" s="25">
         <v>40.0955754643849</v>
       </c>
-      <c r="H61" s="27">
+      <c r="H61" s="26">
         <v>40.8538644338404</v>
       </c>
-      <c r="I61" s="26">
+      <c r="I61" s="25">
         <v>0.18365774068183</v>
       </c>
-      <c r="J61" s="26">
+      <c r="J61" s="25">
         <v>19.1918403489497</v>
       </c>
-      <c r="K61" s="27">
+      <c r="K61" s="26">
         <v>80.624501910368494</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="30"/>
-      <c r="B62" s="31" t="s">
+      <c r="A62" s="29"/>
+      <c r="B62" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="C62" s="32">
+      <c r="C62" s="31">
         <v>29.024767621868701</v>
       </c>
-      <c r="D62" s="32">
+      <c r="D62" s="31">
         <v>42.656979633510701</v>
       </c>
-      <c r="E62" s="33">
+      <c r="E62" s="32">
         <v>28.318252744620601</v>
       </c>
-      <c r="F62" s="32">
+      <c r="F62" s="31">
         <v>13.9775821315947</v>
       </c>
-      <c r="G62" s="32">
+      <c r="G62" s="31">
         <v>44.683012911623898</v>
       </c>
-      <c r="H62" s="33">
+      <c r="H62" s="32">
         <v>41.339404956781401</v>
       </c>
-      <c r="I62" s="32">
+      <c r="I62" s="31">
         <v>0.1250296718219</v>
       </c>
-      <c r="J62" s="32">
+      <c r="J62" s="31">
         <v>18.621364000999101</v>
       </c>
-      <c r="K62" s="33">
+      <c r="K62" s="32">
         <v>81.253606327179</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="30"/>
-      <c r="B63" s="31" t="s">
+      <c r="A63" s="29"/>
+      <c r="B63" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="C63" s="32">
+      <c r="C63" s="31">
         <v>8.5818442249287195</v>
       </c>
-      <c r="D63" s="32">
+      <c r="D63" s="31">
         <v>40.391541042063402</v>
       </c>
-      <c r="E63" s="33">
+      <c r="E63" s="32">
         <v>51.026614733007897</v>
       </c>
-      <c r="F63" s="32">
+      <c r="F63" s="31">
         <v>3.68441846462634</v>
       </c>
-      <c r="G63" s="32">
+      <c r="G63" s="31">
         <v>32.245161828313996</v>
       </c>
-      <c r="H63" s="33">
+      <c r="H63" s="32">
         <v>64.0704197070596</v>
       </c>
-      <c r="I63" s="32">
+      <c r="I63" s="31">
         <v>7.0555883414290005E-2</v>
       </c>
-      <c r="J63" s="32">
+      <c r="J63" s="31">
         <v>18.41128463259</v>
       </c>
-      <c r="K63" s="33">
+      <c r="K63" s="32">
         <v>81.518159483995703</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A64" s="34"/>
-      <c r="B64" s="35" t="s">
+      <c r="A64" s="33"/>
+      <c r="B64" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="C64" s="36">
+      <c r="C64" s="35">
         <v>6.3666092301127799</v>
       </c>
-      <c r="D64" s="36">
+      <c r="D64" s="35">
         <v>45.735220261322503</v>
       </c>
-      <c r="E64" s="37">
+      <c r="E64" s="36">
         <v>47.898170508564803</v>
       </c>
-      <c r="F64" s="36">
+      <c r="F64" s="35">
         <v>1.8963261356896399</v>
       </c>
-      <c r="G64" s="36">
+      <c r="G64" s="35">
         <v>37.0109300073143</v>
       </c>
-      <c r="H64" s="37">
+      <c r="H64" s="36">
         <v>61.092743856996101</v>
       </c>
-      <c r="I64" s="36">
+      <c r="I64" s="35">
         <v>2.8289638040410001E-2</v>
       </c>
-      <c r="J64" s="36">
+      <c r="J64" s="35">
         <v>19.175096673856402</v>
       </c>
-      <c r="K64" s="37">
+      <c r="K64" s="36">
         <v>80.796613688103207</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A65" s="34"/>
-      <c r="B65" s="38" t="s">
+      <c r="A65" s="33"/>
+      <c r="B65" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="39">
+      <c r="C65" s="38">
         <v>10.980007102211699</v>
       </c>
-      <c r="D65" s="39">
+      <c r="D65" s="38">
         <v>42.955505179951899</v>
       </c>
-      <c r="E65" s="40">
+      <c r="E65" s="39">
         <v>46.064487717836499</v>
       </c>
-      <c r="F65" s="39">
+      <c r="F65" s="38">
         <v>4.8665830180051097</v>
       </c>
-      <c r="G65" s="39">
+      <c r="G65" s="38">
         <v>34.021646131029399</v>
       </c>
-      <c r="H65" s="40">
+      <c r="H65" s="39">
         <v>61.111770850965499</v>
       </c>
-      <c r="I65" s="39">
+      <c r="I65" s="38">
         <v>8.9116735914369999E-2</v>
       </c>
-      <c r="J65" s="39">
+      <c r="J65" s="38">
         <v>18.253443338540499</v>
       </c>
-      <c r="K65" s="40">
+      <c r="K65" s="39">
         <v>81.657439925545106</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="34"/>
-      <c r="B66" s="41" t="s">
+      <c r="A66" s="33"/>
+      <c r="B66" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="C66" s="42">
+      <c r="C66" s="41">
         <v>12.7654192485123</v>
       </c>
-      <c r="D66" s="42">
+      <c r="D66" s="41">
         <v>40.855155375718802</v>
       </c>
-      <c r="E66" s="43">
+      <c r="E66" s="42">
         <v>46.379425375768903</v>
       </c>
-      <c r="F66" s="42">
+      <c r="F66" s="41">
         <v>6.61549817828912</v>
       </c>
-      <c r="G66" s="42">
+      <c r="G66" s="41">
         <v>35.786962403081802</v>
       </c>
-      <c r="H66" s="43">
+      <c r="H66" s="42">
         <v>57.597539418629097</v>
       </c>
-      <c r="I66" s="42">
+      <c r="I66" s="41">
         <v>8.5338309887719996E-2</v>
       </c>
-      <c r="J66" s="42">
+      <c r="J66" s="41">
         <v>18.4682933868528</v>
       </c>
-      <c r="K66" s="43">
+      <c r="K66" s="42">
         <v>81.446368303259504</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A67" s="34"/>
-      <c r="B67" s="38" t="s">
+      <c r="A67" s="33"/>
+      <c r="B67" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="C67" s="39">
+      <c r="C67" s="38">
         <v>29.519017064862901</v>
       </c>
-      <c r="D67" s="39">
+      <c r="D67" s="38">
         <v>41.668481372682798</v>
       </c>
-      <c r="E67" s="40">
+      <c r="E67" s="39">
         <v>28.812501562454401</v>
       </c>
-      <c r="F67" s="39">
+      <c r="F67" s="38">
         <v>12.163513801172099</v>
       </c>
-      <c r="G67" s="39">
+      <c r="G67" s="38">
         <v>44.9624600569283</v>
       </c>
-      <c r="H67" s="40">
+      <c r="H67" s="39">
         <v>42.874026141899499</v>
       </c>
-      <c r="I67" s="39">
+      <c r="I67" s="38">
         <v>0.12165720546868999</v>
       </c>
-      <c r="J67" s="39">
+      <c r="J67" s="38">
         <v>18.780732684803599</v>
       </c>
-      <c r="K67" s="40">
+      <c r="K67" s="39">
         <v>81.097610109727697</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A68" s="34"/>
-      <c r="B68" s="38" t="s">
+      <c r="A68" s="33"/>
+      <c r="B68" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="C68" s="39">
+      <c r="C68" s="38">
         <v>30.284459350041899</v>
       </c>
-      <c r="D68" s="39">
+      <c r="D68" s="38">
         <v>35.907815033948303</v>
       </c>
-      <c r="E68" s="40">
+      <c r="E68" s="39">
         <v>33.807725616009797</v>
       </c>
-      <c r="F68" s="39">
+      <c r="F68" s="38">
         <v>15.4201836200829</v>
       </c>
-      <c r="G68" s="39">
+      <c r="G68" s="38">
         <v>37.695390252817099</v>
       </c>
-      <c r="H68" s="40">
+      <c r="H68" s="39">
         <v>46.884426127099999</v>
       </c>
-      <c r="I68" s="39">
+      <c r="I68" s="38">
         <v>0.18449676382527999</v>
       </c>
-      <c r="J68" s="39">
+      <c r="J68" s="38">
         <v>19.098147377524199</v>
       </c>
-      <c r="K68" s="40">
+      <c r="K68" s="39">
         <v>80.717355858650507</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A69" s="34"/>
-      <c r="B69" s="38" t="s">
+      <c r="A69" s="33"/>
+      <c r="B69" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="C69" s="39">
+      <c r="C69" s="38">
         <v>23.0974842349111</v>
       </c>
-      <c r="D69" s="39">
+      <c r="D69" s="38">
         <v>58.316245067453202</v>
       </c>
-      <c r="E69" s="40">
+      <c r="E69" s="39">
         <v>18.586270697635701</v>
       </c>
-      <c r="F69" s="39">
+      <c r="F69" s="38">
         <v>8.9724800610637701</v>
       </c>
-      <c r="G69" s="39">
+      <c r="G69" s="38">
         <v>59.481078976500001</v>
       </c>
-      <c r="H69" s="40">
+      <c r="H69" s="39">
         <v>31.546440962436201</v>
       </c>
-      <c r="I69" s="39">
+      <c r="I69" s="38">
         <v>5.4276787350569997E-2</v>
       </c>
-      <c r="J69" s="39">
+      <c r="J69" s="38">
         <v>17.740591438188002</v>
       </c>
-      <c r="K69" s="40">
+      <c r="K69" s="39">
         <v>82.205131774461407</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A70" s="34"/>
-      <c r="B70" s="38" t="s">
+      <c r="A70" s="33"/>
+      <c r="B70" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="C70" s="39">
+      <c r="C70" s="38">
         <v>28.096634293460699</v>
       </c>
-      <c r="D70" s="39">
+      <c r="D70" s="38">
         <v>53.242824588067201</v>
       </c>
-      <c r="E70" s="40">
+      <c r="E70" s="39">
         <v>18.6605411184721</v>
       </c>
-      <c r="F70" s="39">
+      <c r="F70" s="38">
         <v>11.6572757178158</v>
       </c>
-      <c r="G70" s="39">
+      <c r="G70" s="38">
         <v>55.607690622988301</v>
       </c>
-      <c r="H70" s="40">
+      <c r="H70" s="39">
         <v>32.735033659195899</v>
       </c>
-      <c r="I70" s="39">
+      <c r="I70" s="38">
         <v>3.2546457545160001E-2</v>
       </c>
-      <c r="J70" s="39">
+      <c r="J70" s="38">
         <v>18.722160479265501</v>
       </c>
-      <c r="K70" s="40">
+      <c r="K70" s="39">
         <v>81.245293063189294</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A71" s="34"/>
-      <c r="B71" s="38" t="s">
+      <c r="A71" s="33"/>
+      <c r="B71" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="C71" s="39">
+      <c r="C71" s="38">
         <v>34.608695006524698</v>
       </c>
-      <c r="D71" s="39">
+      <c r="D71" s="38">
         <v>37.219869951719197</v>
       </c>
-      <c r="E71" s="40">
+      <c r="E71" s="39">
         <v>28.171435041756201</v>
       </c>
-      <c r="F71" s="39">
+      <c r="F71" s="38">
         <v>19.050560101774799</v>
       </c>
-      <c r="G71" s="39">
+      <c r="G71" s="38">
         <v>40.0955754643849</v>
       </c>
-      <c r="H71" s="40">
+      <c r="H71" s="39">
         <v>40.8538644338403</v>
       </c>
-      <c r="I71" s="39">
+      <c r="I71" s="38">
         <v>0.18365774068183</v>
       </c>
-      <c r="J71" s="39">
+      <c r="J71" s="38">
         <v>19.1918403489497</v>
       </c>
-      <c r="K71" s="40">
+      <c r="K71" s="39">
         <v>80.624501910368494</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A72" s="34"/>
-      <c r="B72" s="38" t="s">
+      <c r="A72" s="33"/>
+      <c r="B72" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="C72" s="39">
+      <c r="C72" s="38">
         <v>39.974052801142101</v>
       </c>
-      <c r="D72" s="39">
+      <c r="D72" s="38">
         <v>39.169713096942502</v>
       </c>
-      <c r="E72" s="40">
+      <c r="E72" s="39">
         <v>20.856234101915501</v>
       </c>
-      <c r="F72" s="39">
+      <c r="F72" s="38">
         <v>18.850306835671599</v>
       </c>
-      <c r="G72" s="39">
+      <c r="G72" s="38">
         <v>44.870566060919003</v>
       </c>
-      <c r="H72" s="40">
+      <c r="H72" s="39">
         <v>36.279127103409401</v>
       </c>
-      <c r="I72" s="39">
+      <c r="I72" s="38">
         <v>0.17260513921855</v>
       </c>
-      <c r="J72" s="39">
+      <c r="J72" s="38">
         <v>17.5384631416504</v>
       </c>
-      <c r="K72" s="40">
+      <c r="K72" s="39">
         <v>82.288931719131099</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A73" s="34"/>
-      <c r="B73" s="38" t="s">
+      <c r="A73" s="33"/>
+      <c r="B73" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="C73" s="39">
+      <c r="C73" s="38">
         <v>22.7811761173866</v>
       </c>
-      <c r="D73" s="39">
+      <c r="D73" s="38">
         <v>53.206048671421499</v>
       </c>
-      <c r="E73" s="40">
+      <c r="E73" s="39">
         <v>24.012775211191901</v>
       </c>
-      <c r="F73" s="39">
+      <c r="F73" s="38">
         <v>9.4444223814459001</v>
       </c>
-      <c r="G73" s="39">
+      <c r="G73" s="38">
         <v>54.654538280512398</v>
       </c>
-      <c r="H73" s="40">
+      <c r="H73" s="39">
         <v>35.901039338041699</v>
       </c>
-      <c r="I73" s="39">
+      <c r="I73" s="38">
         <v>2.6045096059580001E-2</v>
       </c>
-      <c r="J73" s="39">
+      <c r="J73" s="38">
         <v>18.8142896858493</v>
       </c>
-      <c r="K73" s="40">
+      <c r="K73" s="39">
         <v>81.159665218091106</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A74" s="34"/>
-      <c r="B74" s="38" t="s">
+      <c r="A74" s="33"/>
+      <c r="B74" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="C74" s="39">
+      <c r="C74" s="38">
         <v>11.3970650106865</v>
       </c>
-      <c r="D74" s="39">
+      <c r="D74" s="38">
         <v>41.987681122835397</v>
       </c>
-      <c r="E74" s="40">
+      <c r="E74" s="39">
         <v>46.615253866478199</v>
       </c>
-      <c r="F74" s="39">
+      <c r="F74" s="38">
         <v>2.0811289999714</v>
       </c>
-      <c r="G74" s="39">
+      <c r="G74" s="38">
         <v>30.916669049729801</v>
       </c>
-      <c r="H74" s="40">
+      <c r="H74" s="39">
         <v>67.002201950298897</v>
       </c>
-      <c r="I74" s="39">
+      <c r="I74" s="38">
         <v>3.3390234294400002E-2</v>
       </c>
-      <c r="J74" s="39">
+      <c r="J74" s="38">
         <v>18.452043744958601</v>
       </c>
-      <c r="K74" s="40">
+      <c r="K74" s="39">
         <v>81.514566020746997</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="34"/>
-      <c r="B75" s="41" t="s">
+      <c r="A75" s="33"/>
+      <c r="B75" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="C75" s="42">
+      <c r="C75" s="41">
         <v>45.193500174897402</v>
       </c>
-      <c r="D75" s="42">
+      <c r="D75" s="41">
         <v>44.663507912784503</v>
       </c>
-      <c r="E75" s="43">
+      <c r="E75" s="42">
         <v>10.1429919123181</v>
       </c>
-      <c r="F75" s="42">
+      <c r="F75" s="41">
         <v>26.649527290271202</v>
       </c>
-      <c r="G75" s="42">
+      <c r="G75" s="41">
         <v>52.451118079949197</v>
       </c>
-      <c r="H75" s="43">
+      <c r="H75" s="42">
         <v>20.899354629779602</v>
       </c>
-      <c r="I75" s="42">
+      <c r="I75" s="41">
         <v>8.5911994876520001E-2</v>
       </c>
-      <c r="J75" s="42">
+      <c r="J75" s="41">
         <v>17.6275793123916</v>
       </c>
-      <c r="K75" s="43">
+      <c r="K75" s="42">
         <v>82.2865086927319</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A76" s="34"/>
-      <c r="B76" s="38" t="s">
+      <c r="A76" s="33"/>
+      <c r="B76" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="C76" s="39">
+      <c r="C76" s="38">
         <v>5.2778243328256798</v>
       </c>
-      <c r="D76" s="39">
+      <c r="D76" s="38">
         <v>44.658779836725401</v>
       </c>
-      <c r="E76" s="40">
+      <c r="E76" s="39">
         <v>50.063395830448897</v>
       </c>
-      <c r="F76" s="39">
+      <c r="F76" s="38">
         <v>1.08898446764584</v>
       </c>
-      <c r="G76" s="39">
+      <c r="G76" s="38">
         <v>32.964997324775901</v>
       </c>
-      <c r="H76" s="40">
+      <c r="H76" s="39">
         <v>65.946018207578305</v>
       </c>
-      <c r="I76" s="39">
+      <c r="I76" s="38">
         <v>4.1759691133910003E-2</v>
       </c>
-      <c r="J76" s="39">
+      <c r="J76" s="38">
         <v>19.268660713533102</v>
       </c>
-      <c r="K76" s="40">
+      <c r="K76" s="39">
         <v>80.6895795953331</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A77" s="34"/>
-      <c r="B77" s="38" t="s">
+      <c r="A77" s="33"/>
+      <c r="B77" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="C77" s="39">
+      <c r="C77" s="38">
         <v>4.8756757222173599</v>
       </c>
-      <c r="D77" s="39">
+      <c r="D77" s="38">
         <v>42.267336541115398</v>
       </c>
-      <c r="E77" s="40">
+      <c r="E77" s="39">
         <v>52.8569877366672</v>
       </c>
-      <c r="F77" s="39">
+      <c r="F77" s="38">
         <v>1.1578786737726801</v>
       </c>
-      <c r="G77" s="39">
+      <c r="G77" s="38">
         <v>32.941419109685498</v>
       </c>
-      <c r="H77" s="40">
+      <c r="H77" s="39">
         <v>65.900702216541902</v>
       </c>
-      <c r="I77" s="39">
+      <c r="I77" s="38">
         <v>2.939945825717E-2</v>
       </c>
-      <c r="J77" s="39">
+      <c r="J77" s="38">
         <v>19.208637054328399</v>
       </c>
-      <c r="K77" s="40">
+      <c r="K77" s="39">
         <v>80.761963487414405</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A78" s="34"/>
-      <c r="B78" s="38" t="s">
+      <c r="A78" s="33"/>
+      <c r="B78" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="C78" s="39">
+      <c r="C78" s="38">
         <v>0.70657192179534001</v>
       </c>
-      <c r="D78" s="39">
+      <c r="D78" s="38">
         <v>30.326951506994199</v>
       </c>
-      <c r="E78" s="40">
+      <c r="E78" s="39">
         <v>68.966476571210507</v>
       </c>
-      <c r="F78" s="39">
+      <c r="F78" s="38">
         <v>0.40855230117951002</v>
       </c>
-      <c r="G78" s="39">
+      <c r="G78" s="38">
         <v>22.1177758708317</v>
       </c>
-      <c r="H78" s="40">
+      <c r="H78" s="39">
         <v>77.473671827988795</v>
       </c>
-      <c r="I78" s="39">
+      <c r="I78" s="38">
         <v>4.3538871746579999E-2</v>
       </c>
-      <c r="J78" s="39">
+      <c r="J78" s="38">
         <v>18.6546327375227</v>
       </c>
-      <c r="K78" s="40">
+      <c r="K78" s="39">
         <v>81.301828390730705</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="34"/>
-      <c r="B79" s="41" t="s">
+      <c r="A79" s="33"/>
+      <c r="B79" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="C79" s="42">
+      <c r="C79" s="41">
         <v>1.49626842350399</v>
       </c>
-      <c r="D79" s="42">
+      <c r="D79" s="41">
         <v>32.490267366599703</v>
       </c>
-      <c r="E79" s="43">
+      <c r="E79" s="42">
         <v>66.013464209896298</v>
       </c>
-      <c r="F79" s="42">
+      <c r="F79" s="41">
         <v>0.47143476950597002</v>
       </c>
-      <c r="G79" s="42">
+      <c r="G79" s="41">
         <v>26.7446924201207</v>
       </c>
-      <c r="H79" s="43">
+      <c r="H79" s="42">
         <v>72.783872810373396</v>
       </c>
-      <c r="I79" s="42">
+      <c r="I79" s="41">
         <v>2.8061351886969999E-2</v>
       </c>
-      <c r="J79" s="42">
+      <c r="J79" s="41">
         <v>18.990055082834001</v>
       </c>
-      <c r="K79" s="43">
+      <c r="K79" s="42">
         <v>80.981883565279105</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A80" s="34"/>
-      <c r="B80" s="38" t="s">
+      <c r="A80" s="33"/>
+      <c r="B80" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="C80" s="39">
-        <v>24.1602155529723</v>
-      </c>
-      <c r="D80" s="39">
-        <v>38.822208386267903</v>
-      </c>
-      <c r="E80" s="40">
-        <v>37.017576060759801</v>
-      </c>
-      <c r="F80" s="39">
-        <v>10.3998038143027</v>
-      </c>
-      <c r="G80" s="39">
-        <v>39.092565693912597</v>
-      </c>
-      <c r="H80" s="40">
-        <v>50.507630491784703</v>
-      </c>
-      <c r="I80" s="39">
-        <v>0.15709416713784</v>
-      </c>
-      <c r="J80" s="39">
-        <v>19.509074463971501</v>
-      </c>
-      <c r="K80" s="40">
-        <v>80.333831368890699</v>
+      <c r="C80" s="38">
+        <v>24.162533059874701</v>
+      </c>
+      <c r="D80" s="38">
+        <v>38.857580035128201</v>
+      </c>
+      <c r="E80" s="39">
+        <v>36.979886904997102</v>
+      </c>
+      <c r="F80" s="38">
+        <v>10.404602493745999</v>
+      </c>
+      <c r="G80" s="38">
+        <v>39.112076873041801</v>
+      </c>
+      <c r="H80" s="39">
+        <v>50.483320633212202</v>
+      </c>
+      <c r="I80" s="38">
+        <v>0.15700237255444999</v>
+      </c>
+      <c r="J80" s="38">
+        <v>19.5085875792937</v>
+      </c>
+      <c r="K80" s="39">
+        <v>80.334410048151895</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A81" s="34"/>
-      <c r="B81" s="38" t="s">
+      <c r="A81" s="33"/>
+      <c r="B81" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="C81" s="39">
-        <v>8.5967093078305599</v>
-      </c>
-      <c r="D81" s="39">
-        <v>32.039965748679698</v>
-      </c>
-      <c r="E81" s="40">
-        <v>59.363324943489701</v>
-      </c>
-      <c r="F81" s="39">
-        <v>4.4660155079912904</v>
-      </c>
-      <c r="G81" s="39">
-        <v>26.6544165232302</v>
-      </c>
-      <c r="H81" s="40">
-        <v>68.879567968778602</v>
-      </c>
-      <c r="I81" s="39">
-        <v>5.2631417896519997E-2</v>
-      </c>
-      <c r="J81" s="39">
-        <v>16.254977362807502</v>
-      </c>
-      <c r="K81" s="40">
-        <v>83.692391219295999</v>
+      <c r="C81" s="38">
+        <v>8.7591512434816305</v>
+      </c>
+      <c r="D81" s="38">
+        <v>32.648994335041102</v>
+      </c>
+      <c r="E81" s="39">
+        <v>58.5918544214774</v>
+      </c>
+      <c r="F81" s="38">
+        <v>4.4265841459004696</v>
+      </c>
+      <c r="G81" s="38">
+        <v>27.253373740347602</v>
+      </c>
+      <c r="H81" s="39">
+        <v>68.320042113751995</v>
+      </c>
+      <c r="I81" s="38">
+        <v>5.1463229990789998E-2</v>
+      </c>
+      <c r="J81" s="38">
+        <v>16.307709217413802</v>
+      </c>
+      <c r="K81" s="39">
+        <v>83.640827552595397</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A82" s="34"/>
-      <c r="B82" s="38" t="s">
+      <c r="A82" s="33"/>
+      <c r="B82" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="C82" s="39">
-        <v>30.4618785282277</v>
-      </c>
-      <c r="D82" s="39">
-        <v>43.7898674112039</v>
-      </c>
-      <c r="E82" s="40">
-        <v>25.748254060568399</v>
-      </c>
-      <c r="F82" s="39">
-        <v>15.1133221305262</v>
-      </c>
-      <c r="G82" s="39">
-        <v>46.457660179841298</v>
-      </c>
-      <c r="H82" s="40">
-        <v>38.429017689632403</v>
-      </c>
-      <c r="I82" s="39">
-        <v>0.11449103505825001</v>
-      </c>
-      <c r="J82" s="39">
-        <v>18.329600228378201</v>
-      </c>
-      <c r="K82" s="40">
-        <v>81.555908736563595</v>
+      <c r="C82" s="38">
+        <v>30.4648793062759</v>
+      </c>
+      <c r="D82" s="38">
+        <v>43.782297568217501</v>
+      </c>
+      <c r="E82" s="39">
+        <v>25.752823125506598</v>
+      </c>
+      <c r="F82" s="38">
+        <v>15.1134726494523</v>
+      </c>
+      <c r="G82" s="38">
+        <v>46.454076299386898</v>
+      </c>
+      <c r="H82" s="39">
+        <v>38.432451051160797</v>
+      </c>
+      <c r="I82" s="38">
+        <v>0.11450560898998</v>
+      </c>
+      <c r="J82" s="38">
+        <v>18.3293274676439</v>
+      </c>
+      <c r="K82" s="39">
+        <v>81.556166923366106</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="34"/>
-      <c r="B83" s="41" t="s">
+      <c r="A83" s="33"/>
+      <c r="B83" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="C83" s="42">
-        <v>8.5806927757025093</v>
-      </c>
-      <c r="D83" s="42">
-        <v>41.038454010706403</v>
-      </c>
-      <c r="E83" s="43">
-        <v>50.380853213591102</v>
-      </c>
-      <c r="F83" s="42">
-        <v>3.6089228506228701</v>
-      </c>
-      <c r="G83" s="42">
-        <v>32.785180183203401</v>
-      </c>
-      <c r="H83" s="43">
-        <v>63.605896966173802</v>
-      </c>
-      <c r="I83" s="42">
-        <v>7.228557967226E-2</v>
-      </c>
-      <c r="J83" s="42">
-        <v>18.619366519990599</v>
-      </c>
-      <c r="K83" s="43">
-        <v>81.308347900337196</v>
+      <c r="C83" s="41">
+        <v>8.5677178227113195</v>
+      </c>
+      <c r="D83" s="41">
+        <v>41.008405111309102</v>
+      </c>
+      <c r="E83" s="42">
+        <v>50.423877065979603</v>
+      </c>
+      <c r="F83" s="41">
+        <v>3.61058818080049</v>
+      </c>
+      <c r="G83" s="41">
+        <v>32.7417424984151</v>
+      </c>
+      <c r="H83" s="42">
+        <v>63.647669320784502</v>
+      </c>
+      <c r="I83" s="41">
+        <v>7.2451163868400004E-2</v>
+      </c>
+      <c r="J83" s="41">
+        <v>18.620101358044899</v>
+      </c>
+      <c r="K83" s="42">
+        <v>81.307447478086701</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A84" s="34"/>
-      <c r="B84" s="38" t="s">
+      <c r="A84" s="33"/>
+      <c r="B84" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="C84" s="39">
+      <c r="C84" s="38">
         <v>44.167272140146899</v>
       </c>
-      <c r="D84" s="39">
+      <c r="D84" s="38">
         <v>39.495750243619597</v>
       </c>
-      <c r="E84" s="40">
+      <c r="E84" s="39">
         <v>16.336977616233401</v>
       </c>
-      <c r="F84" s="39">
+      <c r="F84" s="38">
         <v>22.880299049526201</v>
       </c>
-      <c r="G84" s="39">
+      <c r="G84" s="38">
         <v>47.843988906541398</v>
       </c>
-      <c r="H84" s="40">
+      <c r="H84" s="39">
         <v>29.275712043932401</v>
       </c>
-      <c r="I84" s="39">
+      <c r="I84" s="38">
         <v>0.14000778724556001</v>
       </c>
-      <c r="J84" s="39">
+      <c r="J84" s="38">
         <v>17.939699550080899</v>
       </c>
-      <c r="K84" s="40">
+      <c r="K84" s="39">
         <v>81.920292662673603</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A85" s="34"/>
-      <c r="B85" s="38" t="s">
+      <c r="A85" s="33"/>
+      <c r="B85" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="C85" s="39">
+      <c r="C85" s="38">
         <v>34.083203405350602</v>
       </c>
-      <c r="D85" s="39">
+      <c r="D85" s="38">
         <v>23.207303190041301</v>
       </c>
-      <c r="E85" s="40">
+      <c r="E85" s="39">
         <v>42.709493404608097</v>
       </c>
-      <c r="F85" s="39">
+      <c r="F85" s="38">
         <v>26.007715566677099</v>
       </c>
-      <c r="G85" s="39">
+      <c r="G85" s="38">
         <v>17.692076517813899</v>
       </c>
-      <c r="H85" s="40">
+      <c r="H85" s="39">
         <v>56.300207915508999</v>
       </c>
-      <c r="I85" s="39">
+      <c r="I85" s="38">
         <v>0.28061021760993998</v>
       </c>
-      <c r="J85" s="39">
+      <c r="J85" s="38">
         <v>2.57646217379747</v>
       </c>
-      <c r="K85" s="40">
+      <c r="K85" s="39">
         <v>97.142927608592601</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A86" s="34"/>
-      <c r="B86" s="38" t="s">
+      <c r="A86" s="33"/>
+      <c r="B86" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="C86" s="39">
+      <c r="C86" s="38">
         <v>18.939668197763702</v>
       </c>
-      <c r="D86" s="39">
+      <c r="D86" s="38">
         <v>44.976434153675697</v>
       </c>
-      <c r="E86" s="40">
+      <c r="E86" s="39">
         <v>36.083897648560601</v>
       </c>
-      <c r="F86" s="39">
+      <c r="F86" s="38">
         <v>7.2267776401348902</v>
       </c>
-      <c r="G86" s="39">
+      <c r="G86" s="38">
         <v>42.845394722257502</v>
       </c>
-      <c r="H86" s="40">
+      <c r="H86" s="39">
         <v>49.927827637607699</v>
       </c>
-      <c r="I86" s="39">
+      <c r="I86" s="38">
         <v>0.12199835107611</v>
       </c>
-      <c r="J86" s="39">
+      <c r="J86" s="38">
         <v>19.112419730943099</v>
       </c>
-      <c r="K86" s="40">
+      <c r="K86" s="39">
         <v>80.765581917980796</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A87" s="34"/>
-      <c r="B87" s="38" t="s">
+      <c r="A87" s="33"/>
+      <c r="B87" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="C87" s="39">
+      <c r="C87" s="38">
         <v>13.8744774731391</v>
       </c>
-      <c r="D87" s="39">
+      <c r="D87" s="38">
         <v>42.130694285124598</v>
       </c>
-      <c r="E87" s="40">
+      <c r="E87" s="39">
         <v>43.9948282417363</v>
       </c>
-      <c r="F87" s="39">
+      <c r="F87" s="38">
         <v>5.3379845748518804</v>
       </c>
-      <c r="G87" s="39">
+      <c r="G87" s="38">
         <v>36.360665281843701</v>
       </c>
-      <c r="H87" s="40">
+      <c r="H87" s="39">
         <v>58.301350143304397</v>
       </c>
-      <c r="I87" s="39">
+      <c r="I87" s="38">
         <v>0.11052449841784</v>
       </c>
-      <c r="J87" s="39">
+      <c r="J87" s="38">
         <v>19.109243930036701</v>
       </c>
-      <c r="K87" s="40">
+      <c r="K87" s="39">
         <v>80.780231571545499</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A88" s="34"/>
-      <c r="B88" s="38" t="s">
+      <c r="A88" s="33"/>
+      <c r="B88" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="C88" s="39">
+      <c r="C88" s="38">
         <v>4.5946262098148196</v>
       </c>
-      <c r="D88" s="39">
+      <c r="D88" s="38">
         <v>45.7158696171823</v>
       </c>
-      <c r="E88" s="40">
+      <c r="E88" s="39">
         <v>49.689504173002902</v>
       </c>
-      <c r="F88" s="39">
+      <c r="F88" s="38">
         <v>0.49548317721056001</v>
       </c>
-      <c r="G88" s="39">
+      <c r="G88" s="38">
         <v>32.599455849157998</v>
       </c>
-      <c r="H88" s="40">
+      <c r="H88" s="39">
         <v>66.905060973631393</v>
       </c>
-      <c r="I88" s="39">
+      <c r="I88" s="38">
         <v>1.066992584402E-2</v>
       </c>
-      <c r="J88" s="39">
+      <c r="J88" s="38">
         <v>19.476009641733</v>
       </c>
-      <c r="K88" s="40">
+      <c r="K88" s="39">
         <v>80.513320432423001</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A89" s="34"/>
-      <c r="B89" s="38" t="s">
+      <c r="A89" s="33"/>
+      <c r="B89" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="C89" s="39">
+      <c r="C89" s="38">
         <v>2.9565442291508202</v>
       </c>
-      <c r="D89" s="39">
+      <c r="D89" s="38">
         <v>44.612355288029697</v>
       </c>
-      <c r="E89" s="40">
+      <c r="E89" s="39">
         <v>52.431100482819502</v>
       </c>
-      <c r="F89" s="39">
+      <c r="F89" s="38">
         <v>0.68724382793268002</v>
       </c>
-      <c r="G89" s="39">
+      <c r="G89" s="38">
         <v>31.526201970702001</v>
       </c>
-      <c r="H89" s="40">
+      <c r="H89" s="39">
         <v>67.786554201365306</v>
       </c>
-      <c r="I89" s="39">
+      <c r="I89" s="38">
         <v>1.0792413838240001E-2</v>
       </c>
-      <c r="J89" s="39">
+      <c r="J89" s="38">
         <v>18.512958555738301</v>
       </c>
-      <c r="K89" s="40">
+      <c r="K89" s="39">
         <v>81.476249030423503</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="34"/>
-      <c r="B90" s="41" t="s">
+      <c r="A90" s="33"/>
+      <c r="B90" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="C90" s="42">
+      <c r="C90" s="41">
         <v>0.85000700781723004</v>
       </c>
-      <c r="D90" s="42">
+      <c r="D90" s="41">
         <v>27.282523667750901</v>
       </c>
-      <c r="E90" s="43">
+      <c r="E90" s="42">
         <v>71.867469324431895</v>
       </c>
-      <c r="F90" s="42">
+      <c r="F90" s="41">
         <v>0.47603786357901001</v>
       </c>
-      <c r="G90" s="42">
+      <c r="G90" s="41">
         <v>23.013511322904201</v>
       </c>
-      <c r="H90" s="43">
-        <v>76.510450813516897</v>
-      </c>
-      <c r="I90" s="42">
+      <c r="H90" s="42">
+        <v>76.510450813516798</v>
+      </c>
+      <c r="I90" s="41">
         <v>3.4656573028359998E-2</v>
       </c>
-      <c r="J90" s="42">
+      <c r="J90" s="41">
         <v>18.837442068508398</v>
       </c>
-      <c r="K90" s="43">
+      <c r="K90" s="42">
         <v>81.127901358463305</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A91" s="34"/>
-      <c r="B91" s="38" t="s">
+      <c r="A91" s="33"/>
+      <c r="B91" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="C91" s="39">
+      <c r="C91" s="38">
         <v>40.266375445038101</v>
       </c>
-      <c r="D91" s="39">
+      <c r="D91" s="38">
         <v>44.138445370348997</v>
       </c>
-      <c r="E91" s="40">
+      <c r="E91" s="39">
         <v>15.595179184612901</v>
       </c>
-      <c r="F91" s="39">
+      <c r="F91" s="38">
         <v>20.690314419147299</v>
       </c>
-      <c r="G91" s="39">
+      <c r="G91" s="38">
         <v>51.160342034260502</v>
       </c>
-      <c r="H91" s="40">
+      <c r="H91" s="39">
         <v>28.149343546592199</v>
       </c>
-      <c r="I91" s="39">
+      <c r="I91" s="38">
         <v>0.12220393700288</v>
       </c>
-      <c r="J91" s="39">
+      <c r="J91" s="38">
         <v>18.059407447019201</v>
       </c>
-      <c r="K91" s="40">
+      <c r="K91" s="39">
         <v>81.818388615977995</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A92" s="34"/>
-      <c r="B92" s="38" t="s">
+      <c r="A92" s="33"/>
+      <c r="B92" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="C92" s="39">
+      <c r="C92" s="38">
         <v>25.7021478385427</v>
       </c>
-      <c r="D92" s="39">
+      <c r="D92" s="38">
         <v>44.256427741428602</v>
       </c>
-      <c r="E92" s="40">
+      <c r="E92" s="39">
         <v>30.041424420028701</v>
       </c>
-      <c r="F92" s="39">
+      <c r="F92" s="38">
         <v>15.6949476517759</v>
       </c>
-      <c r="G92" s="39">
+      <c r="G92" s="38">
         <v>36.972983264402799</v>
       </c>
-      <c r="H92" s="40">
+      <c r="H92" s="39">
         <v>47.332069083821303</v>
       </c>
-      <c r="I92" s="39">
+      <c r="I92" s="38">
         <v>0.15270641160569001</v>
       </c>
-      <c r="J92" s="39">
+      <c r="J92" s="38">
         <v>13.8646071937101</v>
       </c>
-      <c r="K92" s="40">
+      <c r="K92" s="39">
         <v>85.982686394684194</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A93" s="34"/>
-      <c r="B93" s="38" t="s">
+      <c r="A93" s="33"/>
+      <c r="B93" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="C93" s="39">
+      <c r="C93" s="38">
         <v>26.249810059261499</v>
       </c>
-      <c r="D93" s="39">
+      <c r="D93" s="38">
         <v>46.223978118826899</v>
       </c>
-      <c r="E93" s="40">
+      <c r="E93" s="39">
         <v>27.526211821911598</v>
       </c>
-      <c r="F93" s="39">
+      <c r="F93" s="38">
         <v>13.034780925340399</v>
       </c>
-      <c r="G93" s="39">
+      <c r="G93" s="38">
         <v>46.505775311350597</v>
       </c>
-      <c r="H93" s="40">
+      <c r="H93" s="39">
         <v>40.459443763308997</v>
       </c>
-      <c r="I93" s="39">
+      <c r="I93" s="38">
         <v>0.10826416456153</v>
       </c>
-      <c r="J93" s="39">
+      <c r="J93" s="38">
         <v>18.556477805846299</v>
       </c>
-      <c r="K93" s="40">
+      <c r="K93" s="39">
         <v>81.335258029592197</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A94" s="34"/>
-      <c r="B94" s="38" t="s">
+      <c r="A94" s="33"/>
+      <c r="B94" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="C94" s="39">
+      <c r="C94" s="38">
         <v>11.664030689504299</v>
       </c>
-      <c r="D94" s="39">
+      <c r="D94" s="38">
         <v>42.959248914762597</v>
       </c>
-      <c r="E94" s="40">
+      <c r="E94" s="39">
         <v>45.376720395733102</v>
       </c>
-      <c r="F94" s="39">
+      <c r="F94" s="38">
         <v>3.5179940687702098</v>
       </c>
-      <c r="G94" s="39">
+      <c r="G94" s="38">
         <v>36.909214779983401</v>
       </c>
-      <c r="H94" s="40">
+      <c r="H94" s="39">
         <v>59.572791151246399</v>
       </c>
-      <c r="I94" s="39">
+      <c r="I94" s="38">
         <v>5.2085593992790002E-2</v>
       </c>
-      <c r="J94" s="39">
+      <c r="J94" s="38">
         <v>18.829665639422998</v>
       </c>
-      <c r="K94" s="40">
+      <c r="K94" s="39">
         <v>81.118248766584202</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A95" s="34"/>
-      <c r="B95" s="38" t="s">
+      <c r="A95" s="33"/>
+      <c r="B95" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="C95" s="39">
+      <c r="C95" s="38">
         <v>45.433425403154097</v>
       </c>
-      <c r="D95" s="39">
+      <c r="D95" s="38">
         <v>38.784357716554901</v>
       </c>
-      <c r="E95" s="40">
+      <c r="E95" s="39">
         <v>15.782216880290999</v>
       </c>
-      <c r="F95" s="39">
+      <c r="F95" s="38">
         <v>26.272014693917001</v>
       </c>
-      <c r="G95" s="39">
+      <c r="G95" s="38">
         <v>46.4155703962685</v>
       </c>
-      <c r="H95" s="40">
+      <c r="H95" s="39">
         <v>27.3124149098145</v>
       </c>
-      <c r="I95" s="39">
+      <c r="I95" s="38">
         <v>0.15860233042357</v>
       </c>
-      <c r="J95" s="39">
+      <c r="J95" s="38">
         <v>17.582475903906399</v>
       </c>
-      <c r="K95" s="40">
+      <c r="K95" s="39">
         <v>82.258921765670095</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="34"/>
-      <c r="B96" s="41" t="s">
+      <c r="A96" s="33"/>
+      <c r="B96" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="C96" s="42">
+      <c r="C96" s="41">
         <v>14.4430386513891</v>
       </c>
-      <c r="D96" s="42">
+      <c r="D96" s="41">
         <v>32.074059554145798</v>
       </c>
-      <c r="E96" s="43">
+      <c r="E96" s="42">
         <v>53.482901794465199</v>
       </c>
-      <c r="F96" s="42">
+      <c r="F96" s="41">
         <v>11.155603483308701</v>
       </c>
-      <c r="G96" s="42">
+      <c r="G96" s="41">
         <v>24.8160185946276</v>
       </c>
-      <c r="H96" s="43">
+      <c r="H96" s="42">
         <v>64.028377922063797</v>
       </c>
-      <c r="I96" s="42">
+      <c r="I96" s="41">
         <v>0.10931745480684001</v>
       </c>
-      <c r="J96" s="42">
+      <c r="J96" s="41">
         <v>13.2480790131335</v>
       </c>
-      <c r="K96" s="43">
+      <c r="K96" s="42">
         <v>86.642603532059695</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A97" s="34"/>
-      <c r="B97" s="38" t="s">
+      <c r="A97" s="33"/>
+      <c r="B97" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="C97" s="39">
+      <c r="C97" s="44">
         <v>33.749223437011103</v>
       </c>
-      <c r="D97" s="39">
+      <c r="D97" s="44">
         <v>43.338790058179903</v>
       </c>
-      <c r="E97" s="40">
+      <c r="E97" s="45">
         <v>22.911986504809001</v>
       </c>
-      <c r="F97" s="39">
+      <c r="F97" s="44">
         <v>16.093155751780898</v>
       </c>
-      <c r="G97" s="39">
+      <c r="G97" s="44">
         <v>47.412498859875797</v>
       </c>
-      <c r="H97" s="40">
+      <c r="H97" s="45">
         <v>36.494345388343397</v>
       </c>
-      <c r="I97" s="39">
+      <c r="I97" s="44">
         <v>0.1296138066185</v>
       </c>
-      <c r="J97" s="39">
+      <c r="J97" s="44">
         <v>18.5301853026534</v>
       </c>
-      <c r="K97" s="40">
+      <c r="K97" s="45">
         <v>81.340200890728099</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A98" s="34"/>
-      <c r="B98" s="38" t="s">
+    <row r="98" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="33"/>
+      <c r="B98" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="C98" s="39">
+      <c r="C98" s="46">
         <v>23.243366968118</v>
       </c>
-      <c r="D98" s="39">
+      <c r="D98" s="46">
         <v>41.302493082847803</v>
       </c>
-      <c r="E98" s="40">
+      <c r="E98" s="47">
         <v>35.4541399490342</v>
       </c>
-      <c r="F98" s="39">
+      <c r="F98" s="46">
         <v>11.304261073317001</v>
       </c>
-      <c r="G98" s="39">
+      <c r="G98" s="46">
         <v>37.836914008823797</v>
       </c>
-      <c r="H98" s="40">
+      <c r="H98" s="47">
         <v>50.858824917859302</v>
       </c>
-      <c r="I98" s="39">
+      <c r="I98" s="46">
         <v>0.12915209869881999</v>
       </c>
-      <c r="J98" s="39">
+      <c r="J98" s="46">
         <v>16.067222892642398</v>
       </c>
-      <c r="K98" s="40">
+      <c r="K98" s="47">
         <v>83.803625008658798</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="34"/>
-      <c r="B99" s="41" t="s">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C99" s="48"/>
+      <c r="D99" s="48"/>
+      <c r="E99" s="48"/>
+      <c r="F99" s="48"/>
+      <c r="G99" s="48"/>
+      <c r="H99" s="48"/>
+      <c r="I99" s="48"/>
+      <c r="J99" s="48"/>
+      <c r="K99" s="48"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C99" s="42">
-        <v>33.7200154631172</v>
-      </c>
-      <c r="D99" s="42">
-        <v>39.838054064642897</v>
-      </c>
-      <c r="E99" s="43">
-        <v>26.4419304722399</v>
-      </c>
-      <c r="F99" s="42">
-        <v>15.3126025951524</v>
-      </c>
-      <c r="G99" s="42">
-        <v>40.977006653752198</v>
-      </c>
-      <c r="H99" s="43">
-        <v>43.710390751095403</v>
-      </c>
-      <c r="I99" s="42">
-        <v>0.14992737405789</v>
-      </c>
-      <c r="J99" s="42">
-        <v>14.1896441017137</v>
-      </c>
-      <c r="K99" s="43">
-        <v>85.660428524228394</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A100" s="44"/>
-      <c r="B100" s="45"/>
-      <c r="C100" s="46"/>
-      <c r="D100" s="46"/>
-      <c r="E100" s="46"/>
-      <c r="F100" s="46"/>
-      <c r="G100" s="46"/>
-      <c r="H100" s="46"/>
-      <c r="I100" s="46"/>
-      <c r="J100" s="46"/>
-      <c r="K100" s="46"/>
+      <c r="C100" s="49"/>
+      <c r="D100" s="49"/>
+      <c r="E100" s="49"/>
+      <c r="F100" s="49"/>
+      <c r="G100" s="49"/>
+      <c r="H100" s="49"/>
+      <c r="I100" s="49"/>
+      <c r="J100" s="49"/>
+      <c r="K100" s="49"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A101" s="47" t="s">
+      <c r="A101" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B101" s="48"/>
       <c r="C101" s="49"/>
       <c r="D101" s="49"/>
       <c r="E101" s="49"/>
@@ -4694,10 +4707,9 @@
       <c r="K101" s="49"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A102" s="47" t="s">
+      <c r="A102" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B102" s="48"/>
       <c r="C102" s="49"/>
       <c r="D102" s="49"/>
       <c r="E102" s="49"/>
@@ -4709,10 +4721,9 @@
       <c r="K102" s="49"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A103" s="47" t="s">
+      <c r="A103" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B103" s="48"/>
       <c r="C103" s="49"/>
       <c r="D103" s="49"/>
       <c r="E103" s="49"/>
@@ -4724,10 +4735,9 @@
       <c r="K103" s="49"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A104" s="47" t="s">
-        <v>165</v>
-      </c>
-      <c r="B104" s="48"/>
+      <c r="A104" s="1">
+        <v>0</v>
+      </c>
       <c r="C104" s="49"/>
       <c r="D104" s="49"/>
       <c r="E104" s="49"/>
@@ -4739,10 +4749,6 @@
       <c r="K104" s="49"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A105" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="B105" s="48"/>
       <c r="C105" s="49"/>
       <c r="D105" s="49"/>
       <c r="E105" s="49"/>
@@ -4753,8 +4759,8 @@
       <c r="J105" s="49"/>
       <c r="K105" s="49"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B106" s="48"/>
+    <row r="106" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B106" s="50"/>
       <c r="C106" s="49"/>
       <c r="D106" s="49"/>
       <c r="E106" s="49"/>
@@ -4765,8 +4771,10 @@
       <c r="J106" s="49"/>
       <c r="K106" s="49"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B107" s="48"/>
+    <row r="107" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B107" s="50" t="s">
+        <v>165</v>
+      </c>
       <c r="C107" s="49"/>
       <c r="D107" s="49"/>
       <c r="E107" s="49"/>
@@ -4777,10 +4785,8 @@
       <c r="J107" s="49"/>
       <c r="K107" s="49"/>
     </row>
-    <row r="108" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B108" s="50" t="s">
-        <v>167</v>
-      </c>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B108" s="2"/>
       <c r="C108" s="49"/>
       <c r="D108" s="49"/>
       <c r="E108" s="49"/>
@@ -4791,8 +4797,10 @@
       <c r="J108" s="49"/>
       <c r="K108" s="49"/>
     </row>
-    <row r="109" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B109" s="50"/>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B109" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="C109" s="49"/>
       <c r="D109" s="49"/>
       <c r="E109" s="49"/>
@@ -4805,7 +4813,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C110" s="49"/>
       <c r="D110" s="49"/>
@@ -4818,9 +4826,7 @@
       <c r="K110" s="49"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B111" s="2" t="s">
-        <v>169</v>
-      </c>
+      <c r="B111" s="2"/>
       <c r="C111" s="49"/>
       <c r="D111" s="49"/>
       <c r="E111" s="49"/>
@@ -4832,7 +4838,9 @@
       <c r="K111" s="49"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B112" s="2"/>
+      <c r="B112" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="C112" s="49"/>
       <c r="D112" s="49"/>
       <c r="E112" s="49"/>
@@ -4845,7 +4853,7 @@
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C113" s="49"/>
       <c r="D113" s="49"/>
@@ -4858,9 +4866,7 @@
       <c r="K113" s="49"/>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B114" s="2" t="s">
-        <v>171</v>
-      </c>
+      <c r="B114" s="2"/>
       <c r="C114" s="49"/>
       <c r="D114" s="49"/>
       <c r="E114" s="49"/>
@@ -4871,27 +4877,15 @@
       <c r="J114" s="49"/>
       <c r="K114" s="49"/>
     </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B115" s="2"/>
-      <c r="C115" s="49"/>
-      <c r="D115" s="49"/>
-      <c r="E115" s="49"/>
-      <c r="F115" s="49"/>
-      <c r="G115" s="49"/>
-      <c r="H115" s="49"/>
-      <c r="I115" s="49"/>
-      <c r="J115" s="49"/>
-      <c r="K115" s="49"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B108" r:id="rId1" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr."/>
-    <hyperlink ref="B110" r:id="rId2"/>
-    <hyperlink ref="B111" r:id="rId3"/>
-    <hyperlink ref="B113" r:id="rId4"/>
-    <hyperlink ref="B114" r:id="rId5"/>
+    <hyperlink ref="B107" r:id="rId1" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr." xr:uid="{21C6726E-620B-42BB-AF58-6DEA4DF88966}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{B42235FC-5876-4218-8921-E94C3A67F98F}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{D6A310A6-B4B9-4389-9B7F-4A6B25B40C2A}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{7DD2F1FC-A4B2-4179-904F-5AE3CE970DF3}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{55E424D6-E2A5-4605-B675-5663D5495C07}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="46" fitToWidth="0" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" scale="46" fitToWidth="0" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/DDAf_2023_Tableau_annexe_Tab08.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40A28FAD-478C-4F06-A94F-45A49159308D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E8E4761-8D4D-4AA9-B0DE-0DDD2136DCC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{C1DCCCC4-5B21-4796-B9C0-3A85B09BDC48}"/>
+    <workbookView xWindow="32220" yWindow="1125" windowWidth="17280" windowHeight="15075" xr2:uid="{21573E07-8E5C-4716-9C6A-27C40F78C1C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab08" sheetId="1" r:id="rId1"/>
@@ -1390,7 +1390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE41A8A-0EF0-4F3E-8E29-958D7A4ACF1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F457A8F1-E29B-4456-99E7-67547D1FFB4C}">
   <dimension ref="A1:P114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -1510,16 +1510,16 @@
         <v>7.0616037079996099</v>
       </c>
       <c r="M3" s="12">
-        <v>59.205562577697997</v>
+        <v>59.2055641865932</v>
       </c>
       <c r="N3" s="12">
-        <v>7.4950022801182197</v>
+        <v>7.4949989187929802</v>
       </c>
       <c r="O3" s="13">
-        <v>33.299435142183803</v>
+        <v>33.299436894613798</v>
       </c>
       <c r="P3" s="13">
-        <v>1.5706631728706899</v>
+        <v>1.5706626642058199</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
@@ -1560,16 +1560,16 @@
         <v>5.9812231736858301</v>
       </c>
       <c r="M4" s="16">
-        <v>23.440739412549199</v>
+        <v>23.440741778197701</v>
       </c>
       <c r="N4" s="16">
-        <v>14.3363441776025</v>
+        <v>14.3363449477517</v>
       </c>
       <c r="O4" s="17">
-        <v>62.223056492553198</v>
+        <v>62.223031966158501</v>
       </c>
       <c r="P4" s="17">
-        <v>5.8725471518384502</v>
+        <v>5.8726481158814803</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
@@ -1610,16 +1610,16 @@
         <v>28.486114063633199</v>
       </c>
       <c r="M5" s="20">
-        <v>12.698928591674401</v>
+        <v>12.698837565004601</v>
       </c>
       <c r="N5" s="20">
-        <v>24.146180155325901</v>
+        <v>24.1462498957146</v>
       </c>
       <c r="O5" s="21">
-        <v>63.154891252999803</v>
+        <v>63.1549125392809</v>
       </c>
       <c r="P5" s="21">
-        <v>15.978534041306901</v>
+        <v>15.9782669150978</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
@@ -1660,16 +1660,16 @@
         <v>17.9093941475587</v>
       </c>
       <c r="M6" s="20">
-        <v>30.474480235889299</v>
+        <v>30.474536096699801</v>
       </c>
       <c r="N6" s="20">
-        <v>34.386995459332702</v>
+        <v>34.387069900481201</v>
       </c>
       <c r="O6" s="21">
-        <v>35.138379835565097</v>
+        <v>35.138394002819098</v>
       </c>
       <c r="P6" s="21">
-        <v>22.875977514811701</v>
+        <v>22.875923196261201</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
@@ -1710,16 +1710,16 @@
         <v>12.8133248463862</v>
       </c>
       <c r="M7" s="20">
-        <v>62.435811367749999</v>
+        <v>62.435810501419802</v>
       </c>
       <c r="N7" s="20">
-        <v>7.9074528801066304</v>
+        <v>7.9074625815547597</v>
       </c>
       <c r="O7" s="21">
-        <v>29.656735752143401</v>
+        <v>29.656741159599001</v>
       </c>
       <c r="P7" s="21">
-        <v>4.1613783103212096</v>
+        <v>4.1613666489916303</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
@@ -1760,16 +1760,16 @@
         <v>8.8242457974895192</v>
       </c>
       <c r="M8" s="20">
-        <v>70.834453234889594</v>
+        <v>70.834459968094293</v>
       </c>
       <c r="N8" s="20">
-        <v>8.9271348164634805</v>
+        <v>8.9271294157365908</v>
       </c>
       <c r="O8" s="21">
-        <v>20.238411948646998</v>
+        <v>20.238410616169102</v>
       </c>
       <c r="P8" s="21">
-        <v>4.8476391054708303</v>
+        <v>4.8476343711553103</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
@@ -1810,16 +1810,16 @@
         <v>11.7739373561483</v>
       </c>
       <c r="M9" s="20">
-        <v>22.380949124258802</v>
+        <v>22.380875144670799</v>
       </c>
       <c r="N9" s="20">
-        <v>16.106798706050501</v>
+        <v>16.1067690793579</v>
       </c>
       <c r="O9" s="21">
-        <v>61.512388950820302</v>
+        <v>61.512355775971301</v>
       </c>
       <c r="P9" s="21">
-        <v>7.7762807843030002</v>
+        <v>7.7762077430812404</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
@@ -1860,16 +1860,16 @@
         <v>12.8851974570438</v>
       </c>
       <c r="M10" s="20">
-        <v>21.4494574070706</v>
+        <v>21.449455375191299</v>
       </c>
       <c r="N10" s="20">
-        <v>17.644952888970799</v>
+        <v>17.6449557729307</v>
       </c>
       <c r="O10" s="21">
-        <v>60.905589703958597</v>
+        <v>60.905588851878001</v>
       </c>
       <c r="P10" s="21">
-        <v>8.5235565736095094</v>
+        <v>8.5235548535889301</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
@@ -1910,16 +1910,16 @@
         <v>8.1332139619971109</v>
       </c>
       <c r="M11" s="16">
-        <v>59.1117385169985</v>
+        <v>59.111728415106398</v>
       </c>
       <c r="N11" s="16">
-        <v>8.6711464297880294</v>
+        <v>8.6711367085626492</v>
       </c>
       <c r="O11" s="17">
-        <v>32.217130247092001</v>
+        <v>32.2171184761185</v>
       </c>
       <c r="P11" s="17">
-        <v>4.44911706852956</v>
+        <v>4.4491152249403898</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1960,16 +1960,16 @@
         <v>16.621917030710701</v>
       </c>
       <c r="M12" s="20">
-        <v>62.223988596133601</v>
+        <v>62.223978625368801</v>
       </c>
       <c r="N12" s="20">
-        <v>11.254044002264401</v>
+        <v>11.254044741659699</v>
       </c>
       <c r="O12" s="21">
-        <v>26.521982067068102</v>
+        <v>26.521976632971601</v>
       </c>
       <c r="P12" s="21">
-        <v>4.5161569439515201</v>
+        <v>4.5161425556063302</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1980,13 +1980,13 @@
         <v>38</v>
       </c>
       <c r="C13" s="24">
-        <v>4.0898169487316496</v>
+        <v>4.0964719045600999</v>
       </c>
       <c r="D13" s="25">
-        <v>1.2635583511989099</v>
+        <v>1.26127113121723</v>
       </c>
       <c r="E13" s="26">
-        <v>8.18419339305715</v>
+        <v>8.1884297322595607</v>
       </c>
       <c r="F13" s="24">
         <v>5.49155750679882</v>
@@ -2010,16 +2010,16 @@
         <v>11.9592519372471</v>
       </c>
       <c r="M13" s="25">
-        <v>42.425610906491201</v>
+        <v>42.425598765634703</v>
       </c>
       <c r="N13" s="25">
-        <v>15.087605179602299</v>
+        <v>15.087616196254301</v>
       </c>
       <c r="O13" s="26">
-        <v>42.486800139303099</v>
+        <v>42.486796691557998</v>
       </c>
       <c r="P13" s="26">
-        <v>8.05718506670134</v>
+        <v>8.0571522288810105</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
@@ -2060,16 +2060,16 @@
         <v>13.7743174115547</v>
       </c>
       <c r="M14" s="20">
-        <v>86.094793245553006</v>
+        <v>86.094777454630702</v>
       </c>
       <c r="N14" s="20">
-        <v>3.49267729883685</v>
+        <v>3.4926771899375102</v>
       </c>
       <c r="O14" s="21">
-        <v>10.412529455610199</v>
+        <v>10.412525583023999</v>
       </c>
       <c r="P14" s="21">
-        <v>1.77474236272921</v>
+        <v>1.7747515448676501</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
@@ -2110,16 +2110,16 @@
         <v>14.335175663369901</v>
       </c>
       <c r="M15" s="20">
-        <v>43.304172594966801</v>
+        <v>43.304174388970502</v>
       </c>
       <c r="N15" s="20">
-        <v>15.1474168123027</v>
+        <v>15.1474141641815</v>
       </c>
       <c r="O15" s="21">
-        <v>41.548401609323498</v>
+        <v>41.548411446848</v>
       </c>
       <c r="P15" s="21">
-        <v>10.9259700777083</v>
+        <v>10.9259672170461</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
@@ -2160,16 +2160,16 @@
         <v>19.2404334107928</v>
       </c>
       <c r="M16" s="20">
-        <v>68.944425325484204</v>
+        <v>68.944414253594701</v>
       </c>
       <c r="N16" s="20">
-        <v>6.54592076575027</v>
+        <v>6.5459352090235701</v>
       </c>
       <c r="O16" s="21">
-        <v>24.5096539087656</v>
+        <v>24.509650537381798</v>
       </c>
       <c r="P16" s="21">
-        <v>4.8016271309278098</v>
+        <v>4.8016350602560802</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
@@ -2210,16 +2210,16 @@
         <v>9.2247589167510302</v>
       </c>
       <c r="M17" s="29">
-        <v>69.463435094401007</v>
+        <v>69.463435986334005</v>
       </c>
       <c r="N17" s="29">
-        <v>9.4092767223859202</v>
+        <v>9.4092795028702501</v>
       </c>
       <c r="O17" s="30">
-        <v>21.1272881832131</v>
+        <v>21.127304245685199</v>
       </c>
       <c r="P17" s="30">
-        <v>7.4867585742084204</v>
+        <v>7.48676578317514</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
@@ -2260,16 +2260,16 @@
         <v>11.816640882096401</v>
       </c>
       <c r="M18" s="29">
-        <v>36.783832930053201</v>
+        <v>36.783843261383097</v>
       </c>
       <c r="N18" s="29">
-        <v>20.990547665762701</v>
+        <v>20.9905908311144</v>
       </c>
       <c r="O18" s="30">
-        <v>42.225619404184101</v>
+        <v>42.225623667900798</v>
       </c>
       <c r="P18" s="30">
-        <v>16.800592992176199</v>
+        <v>16.800593776894701</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
@@ -2310,16 +2310,16 @@
         <v>19.6064471075439</v>
       </c>
       <c r="M19" s="16">
-        <v>55.911120080924199</v>
+        <v>55.911123331592201</v>
       </c>
       <c r="N19" s="16">
-        <v>9.7727057033127593</v>
+        <v>9.7727034915574205</v>
       </c>
       <c r="O19" s="17">
-        <v>34.316174215762999</v>
+        <v>34.316169928258397</v>
       </c>
       <c r="P19" s="17">
-        <v>6.35827424836096</v>
+        <v>6.3582741491312298</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
@@ -2360,16 +2360,16 @@
         <v>20.676996201398602</v>
       </c>
       <c r="M20" s="29">
-        <v>56.110552671559503</v>
+        <v>56.110496083550899</v>
       </c>
       <c r="N20" s="29">
-        <v>13.4059916738958</v>
+        <v>13.405953002611</v>
       </c>
       <c r="O20" s="30">
-        <v>30.483455654544699</v>
+        <v>30.483550913838101</v>
       </c>
       <c r="P20" s="30">
-        <v>8.1732600783039402</v>
+        <v>8.1733681462141003</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
@@ -2410,16 +2410,16 @@
         <v>8.765625</v>
       </c>
       <c r="M21" s="29">
-        <v>29.639791620652101</v>
+        <v>29.639822041747099</v>
       </c>
       <c r="N21" s="29">
-        <v>15.5397223131936</v>
+        <v>15.539717683512301</v>
       </c>
       <c r="O21" s="30">
-        <v>54.820295661048497</v>
+        <v>54.820270876855403</v>
       </c>
       <c r="P21" s="30">
-        <v>7.4039025430505898</v>
+        <v>7.40375272969702</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2460,16 +2460,16 @@
         <v>5.6776204279494298</v>
       </c>
       <c r="M22" s="20">
-        <v>18.3508403361345</v>
+        <v>18.351792306776201</v>
       </c>
       <c r="N22" s="20">
-        <v>19.775910364145702</v>
+        <v>19.777471545960299</v>
       </c>
       <c r="O22" s="21">
-        <v>61.871498599439803</v>
+        <v>61.8707361472635</v>
       </c>
       <c r="P22" s="21">
-        <v>9.7986694677871196</v>
+        <v>9.7977168716718595</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2480,13 +2480,13 @@
         <v>57</v>
       </c>
       <c r="C23" s="24">
-        <v>6.2766575577992603</v>
+        <v>6.2775428415576897</v>
       </c>
       <c r="D23" s="25">
-        <v>1.5754079584885601</v>
+        <v>1.6034726137867801</v>
       </c>
       <c r="E23" s="26">
-        <v>13.8727948969268</v>
+        <v>13.931548477083201</v>
       </c>
       <c r="F23" s="24">
         <v>19.393565513594499</v>
@@ -2510,16 +2510,16 @@
         <v>15.1698698844923</v>
       </c>
       <c r="M23" s="25">
-        <v>51.6225515444143</v>
+        <v>51.622653234286602</v>
       </c>
       <c r="N23" s="25">
-        <v>12.6755743688429</v>
+        <v>12.675749180085401</v>
       </c>
       <c r="O23" s="26">
-        <v>35.701657410210302</v>
+        <v>35.701582594117198</v>
       </c>
       <c r="P23" s="26">
-        <v>8.1693108305836102</v>
+        <v>8.1692028087726491</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
@@ -2560,16 +2560,16 @@
         <v>6.6548812478979196</v>
       </c>
       <c r="M24" s="20">
-        <v>35.600650600554403</v>
+        <v>35.600590620100398</v>
       </c>
       <c r="N24" s="20">
-        <v>19.687403757314399</v>
+        <v>19.687336678827499</v>
       </c>
       <c r="O24" s="21">
-        <v>44.711945642131198</v>
+        <v>44.712072701072202</v>
       </c>
       <c r="P24" s="21">
-        <v>9.6565098552510005</v>
+        <v>9.6564356787310803</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
@@ -2610,16 +2610,16 @@
         <v>3.0254350690906899</v>
       </c>
       <c r="M25" s="20">
-        <v>1.2161111005710601</v>
+        <v>1.21645558942967</v>
       </c>
       <c r="N25" s="20">
-        <v>5.8471987706084398</v>
+        <v>5.8473013845542097</v>
       </c>
       <c r="O25" s="21">
-        <v>92.936057725752093</v>
+        <v>92.9362430260162</v>
       </c>
       <c r="P25" s="21">
-        <v>0.26307967646259001</v>
+        <v>0.26329425090677</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
@@ -2660,16 +2660,16 @@
         <v>6.0286318036511597</v>
       </c>
       <c r="M26" s="20">
-        <v>62.858367615031</v>
+        <v>62.858349280526099</v>
       </c>
       <c r="N26" s="20">
-        <v>8.4238946313133098</v>
+        <v>8.4239503927767192</v>
       </c>
       <c r="O26" s="21">
-        <v>28.717737753655801</v>
+        <v>28.717700326697202</v>
       </c>
       <c r="P26" s="21">
-        <v>4.7962111522107396</v>
+        <v>4.7961843037332299</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
@@ -2710,16 +2710,16 @@
         <v>5.5538345946079604</v>
       </c>
       <c r="M27" s="20">
-        <v>64.086418214547606</v>
+        <v>64.086419838902799</v>
       </c>
       <c r="N27" s="20">
-        <v>9.9106057270335803</v>
+        <v>9.9106073961328001</v>
       </c>
       <c r="O27" s="21">
-        <v>26.002976058418898</v>
+        <v>26.0029746335467</v>
       </c>
       <c r="P27" s="21">
-        <v>5.1179083511501897</v>
+        <v>5.1179086647432204</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
@@ -2760,16 +2760,16 @@
         <v>8.1021011634217608</v>
       </c>
       <c r="M28" s="20">
-        <v>33.637913785572501</v>
+        <v>33.637911506178099</v>
       </c>
       <c r="N28" s="20">
-        <v>15.287660520615701</v>
+        <v>15.2876615213885</v>
       </c>
       <c r="O28" s="21">
-        <v>51.074425693811897</v>
+        <v>51.0744269724334</v>
       </c>
       <c r="P28" s="21">
-        <v>6.9557739425991398</v>
+        <v>6.9557762581631302</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
@@ -2810,16 +2810,16 @@
         <v>10.318866148658</v>
       </c>
       <c r="M29" s="20">
-        <v>74.254589106584106</v>
+        <v>74.254588757259597</v>
       </c>
       <c r="N29" s="20">
-        <v>10.2190129088587</v>
+        <v>10.219013528487</v>
       </c>
       <c r="O29" s="21">
-        <v>15.526383289599901</v>
+        <v>15.5263906082465</v>
       </c>
       <c r="P29" s="21">
-        <v>7.5211142657102501</v>
+        <v>7.5211114135901402</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
@@ -2860,16 +2860,16 @@
         <v>12.326841831113001</v>
       </c>
       <c r="M30" s="20">
-        <v>5.31792053748421</v>
+        <v>5.3179676690544202</v>
       </c>
       <c r="N30" s="20">
-        <v>23.4045244518814</v>
+        <v>23.404382016568299</v>
       </c>
       <c r="O30" s="21">
-        <v>71.277555010634401</v>
+        <v>71.277650314377297</v>
       </c>
       <c r="P30" s="21">
-        <v>13.317660324579499</v>
+        <v>13.317687444174</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
@@ -2910,16 +2910,16 @@
         <v>9.5162569389373601</v>
       </c>
       <c r="M31" s="20">
-        <v>55.489478571640198</v>
+        <v>55.489491808072799</v>
       </c>
       <c r="N31" s="20">
-        <v>17.5440932923727</v>
+        <v>17.544086441502898</v>
       </c>
       <c r="O31" s="21">
-        <v>26.966428135987101</v>
+        <v>26.9664217504242</v>
       </c>
       <c r="P31" s="21">
-        <v>4.2526851250032296</v>
+        <v>4.2526833355426703</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
@@ -3010,16 +3010,16 @@
         <v>2.48032173976791</v>
       </c>
       <c r="M33" s="20">
-        <v>26.765428281743102</v>
+        <v>26.765428292003602</v>
       </c>
       <c r="N33" s="20">
-        <v>17.3402245087252</v>
+        <v>17.340238401911801</v>
       </c>
       <c r="O33" s="21">
-        <v>55.894304028133597</v>
+        <v>55.894333306084697</v>
       </c>
       <c r="P33" s="21">
-        <v>10.904296203664201</v>
+        <v>10.9042847201427</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
@@ -3060,16 +3060,16 @@
         <v>2.5709534444752502</v>
       </c>
       <c r="M34" s="16">
-        <v>62.646229261404301</v>
+        <v>62.6462220092371</v>
       </c>
       <c r="N34" s="16">
-        <v>12.772026301547101</v>
+        <v>12.7720378609727</v>
       </c>
       <c r="O34" s="17">
-        <v>24.581744437048599</v>
+        <v>24.581740129790202</v>
       </c>
       <c r="P34" s="17">
-        <v>5.4747777618801798</v>
+        <v>5.4747758515060196</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.35">
@@ -3110,16 +3110,16 @@
         <v>8.7474863199608208</v>
       </c>
       <c r="M35" s="20">
-        <v>41.1973458198364</v>
+        <v>41.197343515526299</v>
       </c>
       <c r="N35" s="20">
-        <v>14.319843078237801</v>
+        <v>14.3198409038914</v>
       </c>
       <c r="O35" s="21">
-        <v>44.482811101925698</v>
+        <v>44.482805736500701</v>
       </c>
       <c r="P35" s="21">
-        <v>8.1038310340057205</v>
+        <v>8.1038349785418706</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
@@ -3160,16 +3160,16 @@
         <v>8.9420741974386893</v>
       </c>
       <c r="M36" s="20">
-        <v>64.826527328315294</v>
+        <v>64.826525935344904</v>
       </c>
       <c r="N36" s="20">
-        <v>7.0047923509968797</v>
+        <v>7.0047923012818796</v>
       </c>
       <c r="O36" s="21">
-        <v>28.168676656923001</v>
+        <v>28.168678068603398</v>
       </c>
       <c r="P36" s="21">
-        <v>2.9524009530478299</v>
+        <v>2.9523982474228498</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3210,16 +3210,16 @@
         <v>17.156375881331499</v>
       </c>
       <c r="M37" s="20">
-        <v>63.477082462637803</v>
+        <v>63.477086856366398</v>
       </c>
       <c r="N37" s="20">
-        <v>9.2021129099666794</v>
+        <v>9.2021123549249104</v>
       </c>
       <c r="O37" s="21">
-        <v>27.3208046273955</v>
+        <v>27.320807049096199</v>
       </c>
       <c r="P37" s="21">
-        <v>5.57832594052572</v>
+        <v>5.5783308454553202</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3230,13 +3230,13 @@
         <v>87</v>
       </c>
       <c r="C38" s="24">
-        <v>0.54077911374109999</v>
+        <v>0.54023133868089002</v>
       </c>
       <c r="D38" s="25">
-        <v>1.0450066098224</v>
+        <v>1.04399784117517</v>
       </c>
       <c r="E38" s="26">
-        <v>5.4419665763363101</v>
+        <v>5.4370454590835804</v>
       </c>
       <c r="F38" s="24">
         <v>27.822825227258502</v>
@@ -3260,16 +3260,16 @@
         <v>8.5488887737988399</v>
       </c>
       <c r="M38" s="25">
-        <v>45.490312514301699</v>
+        <v>45.490337052153997</v>
       </c>
       <c r="N38" s="25">
-        <v>13.151030246882501</v>
+        <v>13.1510277833247</v>
       </c>
       <c r="O38" s="26">
-        <v>41.358603858570604</v>
+        <v>41.358634201760701</v>
       </c>
       <c r="P38" s="26">
-        <v>6.5303518912377099</v>
+        <v>6.5303619994348399</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.35">
@@ -3310,16 +3310,16 @@
         <v>4.9516086401493702</v>
       </c>
       <c r="M39" s="29">
-        <v>10.5245022077436</v>
+        <v>10.524502480318599</v>
       </c>
       <c r="N39" s="29">
-        <v>30.492731259406401</v>
+        <v>30.492725109888799</v>
       </c>
       <c r="O39" s="30">
-        <v>58.9827854295064</v>
+        <v>58.982772409792602</v>
       </c>
       <c r="P39" s="30">
-        <v>10.6608132383928</v>
+        <v>10.660805161261599</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.35">
@@ -3360,16 +3360,16 @@
         <v>17.178583528056102</v>
       </c>
       <c r="M40" s="20">
-        <v>20.379125932957201</v>
+        <v>20.3791283410071</v>
       </c>
       <c r="N40" s="20">
-        <v>28.4964508666387</v>
+        <v>28.496450116466601</v>
       </c>
       <c r="O40" s="21">
-        <v>51.124419250229202</v>
+        <v>51.124421542526299</v>
       </c>
       <c r="P40" s="21">
-        <v>13.048762736104401</v>
+        <v>13.048763387135301</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.35">
@@ -3410,16 +3410,16 @@
         <v>2.6391253584335299</v>
       </c>
       <c r="M41" s="29">
-        <v>16.7720578828222</v>
+        <v>16.772073344212199</v>
       </c>
       <c r="N41" s="29">
-        <v>18.668510946037198</v>
+        <v>18.668463395620101</v>
       </c>
       <c r="O41" s="30">
-        <v>64.559431171140602</v>
+        <v>64.559463260167803</v>
       </c>
       <c r="P41" s="30">
-        <v>8.2798793866985996</v>
+        <v>8.2799130082439891</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.35">
@@ -3460,16 +3460,16 @@
         <v>6.4773206976454203</v>
       </c>
       <c r="M42" s="29">
-        <v>30.142421625876199</v>
+        <v>30.142408278417001</v>
       </c>
       <c r="N42" s="29">
-        <v>18.406811367493798</v>
+        <v>18.406772628008099</v>
       </c>
       <c r="O42" s="30">
-        <v>51.450856856876698</v>
+        <v>51.450819093574999</v>
       </c>
       <c r="P42" s="30">
-        <v>11.542701778945</v>
+        <v>11.5427064417394</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
@@ -3510,16 +3510,16 @@
         <v>16.881943660259001</v>
       </c>
       <c r="M43" s="20">
-        <v>34.988873116741402</v>
+        <v>34.9888789232634</v>
       </c>
       <c r="N43" s="20">
-        <v>22.323540682104198</v>
+        <v>22.323539952786401</v>
       </c>
       <c r="O43" s="21">
-        <v>42.687566838267003</v>
+        <v>42.6875714454535</v>
       </c>
       <c r="P43" s="21">
-        <v>10.9948283663977</v>
+        <v>10.9948304245095</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3560,16 +3560,16 @@
         <v>14.8680719988456</v>
       </c>
       <c r="M44" s="20">
-        <v>14.283025843050501</v>
+        <v>14.283025808665499</v>
       </c>
       <c r="N44" s="20">
-        <v>33.6516072122011</v>
+        <v>33.651595806463099</v>
       </c>
       <c r="O44" s="21">
-        <v>52.065396076480098</v>
+        <v>52.065407790089097</v>
       </c>
       <c r="P44" s="21">
-        <v>18.340784744760899</v>
+        <v>18.340769422807899</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3580,13 +3580,13 @@
         <v>100</v>
       </c>
       <c r="C45" s="24">
-        <v>4.3089456531784798</v>
+        <v>4.2847089965714202</v>
       </c>
       <c r="D45" s="25">
-        <v>2.904061869812E-2</v>
+        <v>2.9052954520720001E-2</v>
       </c>
       <c r="E45" s="26">
-        <v>5.14820999110401</v>
+        <v>5.1204293867233499</v>
       </c>
       <c r="F45" s="24">
         <v>11.967474905885901</v>
@@ -3610,16 +3610,16 @@
         <v>13.3918991392281</v>
       </c>
       <c r="M45" s="25">
-        <v>21.181667768198501</v>
+        <v>21.181669529314</v>
       </c>
       <c r="N45" s="25">
-        <v>25.339942055646901</v>
+        <v>25.3399245015388</v>
       </c>
       <c r="O45" s="26">
-        <v>53.478409270416698</v>
+        <v>53.478409256934</v>
       </c>
       <c r="P45" s="26">
-        <v>12.1446283752166</v>
+        <v>12.144631307616301</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.35">
@@ -3660,16 +3660,16 @@
         <v>10.611418930415001</v>
       </c>
       <c r="M46" s="20">
-        <v>28.873888627440799</v>
+        <v>28.873960329799399</v>
       </c>
       <c r="N46" s="20">
-        <v>22.057592552471402</v>
+        <v>22.057564266511999</v>
       </c>
       <c r="O46" s="21">
-        <v>49.068539201493202</v>
+        <v>49.068475403688602</v>
       </c>
       <c r="P46" s="21">
-        <v>16.7511917517268</v>
+        <v>16.751158129387498</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.35">
@@ -3710,16 +3710,16 @@
         <v>10.131817111987401</v>
       </c>
       <c r="M47" s="20">
-        <v>73.814418084999801</v>
+        <v>73.814410442931901</v>
       </c>
       <c r="N47" s="20">
-        <v>6.7963324711832804</v>
+        <v>6.7963355728686796</v>
       </c>
       <c r="O47" s="21">
-        <v>19.3892633989812</v>
+        <v>19.389253984199499</v>
       </c>
       <c r="P47" s="21">
-        <v>3.7515807712349498</v>
+        <v>3.75156853160416</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.35">
@@ -3760,16 +3760,16 @@
         <v>8.46316060823683</v>
       </c>
       <c r="M48" s="29">
-        <v>11.290367522082001</v>
+        <v>11.2902650629416</v>
       </c>
       <c r="N48" s="29">
-        <v>21.7559697957591</v>
+        <v>21.755742690773499</v>
       </c>
       <c r="O48" s="30">
-        <v>66.954219955975404</v>
+        <v>66.954501688801997</v>
       </c>
       <c r="P48" s="30">
-        <v>9.9506812672406593</v>
+        <v>9.9504312430906907</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
@@ -3810,16 +3810,16 @@
         <v>12.118831416605699</v>
       </c>
       <c r="M49" s="20">
-        <v>45.566523537531701</v>
+        <v>45.566527502704197</v>
       </c>
       <c r="N49" s="20">
-        <v>10.575522130478999</v>
+        <v>10.575520986690099</v>
       </c>
       <c r="O49" s="21">
-        <v>43.857954331989298</v>
+        <v>43.857961842005999</v>
       </c>
       <c r="P49" s="21">
-        <v>7.1610620884734404</v>
+        <v>7.1610654979786599</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.35">
@@ -3860,16 +3860,16 @@
         <v>2.8390484905791298</v>
       </c>
       <c r="M50" s="20">
-        <v>49.0300832151162</v>
+        <v>49.030050508109198</v>
       </c>
       <c r="N50" s="20">
-        <v>7.0766485806630897</v>
+        <v>7.0765857971681596</v>
       </c>
       <c r="O50" s="21">
-        <v>43.8934144522281</v>
+        <v>43.893363694722701</v>
       </c>
       <c r="P50" s="21">
-        <v>1.3138920982201601</v>
+        <v>1.3138164508666299</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.35">
@@ -3910,16 +3910,16 @@
         <v>11.6622715693073</v>
       </c>
       <c r="M51" s="16">
-        <v>39.9962410587815</v>
+        <v>39.996240980395903</v>
       </c>
       <c r="N51" s="16">
-        <v>18.706060998434399</v>
+        <v>18.706055865326601</v>
       </c>
       <c r="O51" s="17">
-        <v>41.297705790260501</v>
+        <v>41.297710720742103</v>
       </c>
       <c r="P51" s="17">
-        <v>12.119948677504</v>
+        <v>12.1199478337666</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.35">
@@ -3960,16 +3960,16 @@
         <v>10.2336246468124</v>
       </c>
       <c r="M52" s="20">
-        <v>59.7625664153922</v>
+        <v>59.762574983623203</v>
       </c>
       <c r="N52" s="20">
-        <v>6.8045598696388803</v>
+        <v>6.8045605019026896</v>
       </c>
       <c r="O52" s="21">
-        <v>33.432873714968899</v>
+        <v>33.432864514474197</v>
       </c>
       <c r="P52" s="21">
-        <v>2.5857572162545202</v>
+        <v>2.5857483917239299</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.35">
@@ -4010,16 +4010,16 @@
         <v>11.265552425947201</v>
       </c>
       <c r="M53" s="20">
-        <v>50.927026100270297</v>
+        <v>50.926986444475197</v>
       </c>
       <c r="N53" s="20">
-        <v>10.2648038426063</v>
+        <v>10.264817308781501</v>
       </c>
       <c r="O53" s="21">
-        <v>38.808170057123398</v>
+        <v>38.8081962467433</v>
       </c>
       <c r="P53" s="21">
-        <v>7.1441482391155899</v>
+        <v>7.1441832072598199</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.35">
@@ -4060,16 +4060,16 @@
         <v>3.9360564237058902</v>
       </c>
       <c r="M54" s="20">
-        <v>41.228584913191298</v>
+        <v>41.228569405841498</v>
       </c>
       <c r="N54" s="20">
-        <v>7.8948781185767603</v>
+        <v>7.8948529797111</v>
       </c>
       <c r="O54" s="21">
-        <v>50.876536968232003</v>
+        <v>50.876577614447498</v>
       </c>
       <c r="P54" s="21">
-        <v>3.5409264547367298</v>
+        <v>3.5409267229292101</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.35">
@@ -4110,16 +4110,16 @@
         <v>17.800302900938998</v>
       </c>
       <c r="M55" s="20">
-        <v>68.061817921529993</v>
+        <v>68.0618071076901</v>
       </c>
       <c r="N55" s="20">
-        <v>9.3061017266837904</v>
+        <v>9.3060948007842903</v>
       </c>
       <c r="O55" s="21">
-        <v>22.6320803517863</v>
+        <v>22.632083949964301</v>
       </c>
       <c r="P55" s="21">
-        <v>6.5242509820011403</v>
+        <v>6.5242517169623104</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.35">
@@ -4160,16 +4160,16 @@
         <v>7.8029781242230003</v>
       </c>
       <c r="M56" s="20">
-        <v>71.138686623371399</v>
+        <v>71.138687124723404</v>
       </c>
       <c r="N56" s="20">
-        <v>7.43368943235025</v>
+        <v>7.43368565638586</v>
       </c>
       <c r="O56" s="21">
-        <v>21.427623944278398</v>
+        <v>21.427627218890802</v>
       </c>
       <c r="P56" s="21">
-        <v>5.9769919041722304</v>
+        <v>5.97698568846989</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.35">
@@ -4210,16 +4210,16 @@
         <v>12.8276182365236</v>
       </c>
       <c r="M57" s="29">
-        <v>35.759223843029901</v>
+        <v>35.759223857056902</v>
       </c>
       <c r="N57" s="29">
-        <v>12.3988646220297</v>
+        <v>12.398864544296099</v>
       </c>
       <c r="O57" s="30">
-        <v>51.841911534940401</v>
+        <v>51.841911598647101</v>
       </c>
       <c r="P57" s="30">
-        <v>8.3968606161883894</v>
+        <v>8.3968596683231098</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.35">
@@ -4260,16 +4260,16 @@
         <v>15.941225399449699</v>
       </c>
       <c r="M58" s="20">
-        <v>22.590020232058301</v>
+        <v>22.59003876913</v>
       </c>
       <c r="N58" s="20">
-        <v>21.797161371315902</v>
+        <v>21.797169758171801</v>
       </c>
       <c r="O58" s="21">
-        <v>55.612818396625798</v>
+        <v>55.612813141114302</v>
       </c>
       <c r="P58" s="21">
-        <v>13.155857513481701</v>
+        <v>13.155848782191701</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.35">
@@ -4310,16 +4310,16 @@
         <v>1.96930691315814</v>
       </c>
       <c r="M59" s="20">
-        <v>43.649789388369904</v>
+        <v>43.649797284065599</v>
       </c>
       <c r="N59" s="20">
-        <v>11.4032086382215</v>
+        <v>11.4031882775994</v>
       </c>
       <c r="O59" s="21">
-        <v>44.947001973408597</v>
+        <v>44.947014438335003</v>
       </c>
       <c r="P59" s="21">
-        <v>4.4443029247506001</v>
+        <v>4.4442883397229496</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4360,16 +4360,16 @@
         <v>14.5920003568206</v>
       </c>
       <c r="M60" s="16">
-        <v>31.5182808156727</v>
+        <v>31.518273364420899</v>
       </c>
       <c r="N60" s="16">
-        <v>20.056842615484399</v>
+        <v>20.056849421425198</v>
       </c>
       <c r="O60" s="17">
-        <v>48.424876568842897</v>
+        <v>48.424841018164301</v>
       </c>
       <c r="P60" s="17">
-        <v>15.3021754325817</v>
+        <v>15.302180410223601</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4378,13 +4378,13 @@
         <v>131</v>
       </c>
       <c r="C61" s="24">
-        <v>3.3812125902552501</v>
+        <v>3.3808453591585099</v>
       </c>
       <c r="D61" s="25">
-        <v>0.70270659364841004</v>
+        <v>0.70313549953716004</v>
       </c>
       <c r="E61" s="26">
-        <v>6.1634744982111602</v>
+        <v>6.1620869867168304</v>
       </c>
       <c r="F61" s="24">
         <v>24.6114605266899</v>
@@ -4408,16 +4408,16 @@
         <v>12.492421284936601</v>
       </c>
       <c r="M61" s="25">
-        <v>44.8805012199225</v>
+        <v>44.880494211193898</v>
       </c>
       <c r="N61" s="25">
-        <v>12.9552157843932</v>
+        <v>12.955192561893099</v>
       </c>
       <c r="O61" s="26">
-        <v>42.164332709409003</v>
+        <v>42.164346471662803</v>
       </c>
       <c r="P61" s="26">
-        <v>7.8746418625121803</v>
+        <v>7.8746173743000503</v>
       </c>
     </row>
     <row r="62" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4426,13 +4426,13 @@
         <v>132</v>
       </c>
       <c r="C62" s="34">
-        <v>3.5147863513147999</v>
+        <v>3.5078480209527099</v>
       </c>
       <c r="D62" s="35">
-        <v>0.66505788924296005</v>
+        <v>0.66667658976101996</v>
       </c>
       <c r="E62" s="36">
-        <v>6.4247422903334703</v>
+        <v>6.4215483278091803</v>
       </c>
       <c r="F62" s="34">
         <v>17.261322246061901</v>
@@ -4456,16 +4456,16 @@
         <v>12.196170539536899</v>
       </c>
       <c r="M62" s="35">
-        <v>43.0288803878979</v>
+        <v>43.028899599749501</v>
       </c>
       <c r="N62" s="35">
-        <v>14.760141574054</v>
+        <v>14.7601641736634</v>
       </c>
       <c r="O62" s="36">
-        <v>42.210947443584502</v>
+        <v>42.210945424567299</v>
       </c>
       <c r="P62" s="36">
-        <v>8.1127853003271309</v>
+        <v>8.1127566418984003</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4474,13 +4474,13 @@
         <v>133</v>
       </c>
       <c r="C63" s="38">
-        <v>1.2567588303433599</v>
+        <v>1.26425720892654</v>
       </c>
       <c r="D63" s="39">
-        <v>0.34462549389418001</v>
+        <v>0.34485148525018999</v>
       </c>
       <c r="E63" s="40">
-        <v>2.2160121038102099</v>
+        <v>2.22384198546052</v>
       </c>
       <c r="F63" s="38">
         <v>4.19905241111148</v>
@@ -4504,16 +4504,16 @@
         <v>16.5277075401338</v>
       </c>
       <c r="M63" s="39">
-        <v>16.471291305400101</v>
+        <v>16.4712918497078</v>
       </c>
       <c r="N63" s="39">
-        <v>21.9105510721344</v>
+        <v>21.910545635451999</v>
       </c>
       <c r="O63" s="40">
-        <v>61.618165701040603</v>
+        <v>61.618147484068302</v>
       </c>
       <c r="P63" s="40">
-        <v>11.797570662411699</v>
+        <v>11.7975648619851</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.35">
@@ -4522,13 +4522,13 @@
         <v>134</v>
       </c>
       <c r="C64" s="34">
-        <v>1.44694751403875</v>
+        <v>1.44776098854863</v>
       </c>
       <c r="D64" s="35">
-        <v>0.76914913344026004</v>
+        <v>0.76983017578698998</v>
       </c>
       <c r="E64" s="36">
-        <v>2.89471201826602</v>
+        <v>2.8969773070296698</v>
       </c>
       <c r="F64" s="34">
         <v>6.31401764005121</v>
@@ -4552,16 +4552,16 @@
         <v>14.400983771737501</v>
       </c>
       <c r="M64" s="35">
-        <v>16.668494590081799</v>
+        <v>16.6684787374117</v>
       </c>
       <c r="N64" s="35">
-        <v>19.0759027257238</v>
+        <v>19.075882053862301</v>
       </c>
       <c r="O64" s="36">
-        <v>64.2556657112614</v>
+        <v>64.255608492972001</v>
       </c>
       <c r="P64" s="36">
-        <v>9.8476133058377702</v>
+        <v>9.8475303631134992</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.35">
@@ -4570,13 +4570,13 @@
         <v>135</v>
       </c>
       <c r="C65" s="43">
-        <v>1.0737185409658201</v>
+        <v>1.0722891645293799</v>
       </c>
       <c r="D65" s="44">
-        <v>0.44254759452122999</v>
+        <v>0.44325507737436998</v>
       </c>
       <c r="E65" s="45">
-        <v>2.4306427367903298</v>
+        <v>2.4301743269165601</v>
       </c>
       <c r="F65" s="43">
         <v>10.4140215134586</v>
@@ -4600,16 +4600,16 @@
         <v>23.709260316456302</v>
       </c>
       <c r="M65" s="44">
-        <v>30.8748250244006</v>
+        <v>30.874831859005202</v>
       </c>
       <c r="N65" s="44">
-        <v>21.606860848015799</v>
+        <v>21.6068430717471</v>
       </c>
       <c r="O65" s="45">
-        <v>47.518319471249796</v>
+        <v>47.518319063471502</v>
       </c>
       <c r="P65" s="45">
-        <v>12.0966483584422</v>
+        <v>12.096656451995401</v>
       </c>
     </row>
     <row r="66" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4618,13 +4618,13 @@
         <v>136</v>
       </c>
       <c r="C66" s="47">
-        <v>1.3721464342932801</v>
+        <v>1.3786980520565499</v>
       </c>
       <c r="D66" s="48">
-        <v>0.36133540145476001</v>
+        <v>0.36160498482777997</v>
       </c>
       <c r="E66" s="49">
-        <v>2.4354889525466699</v>
+        <v>2.4423652468458501</v>
       </c>
       <c r="F66" s="47">
         <v>4.5749654767455796</v>
@@ -4648,16 +4648,16 @@
         <v>16.4030522257531</v>
       </c>
       <c r="M66" s="48">
-        <v>24.378888054683198</v>
+        <v>24.378894157304401</v>
       </c>
       <c r="N66" s="48">
-        <v>19.781496558661001</v>
+        <v>19.781499469863299</v>
       </c>
       <c r="O66" s="49">
-        <v>55.839611950224999</v>
+        <v>55.839598556239302</v>
       </c>
       <c r="P66" s="49">
-        <v>10.7004154703304</v>
+        <v>10.7004028638694</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.35">
@@ -4666,13 +4666,13 @@
         <v>137</v>
       </c>
       <c r="C67" s="51">
-        <v>2.1432195786044899</v>
+        <v>2.1413823749013101</v>
       </c>
       <c r="D67" s="52">
-        <v>0.66491077504591001</v>
+        <v>0.66695700208491004</v>
       </c>
       <c r="E67" s="53">
-        <v>5.2078480018446998</v>
+        <v>5.2110615099527999</v>
       </c>
       <c r="F67" s="51">
         <v>17.7581219126204</v>
@@ -4696,16 +4696,16 @@
         <v>13.0348643564162</v>
       </c>
       <c r="M67" s="52">
-        <v>42.690594807703299</v>
+        <v>42.690605856021399</v>
       </c>
       <c r="N67" s="52">
-        <v>14.862367502572001</v>
+        <v>14.8623657474251</v>
       </c>
       <c r="O67" s="53">
-        <v>42.4470059277986</v>
+        <v>42.447028166826499</v>
       </c>
       <c r="P67" s="53">
-        <v>7.6687512856962696</v>
+        <v>7.6687447375273097</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.35">
@@ -4714,13 +4714,13 @@
         <v>138</v>
       </c>
       <c r="C68" s="43">
-        <v>3.1014577047304002</v>
+        <v>3.0999446087625699</v>
       </c>
       <c r="D68" s="44">
-        <v>0.57648886544844002</v>
+        <v>0.57587937318105997</v>
       </c>
       <c r="E68" s="45">
-        <v>5.1598252065874801</v>
+        <v>5.1559887132786404</v>
       </c>
       <c r="F68" s="43">
         <v>18.904469743940599</v>
@@ -4744,16 +4744,16 @@
         <v>13.615156470014</v>
       </c>
       <c r="M68" s="44">
-        <v>41.7319933641053</v>
+        <v>41.732004437288197</v>
       </c>
       <c r="N68" s="44">
-        <v>14.7119228864149</v>
+        <v>14.7119198852445</v>
       </c>
       <c r="O68" s="45">
-        <v>43.556068090139902</v>
+        <v>43.556076431317699</v>
       </c>
       <c r="P68" s="45">
-        <v>8.5138916342136906</v>
+        <v>8.5138928043361606</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.35">
@@ -4762,13 +4762,13 @@
         <v>139</v>
       </c>
       <c r="C69" s="43">
-        <v>6.9595025345300003E-3</v>
+        <v>6.9581381119700001E-3</v>
       </c>
       <c r="D69" s="44">
-        <v>0.37678518062673</v>
+        <v>0.37681084474034998</v>
       </c>
       <c r="E69" s="45">
-        <v>3.4892613607379301</v>
+        <v>3.4897286436819002</v>
       </c>
       <c r="F69" s="43">
         <v>25.874460668568702</v>
@@ -4792,16 +4792,16 @@
         <v>9.9367640173746992</v>
       </c>
       <c r="M69" s="44">
-        <v>61.028670775853897</v>
+        <v>61.028669261638299</v>
       </c>
       <c r="N69" s="44">
-        <v>10.883893779056001</v>
+        <v>10.883894611668101</v>
       </c>
       <c r="O69" s="45">
-        <v>28.087434834462702</v>
+        <v>28.087433258895299</v>
       </c>
       <c r="P69" s="45">
-        <v>4.4981176809642198</v>
+        <v>4.4981193471596104</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.35">
@@ -4810,13 +4810,13 @@
         <v>140</v>
       </c>
       <c r="C70" s="43">
-        <v>12.6137786212633</v>
+        <v>12.578033928327701</v>
       </c>
       <c r="D70" s="44">
-        <v>0.90495985905584997</v>
+        <v>0.92512142639880002</v>
       </c>
       <c r="E70" s="45">
-        <v>17.733244318307602</v>
+        <v>17.745424095854499</v>
       </c>
       <c r="F70" s="43">
         <v>17.280097777955099</v>
@@ -4840,16 +4840,16 @@
         <v>12.7155715858894</v>
       </c>
       <c r="M70" s="44">
-        <v>52.663455004460602</v>
+        <v>52.663539554840497</v>
       </c>
       <c r="N70" s="44">
-        <v>12.647205899279699</v>
+        <v>12.647347998278599</v>
       </c>
       <c r="O70" s="45">
-        <v>34.689161815460302</v>
+        <v>34.689100181099398</v>
       </c>
       <c r="P70" s="45">
-        <v>7.2133768884660396</v>
+        <v>7.2132882980638504</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.35">
@@ -4858,13 +4858,13 @@
         <v>141</v>
       </c>
       <c r="C71" s="43">
-        <v>3.3812125902552501</v>
+        <v>3.3808453591585099</v>
       </c>
       <c r="D71" s="44">
-        <v>0.70270659364841004</v>
+        <v>0.70313549953716004</v>
       </c>
       <c r="E71" s="45">
-        <v>6.1634744982111602</v>
+        <v>6.1620869867168304</v>
       </c>
       <c r="F71" s="43">
         <v>24.6114605266899</v>
@@ -4888,16 +4888,16 @@
         <v>12.492421284936601</v>
       </c>
       <c r="M71" s="44">
-        <v>44.8805012199225</v>
+        <v>44.880494211193898</v>
       </c>
       <c r="N71" s="44">
-        <v>12.9552157843932</v>
+        <v>12.955192561893099</v>
       </c>
       <c r="O71" s="45">
-        <v>42.164332709409003</v>
+        <v>42.164346471662803</v>
       </c>
       <c r="P71" s="45">
-        <v>7.8746418625121803</v>
+        <v>7.8746173743000503</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.35">
@@ -4906,13 +4906,13 @@
         <v>142</v>
       </c>
       <c r="C72" s="43">
-        <v>0.71228361465300005</v>
+        <v>0.71222898494678999</v>
       </c>
       <c r="D72" s="44">
-        <v>1.13400038952775</v>
+        <v>1.1339134255615799</v>
       </c>
       <c r="E72" s="45">
-        <v>6.0147954097920202</v>
+        <v>6.0148919892739903</v>
       </c>
       <c r="F72" s="43">
         <v>28.614739860077499</v>
@@ -4936,16 +4936,16 @@
         <v>8.2150705913553708</v>
       </c>
       <c r="M72" s="44">
-        <v>44.485612067668001</v>
+        <v>44.485652111021302</v>
       </c>
       <c r="N72" s="44">
-        <v>11.637945806006</v>
+        <v>11.6379687770691</v>
       </c>
       <c r="O72" s="45">
-        <v>43.876357678267802</v>
+        <v>43.876378897520702</v>
       </c>
       <c r="P72" s="45">
-        <v>5.8992755078123098</v>
+        <v>5.8992987341490304</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.35">
@@ -4954,13 +4954,13 @@
         <v>143</v>
       </c>
       <c r="C73" s="43">
-        <v>3.23666716399417</v>
+        <v>3.23424676730161</v>
       </c>
       <c r="D73" s="44">
-        <v>1.4407481903076</v>
+        <v>1.44480106204081</v>
       </c>
       <c r="E73" s="45">
-        <v>7.9190860154724296</v>
+        <v>7.9302823667725102</v>
       </c>
       <c r="F73" s="43">
         <v>9.6143410104578404</v>
@@ -4984,16 +4984,16 @@
         <v>12.1807718630275</v>
       </c>
       <c r="M73" s="44">
-        <v>44.011127781251602</v>
+        <v>44.011118931313199</v>
       </c>
       <c r="N73" s="44">
-        <v>14.7309660645591</v>
+        <v>14.730959331951</v>
       </c>
       <c r="O73" s="45">
-        <v>41.257915747205502</v>
+        <v>41.257928569075801</v>
       </c>
       <c r="P73" s="45">
-        <v>8.0251873542641903</v>
+        <v>8.0251619481239604</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.35">
@@ -5002,13 +5002,13 @@
         <v>143</v>
       </c>
       <c r="C74" s="43">
-        <v>7.1137136485824799</v>
+        <v>7.0896210865948497</v>
       </c>
       <c r="D74" s="44">
-        <v>6.6200034559020002E-2</v>
+        <v>6.6645729484339999E-2</v>
       </c>
       <c r="E74" s="45">
-        <v>8.2923521414993697</v>
+        <v>8.2639420346819108</v>
       </c>
       <c r="F74" s="43">
         <v>11.7980287233743</v>
@@ -5032,16 +5032,16 @@
         <v>9.5238086662068504</v>
       </c>
       <c r="M74" s="44">
-        <v>21.342176135246799</v>
+        <v>21.342177766975301</v>
       </c>
       <c r="N74" s="44">
-        <v>24.7086402934485</v>
+        <v>24.708619378553301</v>
       </c>
       <c r="O74" s="45">
-        <v>53.949207274454203</v>
+        <v>53.949206799815599</v>
       </c>
       <c r="P74" s="45">
-        <v>11.963801503039001</v>
+        <v>11.963804891712501</v>
       </c>
     </row>
     <row r="75" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5050,13 +5050,13 @@
         <v>144</v>
       </c>
       <c r="C75" s="47">
-        <v>19.509607404268198</v>
+        <v>19.513954622754</v>
       </c>
       <c r="D75" s="48">
-        <v>3.4058582608799998E-3</v>
+        <v>3.40258143256E-3</v>
       </c>
       <c r="E75" s="49">
-        <v>22.832576954603802</v>
+        <v>22.835160605423901</v>
       </c>
       <c r="F75" s="47">
         <v>13.749231757923701</v>
@@ -5080,16 +5080,16 @@
         <v>7.4761744147195701</v>
       </c>
       <c r="M75" s="48">
-        <v>42.121649954214902</v>
+        <v>42.121813593776103</v>
       </c>
       <c r="N75" s="48">
-        <v>13.6437642198186</v>
+        <v>13.644031976009</v>
       </c>
       <c r="O75" s="49">
-        <v>44.234347140673897</v>
+        <v>44.234256318718302</v>
       </c>
       <c r="P75" s="49">
-        <v>6.6623602504969801</v>
+        <v>6.6621256714766997</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.35">
@@ -5098,13 +5098,13 @@
         <v>145</v>
       </c>
       <c r="C76" s="51">
-        <v>0.59497726428274</v>
+        <v>0.59484382486745002</v>
       </c>
       <c r="D76" s="52">
-        <v>0.26499729255884003</v>
+        <v>0.26480977234870001</v>
       </c>
       <c r="E76" s="53">
-        <v>2.4747542263023701</v>
+        <v>2.47410749111173</v>
       </c>
       <c r="F76" s="51">
         <v>10.8239008853629</v>
@@ -5128,16 +5128,16 @@
         <v>21.941090918839699</v>
       </c>
       <c r="M76" s="52">
-        <v>27.461296283206401</v>
+        <v>27.461297553212098</v>
       </c>
       <c r="N76" s="52">
-        <v>21.352372387324898</v>
+        <v>21.352376363562701</v>
       </c>
       <c r="O76" s="53">
-        <v>51.186279597109902</v>
+        <v>51.186276617114302</v>
       </c>
       <c r="P76" s="53">
-        <v>12.3145517424398</v>
+        <v>12.3145775053933</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.35">
@@ -5146,13 +5146,13 @@
         <v>146</v>
       </c>
       <c r="C77" s="43">
-        <v>1.62634738890556</v>
+        <v>1.62691498716682</v>
       </c>
       <c r="D77" s="44">
-        <v>0.96563047088458998</v>
+        <v>0.96631514832168997</v>
       </c>
       <c r="E77" s="45">
-        <v>3.4472756486391898</v>
+        <v>3.4489595154680202</v>
       </c>
       <c r="F77" s="43">
         <v>7.2035738788161998</v>
@@ -5176,16 +5176,16 @@
         <v>13.069283520986099</v>
       </c>
       <c r="M77" s="44">
-        <v>16.614438379079001</v>
+        <v>16.614472879989201</v>
       </c>
       <c r="N77" s="44">
-        <v>19.777001754635901</v>
+        <v>19.776973636115699</v>
       </c>
       <c r="O77" s="45">
-        <v>63.608550683811998</v>
+        <v>63.608595400575403</v>
       </c>
       <c r="P77" s="45">
-        <v>10.501375216664099</v>
+        <v>10.5013777177787</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.35">
@@ -5194,13 +5194,13 @@
         <v>146</v>
       </c>
       <c r="C78" s="43">
-        <v>2.7663422133539999E-2</v>
+        <v>2.7698363602270001E-2</v>
       </c>
       <c r="D78" s="44">
-        <v>3.4244035980569999E-2</v>
+        <v>3.4259241463930001E-2</v>
       </c>
       <c r="E78" s="45">
-        <v>0.16805840327230001</v>
+        <v>0.16826661142041999</v>
       </c>
       <c r="F78" s="43">
         <v>1.8288860011383401</v>
@@ -5224,16 +5224,16 @@
         <v>16.319148263800201</v>
       </c>
       <c r="M78" s="44">
-        <v>4.5997748167641603</v>
+        <v>4.5997878409446704</v>
       </c>
       <c r="N78" s="44">
-        <v>24.426270460732201</v>
+        <v>24.426265173451799</v>
       </c>
       <c r="O78" s="45">
-        <v>70.973934517707093</v>
+        <v>70.973948481369803</v>
       </c>
       <c r="P78" s="45">
-        <v>15.407349802267399</v>
+        <v>15.407358413492799</v>
       </c>
     </row>
     <row r="79" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5242,13 +5242,13 @@
         <v>147</v>
       </c>
       <c r="C79" s="47">
-        <v>0.25519943846391002</v>
+        <v>0.25511040973257998</v>
       </c>
       <c r="D79" s="48">
-        <v>0.16421137774087</v>
+        <v>0.16430416435281001</v>
       </c>
       <c r="E79" s="49">
-        <v>0.60045696976365004</v>
+        <v>0.60069584006409005</v>
       </c>
       <c r="F79" s="47">
         <v>1.4220137054002</v>
@@ -5272,16 +5272,16 @@
         <v>13.821922938567999</v>
       </c>
       <c r="M79" s="48">
-        <v>5.0188729864349204</v>
+        <v>5.0188662112408498</v>
       </c>
       <c r="N79" s="48">
-        <v>22.746699940842301</v>
+        <v>22.746692950126199</v>
       </c>
       <c r="O79" s="49">
-        <v>72.234446044879206</v>
+        <v>72.234440930153099</v>
       </c>
       <c r="P79" s="49">
-        <v>13.868905207510499</v>
+        <v>13.868915927771701</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.35">
@@ -5290,13 +5290,13 @@
         <v>148</v>
       </c>
       <c r="C80" s="51">
-        <v>9.4024759460370007</v>
+        <v>9.4090981343247204</v>
       </c>
       <c r="D80" s="52">
-        <v>1.2098115333699999E-2</v>
+        <v>1.212021981406E-2</v>
       </c>
       <c r="E80" s="53">
-        <v>11.3506481675155</v>
+        <v>11.3592758801648</v>
       </c>
       <c r="F80" s="51">
         <v>19.331783435242201</v>
@@ -5320,16 +5320,16 @@
         <v>10.0354282305659</v>
       </c>
       <c r="M80" s="52">
-        <v>35.569174797591799</v>
+        <v>35.569163458255503</v>
       </c>
       <c r="N80" s="52">
-        <v>16.856342864608202</v>
+        <v>16.856310830748701</v>
       </c>
       <c r="O80" s="53">
-        <v>47.574529899361401</v>
+        <v>47.574565464987799</v>
       </c>
       <c r="P80" s="53">
-        <v>9.0266113648075308</v>
+        <v>9.0265858622845592</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.35">
@@ -5338,13 +5338,13 @@
         <v>149</v>
       </c>
       <c r="C81" s="43">
-        <v>11.747092827184799</v>
+        <v>11.784669729720999</v>
       </c>
       <c r="D81" s="44">
-        <v>1.1069809937755</v>
+        <v>1.1014541535678299</v>
       </c>
       <c r="E81" s="45">
-        <v>15.125650690881301</v>
+        <v>15.146488952056</v>
       </c>
       <c r="F81" s="43">
         <v>5.4060666003128999</v>
@@ -5368,16 +5368,16 @@
         <v>13.850273368429701</v>
       </c>
       <c r="M81" s="44">
-        <v>14.7847909720139</v>
+        <v>14.784806474750299</v>
       </c>
       <c r="N81" s="44">
-        <v>25.081497575346901</v>
+        <v>25.081457599398799</v>
       </c>
       <c r="O81" s="45">
-        <v>60.133675188617701</v>
+        <v>60.133734157910403</v>
       </c>
       <c r="P81" s="45">
-        <v>9.7894942626868406</v>
+        <v>9.7894986900023202</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.35">
@@ -5386,13 +5386,13 @@
         <v>150</v>
       </c>
       <c r="C82" s="43">
-        <v>0.95094708582030996</v>
+        <v>0.95187599138848</v>
       </c>
       <c r="D82" s="44">
-        <v>0.94083610948790997</v>
+        <v>0.94162331977576996</v>
       </c>
       <c r="E82" s="45">
-        <v>4.3442809660924002</v>
+        <v>4.34745340404596</v>
       </c>
       <c r="F82" s="43">
         <v>16.310099819213399</v>
@@ -5416,16 +5416,16 @@
         <v>13.1888704045111</v>
       </c>
       <c r="M82" s="44">
-        <v>44.763695641457502</v>
+        <v>44.763721958236403</v>
       </c>
       <c r="N82" s="44">
-        <v>14.272652901832</v>
+        <v>14.272688206899399</v>
       </c>
       <c r="O82" s="45">
-        <v>40.963602686427002</v>
+        <v>40.963591926795203</v>
       </c>
       <c r="P82" s="45">
-        <v>7.9002676109130903</v>
+        <v>7.90023821855279</v>
       </c>
     </row>
     <row r="83" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5434,13 +5434,13 @@
         <v>151</v>
       </c>
       <c r="C83" s="47">
-        <v>0.32506233903679999</v>
+        <v>0.32515929867559001</v>
       </c>
       <c r="D83" s="48">
-        <v>0.27691734997119999</v>
+        <v>0.27731411653565002</v>
       </c>
       <c r="E83" s="49">
-        <v>1.06945033888142</v>
+        <v>1.0703150293747099</v>
       </c>
       <c r="F83" s="47">
         <v>4.1333424221137198</v>
@@ -5464,16 +5464,16 @@
         <v>16.6734673593132</v>
       </c>
       <c r="M83" s="48">
-        <v>16.831514677579701</v>
+        <v>16.8315120268832</v>
       </c>
       <c r="N83" s="48">
-        <v>21.233261527758899</v>
+        <v>21.2332634683954</v>
       </c>
       <c r="O83" s="49">
-        <v>61.935241344470697</v>
+        <v>61.935206641111698</v>
       </c>
       <c r="P83" s="49">
-        <v>12.226480184683099</v>
+        <v>12.2264721996901</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.35">
@@ -5482,13 +5482,13 @@
         <v>152</v>
       </c>
       <c r="C84" s="51">
-        <v>0.90436171954485001</v>
+        <v>0.90307609481789997</v>
       </c>
       <c r="D84" s="52">
-        <v>1.8797437861508099</v>
+        <v>1.8886924484635299</v>
       </c>
       <c r="E84" s="53">
-        <v>8.5965246001164406</v>
+        <v>8.61396890180837</v>
       </c>
       <c r="F84" s="51">
         <v>30.487357308799702</v>
@@ -5512,16 +5512,16 @@
         <v>10.7100483494382</v>
       </c>
       <c r="M84" s="52">
-        <v>58.851749180884397</v>
+        <v>58.851743848671397</v>
       </c>
       <c r="N84" s="52">
-        <v>10.122784645231301</v>
+        <v>10.122784564691599</v>
       </c>
       <c r="O84" s="53">
-        <v>31.025470622876401</v>
+        <v>31.025469490888899</v>
       </c>
       <c r="P84" s="53">
-        <v>5.7288519821407098</v>
+        <v>5.7288474404606404</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.35">
@@ -5560,16 +5560,16 @@
         <v>9.3112141848752206</v>
       </c>
       <c r="M85" s="44">
-        <v>32.9574457777546</v>
+        <v>32.957445161077501</v>
       </c>
       <c r="N85" s="44">
-        <v>16.3026335563566</v>
+        <v>16.3026308198198</v>
       </c>
       <c r="O85" s="45">
-        <v>50.739919139848503</v>
+        <v>50.739924019102801</v>
       </c>
       <c r="P85" s="45">
-        <v>8.4535893658548904</v>
+        <v>8.4535838945129207</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.35">
@@ -5578,13 +5578,13 @@
         <v>154</v>
       </c>
       <c r="C86" s="43">
-        <v>4.2516575204164004</v>
+        <v>4.2446477872172901</v>
       </c>
       <c r="D86" s="44">
-        <v>0.27583744723831</v>
+        <v>0.27528202369959998</v>
       </c>
       <c r="E86" s="45">
-        <v>5.8945056140902503</v>
+        <v>5.8853656541045796</v>
       </c>
       <c r="F86" s="43">
         <v>17.959189511465699</v>
@@ -5608,16 +5608,16 @@
         <v>12.7570574712833</v>
       </c>
       <c r="M86" s="44">
-        <v>32.688215684428499</v>
+        <v>32.688266905680699</v>
       </c>
       <c r="N86" s="44">
-        <v>18.711157018561298</v>
+        <v>18.7112204486045</v>
       </c>
       <c r="O86" s="45">
-        <v>48.600548588657297</v>
+        <v>48.600539010972902</v>
       </c>
       <c r="P86" s="45">
-        <v>10.385519064596499</v>
+        <v>10.385455602136499</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.35">
@@ -5626,13 +5626,13 @@
         <v>155</v>
       </c>
       <c r="C87" s="43">
-        <v>1.4417111303636001</v>
+        <v>1.43672146548276</v>
       </c>
       <c r="D87" s="44">
-        <v>0.68128661679510005</v>
+        <v>0.68182971070679999</v>
       </c>
       <c r="E87" s="45">
-        <v>3.40736816220867</v>
+        <v>3.4018312972832199</v>
       </c>
       <c r="F87" s="43">
         <v>16.796358321517801</v>
@@ -5656,16 +5656,16 @@
         <v>17.513835894647698</v>
       </c>
       <c r="M87" s="44">
-        <v>33.774233176180701</v>
+        <v>33.774300907529799</v>
       </c>
       <c r="N87" s="44">
-        <v>19.5705016224268</v>
+        <v>19.570495016710101</v>
       </c>
       <c r="O87" s="45">
-        <v>46.655245771845998</v>
+        <v>46.655215251054599</v>
       </c>
       <c r="P87" s="45">
-        <v>11.0452553530545</v>
+        <v>11.045255913842</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.35">
@@ -5674,13 +5674,13 @@
         <v>156</v>
       </c>
       <c r="C88" s="43">
-        <v>3.0561874894913399</v>
+        <v>3.0537598407183202</v>
       </c>
       <c r="D88" s="44">
-        <v>1.13767595352364</v>
+        <v>1.13654166248667</v>
       </c>
       <c r="E88" s="45">
-        <v>6.5466159530456398</v>
+        <v>6.5407578712363597</v>
       </c>
       <c r="F88" s="43">
         <v>3.2093703764113402</v>
@@ -5704,16 +5704,16 @@
         <v>11.4078393972993</v>
       </c>
       <c r="M88" s="44">
-        <v>25.015924093771002</v>
+        <v>25.015918776660602</v>
       </c>
       <c r="N88" s="44">
-        <v>17.015263593947399</v>
+        <v>17.0152265569074</v>
       </c>
       <c r="O88" s="45">
-        <v>57.968824663528601</v>
+        <v>57.968844565606602</v>
       </c>
       <c r="P88" s="45">
-        <v>8.4781552631976496</v>
+        <v>8.4781617201258204</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.35">
@@ -5722,13 +5722,13 @@
         <v>157</v>
       </c>
       <c r="C89" s="43">
-        <v>1.5134214228438401</v>
+        <v>1.5134177157228299</v>
       </c>
       <c r="D89" s="44">
-        <v>0.46589471453914999</v>
+        <v>0.466170808617</v>
       </c>
       <c r="E89" s="45">
-        <v>2.8389371983476299</v>
+        <v>2.8392039675137899</v>
       </c>
       <c r="F89" s="43">
         <v>7.4648807343642796</v>
@@ -5752,16 +5752,16 @@
         <v>22.971280152075</v>
       </c>
       <c r="M89" s="44">
-        <v>18.248364846845998</v>
+        <v>18.248315777694302</v>
       </c>
       <c r="N89" s="44">
-        <v>22.0070442695108</v>
+        <v>22.007063766291299</v>
       </c>
       <c r="O89" s="45">
-        <v>59.744636548328799</v>
+        <v>59.744594689967997</v>
       </c>
       <c r="P89" s="45">
-        <v>12.1269812560303</v>
+        <v>12.1269404188777</v>
       </c>
     </row>
     <row r="90" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5770,13 +5770,13 @@
         <v>158</v>
       </c>
       <c r="C90" s="47">
-        <v>1.0061871298439</v>
+        <v>1.0237051515343201</v>
       </c>
       <c r="D90" s="48">
-        <v>0.14240115701347</v>
+        <v>0.14244524209066001</v>
       </c>
       <c r="E90" s="49">
-        <v>1.3571704394428501</v>
+        <v>1.3752532308121299</v>
       </c>
       <c r="F90" s="47">
         <v>1.2612556505614001</v>
@@ -5800,16 +5800,16 @@
         <v>13.590098254496001</v>
       </c>
       <c r="M90" s="48">
-        <v>3.4326962462730801</v>
+        <v>3.4326997076174601</v>
       </c>
       <c r="N90" s="48">
-        <v>23.759470895422101</v>
+        <v>23.759444523141799</v>
       </c>
       <c r="O90" s="49">
-        <v>72.807825740492007</v>
+        <v>72.807832896667605</v>
       </c>
       <c r="P90" s="49">
-        <v>12.263467962611999</v>
+        <v>12.2634882305379</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.35">
@@ -5818,13 +5818,13 @@
         <v>159</v>
       </c>
       <c r="C91" s="51">
-        <v>3.6319382238073401</v>
+        <v>3.6285299029421898</v>
       </c>
       <c r="D91" s="52">
-        <v>1.56898790694407</v>
+        <v>1.5750584100013401</v>
       </c>
       <c r="E91" s="53">
-        <v>9.8875718468488607</v>
+        <v>9.8982629400862407</v>
       </c>
       <c r="F91" s="51">
         <v>26.423189615548001</v>
@@ -5848,16 +5848,16 @@
         <v>10.177086242909199</v>
       </c>
       <c r="M91" s="52">
-        <v>51.635832495208398</v>
+        <v>51.6358699711163</v>
       </c>
       <c r="N91" s="52">
-        <v>12.0592139861789</v>
+        <v>12.0592623963351</v>
       </c>
       <c r="O91" s="53">
-        <v>36.304883716067899</v>
+        <v>36.3048662195554</v>
       </c>
       <c r="P91" s="53">
-        <v>6.8115080103681898</v>
+        <v>6.8114772914561597</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.35">
@@ -5866,13 +5866,13 @@
         <v>160</v>
       </c>
       <c r="C92" s="43">
-        <v>5.079014857591E-2</v>
+        <v>5.5708612995010003E-2</v>
       </c>
       <c r="D92" s="44">
-        <v>0.17526419014271</v>
+        <v>0.17513970190961001</v>
       </c>
       <c r="E92" s="45">
-        <v>1.1993688989428</v>
+        <v>1.2035622291585599</v>
       </c>
       <c r="F92" s="43">
         <v>16.222429509096099</v>
@@ -5896,16 +5896,16 @@
         <v>19.6813479562759</v>
       </c>
       <c r="M92" s="44">
-        <v>45.801538265693203</v>
+        <v>45.801554551430598</v>
       </c>
       <c r="N92" s="44">
-        <v>15.2054963516143</v>
+        <v>15.205452720381</v>
       </c>
       <c r="O92" s="45">
-        <v>38.992968402770401</v>
+        <v>38.992968666641701</v>
       </c>
       <c r="P92" s="45">
-        <v>9.1262289174487297</v>
+        <v>9.1262080317246994</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.35">
@@ -5920,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="E93" s="45">
-        <v>2.3990175237358602</v>
+        <v>2.3405995906796901</v>
       </c>
       <c r="F93" s="43">
         <v>9.2680789909653303</v>
@@ -5944,16 +5944,16 @@
         <v>11.0161655122553</v>
       </c>
       <c r="M93" s="44">
-        <v>24.2973610193051</v>
+        <v>24.297520420669599</v>
       </c>
       <c r="N93" s="44">
-        <v>18.977722442341399</v>
+        <v>18.977950048182201</v>
       </c>
       <c r="O93" s="45">
-        <v>56.724677853060797</v>
+        <v>56.724631419651601</v>
       </c>
       <c r="P93" s="45">
-        <v>9.9735338307947696</v>
+        <v>9.9732908889854794</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.35">
@@ -5962,13 +5962,13 @@
         <v>162</v>
       </c>
       <c r="C94" s="43">
-        <v>0.91961910112261003</v>
+        <v>0.92710661734697997</v>
       </c>
       <c r="D94" s="44">
-        <v>0.39240478160829001</v>
+        <v>0.39086907041244001</v>
       </c>
       <c r="E94" s="45">
-        <v>1.8825912415102399</v>
+        <v>1.88981731205433</v>
       </c>
       <c r="F94" s="43">
         <v>3.2319135903154099</v>
@@ -5992,16 +5992,16 @@
         <v>16.564255365861701</v>
       </c>
       <c r="M94" s="44">
-        <v>18.3308269188819</v>
+        <v>18.330829351606202</v>
       </c>
       <c r="N94" s="44">
-        <v>17.9205955000857</v>
+        <v>17.920612588666799</v>
       </c>
       <c r="O94" s="45">
-        <v>63.748651977206997</v>
+        <v>63.748507871751002</v>
       </c>
       <c r="P94" s="45">
-        <v>7.9203111994041002</v>
+        <v>7.9202594823161796</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.35">
@@ -6010,13 +6010,13 @@
         <v>163</v>
       </c>
       <c r="C95" s="43">
-        <v>0.41982754469186001</v>
+        <v>0.4201785016938</v>
       </c>
       <c r="D95" s="44">
-        <v>1.2400899414986299</v>
+        <v>1.23742249390674</v>
       </c>
       <c r="E95" s="45">
-        <v>6.7197646354466496</v>
+        <v>6.72010291183161</v>
       </c>
       <c r="F95" s="43">
         <v>27.248600380553601</v>
@@ -6040,16 +6040,16 @@
         <v>10.326322560001399</v>
       </c>
       <c r="M95" s="44">
-        <v>58.350154470410303</v>
+        <v>58.350149116517599</v>
       </c>
       <c r="N95" s="44">
-        <v>12.069687484533199</v>
+        <v>12.069697547570501</v>
       </c>
       <c r="O95" s="45">
-        <v>29.580160509306701</v>
+        <v>29.580160241184402</v>
       </c>
       <c r="P95" s="45">
-        <v>6.7870849959120196</v>
+        <v>6.78706997996008</v>
       </c>
     </row>
     <row r="96" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6058,13 +6058,13 @@
         <v>164</v>
       </c>
       <c r="C96" s="47">
-        <v>4.5675439942416904</v>
+        <v>4.5601712507334096</v>
       </c>
       <c r="D96" s="48">
-        <v>3.3008789849031999</v>
+        <v>3.3046713832396102</v>
       </c>
       <c r="E96" s="49">
-        <v>9.8919568376658304</v>
+        <v>9.8908263929831008</v>
       </c>
       <c r="F96" s="47">
         <v>13.2261871444304</v>
@@ -6088,16 +6088,16 @@
         <v>15.2842574975699</v>
       </c>
       <c r="M96" s="48">
-        <v>33.696996565993103</v>
+        <v>33.6970127444634</v>
       </c>
       <c r="N96" s="48">
-        <v>19.754987555616399</v>
+        <v>19.754964407430499</v>
       </c>
       <c r="O96" s="49">
-        <v>46.548021316447901</v>
+        <v>46.548006159300002</v>
       </c>
       <c r="P96" s="49">
-        <v>10.1841002724007</v>
+        <v>10.1840983883781</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.35">
@@ -6106,13 +6106,13 @@
         <v>165</v>
       </c>
       <c r="C97" s="51">
-        <v>4.5791015556945096</v>
+        <v>4.5836927469664204</v>
       </c>
       <c r="D97" s="52">
-        <v>0.84658393760049</v>
+        <v>0.84944594944818996</v>
       </c>
       <c r="E97" s="53">
-        <v>8.5134970900442806</v>
+        <v>8.5258167127238806</v>
       </c>
       <c r="F97" s="51">
         <v>23.5195581059949</v>
@@ -6136,16 +6136,16 @@
         <v>11.0008622010208</v>
       </c>
       <c r="M97" s="52">
-        <v>50.245935882167501</v>
+        <v>50.245937336920797</v>
       </c>
       <c r="N97" s="52">
-        <v>12.182340259789299</v>
+        <v>12.1823423667198</v>
       </c>
       <c r="O97" s="53">
-        <v>37.571708520663599</v>
+        <v>37.571719905873898</v>
       </c>
       <c r="P97" s="53">
-        <v>7.1310289821955797</v>
+        <v>7.1310251322658402</v>
       </c>
     </row>
     <row r="98" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6154,13 +6154,13 @@
         <v>166</v>
       </c>
       <c r="C98" s="47">
-        <v>7.4823413413800903</v>
+        <v>7.4821607683932498</v>
       </c>
       <c r="D98" s="48">
-        <v>0.61098750733004004</v>
+        <v>0.61104195293297003</v>
       </c>
       <c r="E98" s="49">
-        <v>9.6358389919914806</v>
+        <v>9.6358194248438593</v>
       </c>
       <c r="F98" s="47">
         <v>14.4976630956817</v>
@@ -6184,16 +6184,16 @@
         <v>16.310909292813498</v>
       </c>
       <c r="M98" s="48">
-        <v>33.360205383527202</v>
+        <v>33.360204183411</v>
       </c>
       <c r="N98" s="48">
-        <v>18.419156622960099</v>
+        <v>18.419142460267398</v>
       </c>
       <c r="O98" s="49">
-        <v>48.220635816473603</v>
+        <v>48.2206379649163</v>
       </c>
       <c r="P98" s="49">
-        <v>10.424948922592</v>
+        <v>10.424935197920201</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.35">
@@ -6489,11 +6489,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{5E77B04D-C58C-44EC-A434-21ADDC3BA3AE}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{47EE7CE8-6C7E-4265-964F-3FA67F3F7AC9}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{24C153CF-E799-4A80-87C6-D4C076DEAEF6}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{2F25F298-C443-41EA-9483-031685DF7808}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{3526A766-EF2A-4094-A62F-95F88D3975D3}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{A76CE37A-65EC-478E-97FE-87DACE902A48}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{D050EE9E-A47A-4F77-9D54-9E5770EB9252}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{B66541F5-D93D-495E-A93B-2DE9F66DEACB}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{B25D22A7-233B-44EE-839F-491FFA3F63A0}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{269398F2-6839-473F-A2DF-E702A0E7AC4F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab08.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E8E4761-8D4D-4AA9-B0DE-0DDD2136DCC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDC018D2-DD46-4708-8DC4-4C03351CA4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32220" yWindow="1125" windowWidth="17280" windowHeight="15075" xr2:uid="{21573E07-8E5C-4716-9C6A-27C40F78C1C2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{939E32CD-C5AE-4BF2-B484-4E5F214B119C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab08" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab08'!$A$2:$C$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab08'!$A$1:$F$103</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="177">
   <si>
     <t>Tableau 8 : Ventilation sectorielle de l'économie</t>
   </si>
@@ -279,7 +279,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>Soudan du Sud</t>
+    <t>Soudan du Sud*</t>
   </si>
   <si>
     <t>SDN</t>
@@ -357,7 +357,7 @@
     <t>CPV</t>
   </si>
   <si>
-    <t>Cabo Verde</t>
+    <t>Cabo Verde*</t>
   </si>
   <si>
     <t>CIV</t>
@@ -411,7 +411,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigeria*</t>
+    <t>Nigeria</t>
   </si>
   <si>
     <t>SEN</t>
@@ -550,6 +550,9 @@
   </si>
   <si>
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
+  </si>
+  <si>
+    <t>Source : Organisation internationale du Travail (récupéré le 26/09/2022), Comptes nationaux de la Division de statistique des Nations Unies (Analyse des données des principaux agrégats téléchargées en janvier 2023), Indicateurs de développement dans le monde de la Banque mondiale (données des banques centrales, des agences nationales de statistiques et des bureaux nationaux de la Banque mondiale du 22/12/2022).</t>
   </si>
   <si>
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
@@ -1390,7 +1393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F457A8F1-E29B-4456-99E7-67547D1FFB4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ADC79E8-AF85-44FB-9DB7-0FD007874FBA}">
   <dimension ref="A1:P114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -3026,49 +3029,49 @@
       <c r="A34" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="28">
         <v>6.0475710339016802</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G34" s="29">
         <v>34.297060608459603</v>
       </c>
-      <c r="H34" s="16">
+      <c r="H34" s="29">
         <v>5.2057932852627102</v>
       </c>
-      <c r="I34" s="16">
+      <c r="I34" s="29">
         <v>9.0433969606950502</v>
       </c>
-      <c r="J34" s="16">
+      <c r="J34" s="29">
         <v>10.465517378064501</v>
       </c>
-      <c r="K34" s="17">
+      <c r="K34" s="30">
         <v>34.940660733683899</v>
       </c>
-      <c r="L34" s="17">
+      <c r="L34" s="30">
         <v>2.5709534444752502</v>
       </c>
-      <c r="M34" s="16">
+      <c r="M34" s="29">
         <v>62.6462220092371</v>
       </c>
-      <c r="N34" s="16">
+      <c r="N34" s="29">
         <v>12.7720378609727</v>
       </c>
-      <c r="O34" s="17">
+      <c r="O34" s="30">
         <v>24.581740129790202</v>
       </c>
-      <c r="P34" s="17">
+      <c r="P34" s="30">
         <v>5.4747758515060196</v>
       </c>
     </row>
@@ -4176,49 +4179,49 @@
       <c r="A57" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C57" s="28">
+      <c r="C57" s="19">
         <v>4.4096738469646404</v>
       </c>
-      <c r="D57" s="29">
+      <c r="D57" s="20">
         <v>5.1663570319099997E-3</v>
       </c>
-      <c r="E57" s="30">
+      <c r="E57" s="21">
         <v>6.2291704743239702</v>
       </c>
-      <c r="F57" s="28">
+      <c r="F57" s="19">
         <v>24.448932473393</v>
       </c>
-      <c r="G57" s="29">
+      <c r="G57" s="20">
         <v>20.936482415522701</v>
       </c>
-      <c r="H57" s="29">
+      <c r="H57" s="20">
         <v>7.6412623860276403</v>
       </c>
-      <c r="I57" s="29">
+      <c r="I57" s="20">
         <v>14.736552563442199</v>
       </c>
-      <c r="J57" s="29">
+      <c r="J57" s="20">
         <v>12.767783071896901</v>
       </c>
-      <c r="K57" s="30">
+      <c r="K57" s="21">
         <v>19.468987089717601</v>
       </c>
-      <c r="L57" s="30">
+      <c r="L57" s="21">
         <v>12.8276182365236</v>
       </c>
-      <c r="M57" s="29">
+      <c r="M57" s="20">
         <v>35.759223857056902</v>
       </c>
-      <c r="N57" s="29">
+      <c r="N57" s="20">
         <v>12.398864544296099</v>
       </c>
-      <c r="O57" s="30">
+      <c r="O57" s="21">
         <v>51.841911598647101</v>
       </c>
-      <c r="P57" s="30">
+      <c r="P57" s="21">
         <v>8.3968596683231098</v>
       </c>
     </row>
@@ -6291,8 +6294,8 @@
       <c r="P103" s="57"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A104" s="1" t="e">
-        <v>#N/A</v>
+      <c r="A104" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="C104" s="57"/>
       <c r="D104" s="57"/>
@@ -6343,7 +6346,7 @@
     </row>
     <row r="107" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B107" s="58" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C107" s="57"/>
       <c r="D107" s="57"/>
@@ -6379,7 +6382,7 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C109" s="57"/>
       <c r="D109" s="57"/>
@@ -6398,7 +6401,7 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C110" s="57"/>
       <c r="D110" s="57"/>
@@ -6434,7 +6437,7 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C112" s="57"/>
       <c r="D112" s="57"/>
@@ -6453,7 +6456,7 @@
     </row>
     <row r="113" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C113" s="57"/>
       <c r="D113" s="57"/>
@@ -6489,11 +6492,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{A76CE37A-65EC-478E-97FE-87DACE902A48}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{D050EE9E-A47A-4F77-9D54-9E5770EB9252}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{B66541F5-D93D-495E-A93B-2DE9F66DEACB}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{B25D22A7-233B-44EE-839F-491FFA3F63A0}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{269398F2-6839-473F-A2DF-E702A0E7AC4F}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{4F3DCA84-E7C3-40AD-B15F-8D7C8CBCD418}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{79D02288-C25C-4950-9CC2-7E4326A868C6}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{D71ACAC2-37E0-44BA-99B8-521601292A1C}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{75EC5E20-B169-4B72-A52B-E891E5790418}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{A0A1FBD8-EE58-49AC-8451-46E7FADEE0E5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab08.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDC018D2-DD46-4708-8DC4-4C03351CA4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71254D07-9D3F-450C-A518-839C6B355394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{939E32CD-C5AE-4BF2-B484-4E5F214B119C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{59A28505-9771-4BAC-BB7D-9532AD50B4B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab08" sheetId="1" r:id="rId1"/>
@@ -1393,7 +1393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ADC79E8-AF85-44FB-9DB7-0FD007874FBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DBA6C4-F58B-47B0-AF3A-94C8CF345797}">
   <dimension ref="A1:P114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -6492,11 +6492,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{4F3DCA84-E7C3-40AD-B15F-8D7C8CBCD418}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{79D02288-C25C-4950-9CC2-7E4326A868C6}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{D71ACAC2-37E0-44BA-99B8-521601292A1C}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{75EC5E20-B169-4B72-A52B-E891E5790418}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{A0A1FBD8-EE58-49AC-8451-46E7FADEE0E5}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{67B6BD14-7CFA-41B4-8207-96B38E34EFBA}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{573EF821-90D7-490A-8EF2-14D4FAD00BAD}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{7C2563EF-3629-4178-B599-3F3379D1A33C}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{D456EAF8-93C3-47B9-A058-821D11C9D00F}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{3B3A8746-E3F8-4B2F-BBA3-237CBC61256A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab08.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71254D07-9D3F-450C-A518-839C6B355394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B7CF786-FEBD-4C35-A8D3-95E32703B524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{59A28505-9771-4BAC-BB7D-9532AD50B4B3}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{C349947A-C13D-47F6-B2AC-E7D72EDFCF06}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab08" sheetId="1" r:id="rId1"/>
@@ -48,46 +48,46 @@
     <t>Pays (pays riches en ressources ombrés)</t>
   </si>
   <si>
-    <t>Rente pétroliere (% du PIB), 2020</t>
-  </si>
-  <si>
-    <t>Rente tirée des minéraux (% du PIB), 2020</t>
-  </si>
-  <si>
-    <t>Rente tirée des ressources naturelles totales (% du PIB), 2020</t>
-  </si>
-  <si>
-    <t>Agriculture, chasse, sylviculture, pêche: valeur ajoutée (% du PIB), 2018</t>
-  </si>
-  <si>
-    <t>Mines, fabrication, services publics: valeur ajoutée (% du PIB), 2018</t>
-  </si>
-  <si>
-    <t>Construction: valeur ajoutée (% du PIB), 2018</t>
-  </si>
-  <si>
-    <t>Commerce de gros, commerce de détail, restaurants et hôtels: valeur ajoutée (% du PIB), 2018</t>
-  </si>
-  <si>
-    <t>Transport, stockage et communication: valeur ajoutée (% du PIB), 2018</t>
-  </si>
-  <si>
-    <t>Autres activités: valeur ajoutée (% du PIB), 2018</t>
-  </si>
-  <si>
-    <t>Fabrication (incluse dans l'industrie): valeur ajoutée (% du PIB), 2018</t>
-  </si>
-  <si>
-    <t>Emploi dans l'agriculture en % du total, 2020</t>
-  </si>
-  <si>
-    <t>Emploi dans l'industrie en % du total, 2020</t>
-  </si>
-  <si>
-    <t>Emploi dans les services en % du total, 2020</t>
-  </si>
-  <si>
-    <t>Emploi dans le secteur manufacturier (y compris dans l'industrie) en % du total, 2020</t>
+    <t>Rente pétroliere (% du PIB), 2021</t>
+  </si>
+  <si>
+    <t>Rente tirée des minéraux (% du PIB), 2021</t>
+  </si>
+  <si>
+    <t>Rente tirée des ressources naturelles totales (% du PIB), 2021</t>
+  </si>
+  <si>
+    <t>Agriculture, chasse, sylviculture, pêche: valeur ajoutée (% du PIB), 2021</t>
+  </si>
+  <si>
+    <t>Mines, fabrication, services publics: valeur ajoutée (% du PIB), 2021</t>
+  </si>
+  <si>
+    <t>Construction: valeur ajoutée (% du PIB), 2021</t>
+  </si>
+  <si>
+    <t>Commerce de gros, commerce de détail, restaurants et hôtels: valeur ajoutée (% du PIB), 2021</t>
+  </si>
+  <si>
+    <t>Transport, stockage et communication: valeur ajoutée (% du PIB), 2021</t>
+  </si>
+  <si>
+    <t>Autres activités: valeur ajoutée (% du PIB), 2021</t>
+  </si>
+  <si>
+    <t>Fabrication (incluse dans l'industrie): valeur ajoutée (% du PIB), 2021</t>
+  </si>
+  <si>
+    <t>Emploi dans l'agriculture en % du total, 2021</t>
+  </si>
+  <si>
+    <t>Emploi dans l'industrie en % du total, 2021</t>
+  </si>
+  <si>
+    <t>Emploi dans les services en % du total, 2021</t>
+  </si>
+  <si>
+    <t>Emploi dans le secteur manufacturier (y compris dans l'industrie) en % du total, 2021</t>
   </si>
   <si>
     <t>AGO</t>
@@ -1393,7 +1393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DBA6C4-F58B-47B0-AF3A-94C8CF345797}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17CFA4C8-1FD0-41BA-BD37-804DE98FC5FB}">
   <dimension ref="A1:P114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -6492,11 +6492,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{67B6BD14-7CFA-41B4-8207-96B38E34EFBA}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{573EF821-90D7-490A-8EF2-14D4FAD00BAD}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{7C2563EF-3629-4178-B599-3F3379D1A33C}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{D456EAF8-93C3-47B9-A058-821D11C9D00F}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{3B3A8746-E3F8-4B2F-BBA3-237CBC61256A}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{2993D1CE-A8D7-4046-A3EB-29FAFE59C7D4}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{9D06CF22-0AF5-4B4F-95B4-DB5DF97CBFB6}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{3D6E8D6A-837A-47CB-B78F-BFD1F1D28AF7}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{CA5AE0DA-888F-4F83-9F87-11CD1829A9A1}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{EAD80F2F-32C9-4D45-83BB-5631CA761218}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab08.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B7CF786-FEBD-4C35-A8D3-95E32703B524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D96D70BB-7267-440E-B819-0A9939AE25C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{C349947A-C13D-47F6-B2AC-E7D72EDFCF06}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{2087DFD5-1986-474E-8BB0-3D8142BDAD08}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab08" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="178">
   <si>
     <t>Tableau 8 : Ventilation sectorielle de l'économie</t>
   </si>
@@ -558,16 +558,19 @@
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
   </si>
   <si>
-    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails.</t>
-  </si>
-  <si>
-    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs.</t>
-  </si>
-  <si>
     <t>Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici.</t>
   </si>
   <si>
     <t>Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour voir la liste complète des sources utilisées dans l'annexe statistique, cliquez ici.</t>
   </si>
 </sst>
 </file>
@@ -1393,7 +1396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17CFA4C8-1FD0-41BA-BD37-804DE98FC5FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062C06AB-5C54-4E26-98DC-09FA51388753}">
   <dimension ref="A1:P114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -6382,7 +6385,7 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C109" s="57"/>
       <c r="D109" s="57"/>
@@ -6401,7 +6404,7 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C110" s="57"/>
       <c r="D110" s="57"/>
@@ -6419,7 +6422,9 @@
       <c r="P110" s="57"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="C111" s="57"/>
       <c r="D111" s="57"/>
       <c r="E111" s="57"/>
@@ -6437,7 +6442,7 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C112" s="57"/>
       <c r="D112" s="57"/>
@@ -6456,7 +6461,7 @@
     </row>
     <row r="113" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C113" s="57"/>
       <c r="D113" s="57"/>
@@ -6492,13 +6497,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{2993D1CE-A8D7-4046-A3EB-29FAFE59C7D4}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{9D06CF22-0AF5-4B4F-95B4-DB5DF97CBFB6}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{3D6E8D6A-837A-47CB-B78F-BFD1F1D28AF7}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{CA5AE0DA-888F-4F83-9F87-11CD1829A9A1}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{EAD80F2F-32C9-4D45-83BB-5631CA761218}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{2D7126C0-2CDD-4A27-A057-21427BC8E3A0}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{DE87CA60-BF59-4FF9-ABAC-8042C885DBDF}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{B93D7809-D159-40B0-BFB2-0ED0A5E4442C}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{5749A365-814A-4211-BBB8-F0B9C732765E}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{FF12C7B4-83FE-407B-8CCC-CB8E7FBBF5AC}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{CC975979-EC82-41C9-B871-F7D9C4ADD694}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/DDAf_2023_Tableau_annexe_Tab08.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab08.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D96D70BB-7267-440E-B819-0A9939AE25C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94ABB1A5-A8B4-4CCC-8829-3006AAA2D3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{2087DFD5-1986-474E-8BB0-3D8142BDAD08}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{3E66526F-B492-4A41-A737-443B2CD7A86F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab08" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab08'!$A$2:$C$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab08'!$A$1:$F$103</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="178">
   <si>
     <t>Tableau 8 : Ventilation sectorielle de l'économie</t>
   </si>
@@ -1396,20 +1396,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062C06AB-5C54-4E26-98DC-09FA51388753}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2330E1-4F00-4A7C-B3A1-778974DBBD9E}">
   <dimension ref="A1:P114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.36328125" style="59" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="4" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1428,7 +1428,7 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:16" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>17</v>
       </c>
@@ -1486,49 +1486,49 @@
         <v>18</v>
       </c>
       <c r="C3" s="11">
-        <v>24.028004023434999</v>
+        <v>28.274439882584399</v>
       </c>
       <c r="D3" s="12">
         <v>0</v>
       </c>
       <c r="E3" s="13">
-        <v>25.517962832617101</v>
+        <v>29.9674348417559</v>
       </c>
       <c r="F3" s="11">
-        <v>9.9445170724621192</v>
+        <v>11.4927242392941</v>
       </c>
       <c r="G3" s="12">
-        <v>37.440752868013</v>
+        <v>41.298751582241401</v>
       </c>
       <c r="H3" s="12">
-        <v>8.2281830286599291</v>
+        <v>6.2520503256459703</v>
       </c>
       <c r="I3" s="12">
-        <v>20.730697045099902</v>
+        <v>21.118526020247199</v>
       </c>
       <c r="J3" s="12">
-        <v>2.2241235761016198</v>
+        <v>2.0343746123168698</v>
       </c>
       <c r="K3" s="13">
-        <v>21.431726409663501</v>
+        <v>17.8035732202544</v>
       </c>
       <c r="L3" s="13">
-        <v>7.0616037079996099</v>
+        <v>6.5441452045508903</v>
       </c>
       <c r="M3" s="12">
-        <v>59.2055641865932</v>
+        <v>58.657161525275697</v>
       </c>
       <c r="N3" s="12">
-        <v>7.4949989187929802</v>
+        <v>7.79667638273982</v>
       </c>
       <c r="O3" s="13">
-        <v>33.299436894613798</v>
+        <v>33.546169803357699</v>
       </c>
       <c r="P3" s="13">
-        <v>1.5706626642058199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1.59347815240743</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>19</v>
       </c>
@@ -1539,46 +1539,46 @@
         <v>0</v>
       </c>
       <c r="D4" s="16">
-        <v>9.0104530927890003E-2</v>
+        <v>0.24240101576966</v>
       </c>
       <c r="E4" s="17">
-        <v>0.67848279282823998</v>
+        <v>1.0385344391410101</v>
       </c>
       <c r="F4" s="15">
-        <v>2.3337753889237098</v>
+        <v>1.81160012217501</v>
       </c>
       <c r="G4" s="16">
-        <v>16.489732753911198</v>
+        <v>18.991340571657702</v>
       </c>
       <c r="H4" s="16">
-        <v>11.328456199915401</v>
+        <v>12.2439436255942</v>
       </c>
       <c r="I4" s="16">
-        <v>14.5635773277245</v>
+        <v>15.3314331851671</v>
       </c>
       <c r="J4" s="16">
-        <v>5.2269871001022601</v>
+        <v>5.11903618584134</v>
       </c>
       <c r="K4" s="17">
-        <v>50.057471229422902</v>
+        <v>46.502646309564703</v>
       </c>
       <c r="L4" s="17">
-        <v>5.9812231736858301</v>
+        <v>5.8548765656924804</v>
       </c>
       <c r="M4" s="16">
-        <v>23.440741778197701</v>
+        <v>23.0740656594343</v>
       </c>
       <c r="N4" s="16">
-        <v>14.3363449477517</v>
+        <v>14.719300238555</v>
       </c>
       <c r="O4" s="17">
-        <v>62.223031966158501</v>
+        <v>62.206634102010703</v>
       </c>
       <c r="P4" s="17">
-        <v>5.8726481158814803</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+        <v>5.9631943655572002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
@@ -1592,43 +1592,43 @@
         <v>0</v>
       </c>
       <c r="E5" s="21">
-        <v>3.9204781228002101</v>
+        <v>2.9991523799070499</v>
       </c>
       <c r="F5" s="19">
-        <v>8.9947754360177292</v>
+        <v>8.9851026872460995</v>
       </c>
       <c r="G5" s="20">
-        <v>30.8847446934139</v>
+        <v>32.147991451432198</v>
       </c>
       <c r="H5" s="20">
-        <v>2.7984574516196301</v>
+        <v>2.8939488665920301</v>
       </c>
       <c r="I5" s="20">
-        <v>16.021249135325199</v>
+        <v>15.981512839810501</v>
       </c>
       <c r="J5" s="20">
-        <v>5.9862770236807501</v>
+        <v>5.2791521071972998</v>
       </c>
       <c r="K5" s="21">
-        <v>35.3144962599428</v>
+        <v>34.712292047722002</v>
       </c>
       <c r="L5" s="21">
-        <v>28.486114063633199</v>
+        <v>30.0652678561027</v>
       </c>
       <c r="M5" s="20">
-        <v>12.698837565004601</v>
+        <v>12.408640019580799</v>
       </c>
       <c r="N5" s="20">
-        <v>24.1462498957146</v>
+        <v>24.481415255331999</v>
       </c>
       <c r="O5" s="21">
-        <v>63.1549125392809</v>
+        <v>63.109944725087203</v>
       </c>
       <c r="P5" s="21">
-        <v>15.9782669150978</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+        <v>15.949497902544801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>23</v>
       </c>
@@ -1642,43 +1642,43 @@
         <v>0</v>
       </c>
       <c r="E6" s="21">
-        <v>5.0955723897050502</v>
+        <v>4.3178819052539801</v>
       </c>
       <c r="F6" s="19">
-        <v>5.6786082246864797</v>
+        <v>4.8112056365323301</v>
       </c>
       <c r="G6" s="20">
-        <v>32.9676562049018</v>
+        <v>30.036866032891901</v>
       </c>
       <c r="H6" s="20">
-        <v>2.1114423474950401</v>
+        <v>2.3976264867224701</v>
       </c>
       <c r="I6" s="20">
-        <v>8.0022760737027401</v>
+        <v>8.5871746206223101</v>
       </c>
       <c r="J6" s="20">
-        <v>4.9029870122056796</v>
+        <v>4.98228792880988</v>
       </c>
       <c r="K6" s="21">
-        <v>46.337030137008298</v>
+        <v>49.184839291173702</v>
       </c>
       <c r="L6" s="21">
-        <v>17.9093941475587</v>
+        <v>18.901404527074298</v>
       </c>
       <c r="M6" s="20">
-        <v>30.474536096699801</v>
+        <v>29.966314148184701</v>
       </c>
       <c r="N6" s="20">
-        <v>34.387069900481201</v>
+        <v>34.939707023239798</v>
       </c>
       <c r="O6" s="21">
-        <v>35.138394002819098</v>
+        <v>35.094105801254699</v>
       </c>
       <c r="P6" s="21">
-        <v>22.875923196261201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+        <v>23.008592241207499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>25</v>
       </c>
@@ -1689,46 +1689,46 @@
         <v>0</v>
       </c>
       <c r="D7" s="20">
-        <v>2.09168437452E-3</v>
+        <v>5.6459152723499998E-3</v>
       </c>
       <c r="E7" s="21">
-        <v>3.9712579683239402</v>
+        <v>4.2225042128974097</v>
       </c>
       <c r="F7" s="19">
-        <v>26.713641468207602</v>
+        <v>28.3019608048244</v>
       </c>
       <c r="G7" s="20">
-        <v>16.886106620084199</v>
+        <v>16.8835677338034</v>
       </c>
       <c r="H7" s="20">
-        <v>3.3285688883016</v>
+        <v>3.22635161639566</v>
       </c>
       <c r="I7" s="20">
-        <v>13.6690843399549</v>
+        <v>13.193699866280999</v>
       </c>
       <c r="J7" s="20">
-        <v>10.513196970528</v>
+        <v>9.4296066360873905</v>
       </c>
       <c r="K7" s="21">
-        <v>28.889401712935701</v>
+        <v>28.964813342608199</v>
       </c>
       <c r="L7" s="21">
-        <v>12.8133248463862</v>
+        <v>12.909863038297299</v>
       </c>
       <c r="M7" s="20">
-        <v>62.435810501419802</v>
+        <v>61.916213560341603</v>
       </c>
       <c r="N7" s="20">
-        <v>7.9074625815547597</v>
+        <v>8.1309381414578805</v>
       </c>
       <c r="O7" s="21">
-        <v>29.656741159599001</v>
+        <v>29.9528482982006</v>
       </c>
       <c r="P7" s="21">
-        <v>4.1613666489916303</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+        <v>4.1923296017607701</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>27</v>
       </c>
@@ -1736,49 +1736,49 @@
         <v>28</v>
       </c>
       <c r="C8" s="19">
-        <v>0.32939663613190001</v>
+        <v>7.9312566208929999E-2</v>
       </c>
       <c r="D8" s="20">
-        <v>2.1998903769829999E-2</v>
+        <v>0.14048401303391</v>
       </c>
       <c r="E8" s="21">
-        <v>11.701826849241</v>
+        <v>14.9074768559672</v>
       </c>
       <c r="F8" s="19">
-        <v>29.226675425039801</v>
+        <v>30.7276032730217</v>
       </c>
       <c r="G8" s="20">
-        <v>22.769096915838801</v>
+        <v>23.027640559967999</v>
       </c>
       <c r="H8" s="20">
-        <v>1.3220644732253499</v>
+        <v>1.45150499689312</v>
       </c>
       <c r="I8" s="20">
-        <v>13.480337548042099</v>
+        <v>11.7261534035447</v>
       </c>
       <c r="J8" s="20">
-        <v>9.8307821925543202</v>
+        <v>9.6131146451808291</v>
       </c>
       <c r="K8" s="21">
-        <v>23.371043445528201</v>
+        <v>23.453983121391602</v>
       </c>
       <c r="L8" s="21">
-        <v>8.8242457974895192</v>
+        <v>8.7244337745925797</v>
       </c>
       <c r="M8" s="20">
-        <v>70.834459968094293</v>
+        <v>70.290607218782597</v>
       </c>
       <c r="N8" s="20">
-        <v>8.9271294157365908</v>
+        <v>9.2501222801423708</v>
       </c>
       <c r="O8" s="21">
-        <v>20.238410616169102</v>
+        <v>20.459277874011001</v>
       </c>
       <c r="P8" s="21">
-        <v>4.8476343711553103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+        <v>4.9619711337761698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>29</v>
       </c>
@@ -1789,46 +1789,46 @@
         <v>0</v>
       </c>
       <c r="D9" s="20">
-        <v>1.1806438998958</v>
+        <v>3.1679163736242901</v>
       </c>
       <c r="E9" s="21">
-        <v>2.01391384819209</v>
+        <v>4.0305805938313801</v>
       </c>
       <c r="F9" s="19">
-        <v>9.7857504349282003</v>
+        <v>10.0970330581283</v>
       </c>
       <c r="G9" s="20">
-        <v>25.552488864748302</v>
+        <v>24.958718086020799</v>
       </c>
       <c r="H9" s="20">
-        <v>1.9832658514717201</v>
+        <v>1.9482210223011101</v>
       </c>
       <c r="I9" s="20">
-        <v>11.9851311456625</v>
+        <v>12.419994787612</v>
       </c>
       <c r="J9" s="20">
-        <v>4.6408231027445099</v>
+        <v>4.81698080805399</v>
       </c>
       <c r="K9" s="21">
-        <v>46.052540600444701</v>
+        <v>45.7590522378838</v>
       </c>
       <c r="L9" s="21">
-        <v>11.7739373561483</v>
+        <v>11.807708806699599</v>
       </c>
       <c r="M9" s="20">
-        <v>22.380875144670799</v>
+        <v>22.119357347997301</v>
       </c>
       <c r="N9" s="20">
-        <v>16.1067690793579</v>
+        <v>16.427381346511499</v>
       </c>
       <c r="O9" s="21">
-        <v>61.512355775971301</v>
+        <v>61.453261305491203</v>
       </c>
       <c r="P9" s="21">
-        <v>7.7762077430812404</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+        <v>7.8355848763064504</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>31</v>
       </c>
@@ -1836,49 +1836,49 @@
         <v>32</v>
       </c>
       <c r="C10" s="19">
-        <v>3.2173718977600001E-3</v>
+        <v>0.39595420654583002</v>
       </c>
       <c r="D10" s="20">
-        <v>1.46236657849971</v>
+        <v>3.8318687297626601</v>
       </c>
       <c r="E10" s="21">
-        <v>3.9114655462291501</v>
+        <v>7.3285785919233497</v>
       </c>
       <c r="F10" s="19">
-        <v>2.7849235088528999</v>
+        <v>2.74210293429116</v>
       </c>
       <c r="G10" s="20">
-        <v>23.004158236617901</v>
+        <v>24.6994000285558</v>
       </c>
       <c r="H10" s="20">
-        <v>2.7087347825876602</v>
+        <v>2.5302661680563299</v>
       </c>
       <c r="I10" s="20">
-        <v>13.014039166657801</v>
+        <v>13.482071543349701</v>
       </c>
       <c r="J10" s="20">
-        <v>7.3527909839174503</v>
+        <v>7.1376476656926204</v>
       </c>
       <c r="K10" s="21">
-        <v>51.135353321386198</v>
+        <v>49.408511660036503</v>
       </c>
       <c r="L10" s="21">
-        <v>12.8851974570438</v>
+        <v>13.096267438239</v>
       </c>
       <c r="M10" s="20">
-        <v>21.449455375191299</v>
+        <v>21.296138192549499</v>
       </c>
       <c r="N10" s="20">
-        <v>17.6449557729307</v>
+        <v>17.258384219681901</v>
       </c>
       <c r="O10" s="21">
-        <v>60.905588851878001</v>
+        <v>61.4454775877687</v>
       </c>
       <c r="P10" s="21">
-        <v>8.5235548535889301</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+        <v>8.0824497623170792</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>33</v>
       </c>
@@ -1889,46 +1889,46 @@
         <v>0</v>
       </c>
       <c r="D11" s="16">
-        <v>4.0576354038503597</v>
+        <v>28.249094991496499</v>
       </c>
       <c r="E11" s="17">
-        <v>11.807857010987201</v>
+        <v>35.264147996432499</v>
       </c>
       <c r="F11" s="15">
-        <v>3.1383175411800202</v>
+        <v>3.0345319477589401</v>
       </c>
       <c r="G11" s="16">
-        <v>24.8507256398123</v>
+        <v>32.055506123936297</v>
       </c>
       <c r="H11" s="16">
-        <v>15.490857541208801</v>
+        <v>15.7011955912755</v>
       </c>
       <c r="I11" s="16">
-        <v>18.824704174614499</v>
+        <v>18.739144841096099</v>
       </c>
       <c r="J11" s="16">
-        <v>13.1471968285418</v>
+        <v>9.9482784181470905</v>
       </c>
       <c r="K11" s="17">
-        <v>24.548198274642701</v>
+        <v>20.521343077544898</v>
       </c>
       <c r="L11" s="17">
-        <v>8.1332139619971109</v>
+        <v>9.0595266113684296</v>
       </c>
       <c r="M11" s="16">
-        <v>59.111728415106398</v>
+        <v>58.679767734411001</v>
       </c>
       <c r="N11" s="16">
-        <v>8.6711367085626492</v>
+        <v>8.7808316590144599</v>
       </c>
       <c r="O11" s="17">
-        <v>32.2171184761185</v>
+        <v>32.539400606574503</v>
       </c>
       <c r="P11" s="17">
-        <v>4.4491152249403898</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>4.4090131831921298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>35</v>
       </c>
@@ -1936,49 +1936,49 @@
         <v>36</v>
       </c>
       <c r="C12" s="19">
-        <v>0</v>
+        <v>4.776880893161E-2</v>
       </c>
       <c r="D12" s="20">
-        <v>3.88243293663042</v>
+        <v>4.24065959200093</v>
       </c>
       <c r="E12" s="21">
-        <v>6.8002459606996899</v>
+        <v>6.3984516111264398</v>
       </c>
       <c r="F12" s="19">
-        <v>9.2900400139507209</v>
+        <v>9.3852970722208102</v>
       </c>
       <c r="G12" s="20">
-        <v>32.338554833660901</v>
+        <v>27.141918842135698</v>
       </c>
       <c r="H12" s="20">
-        <v>2.3606863459327698</v>
+        <v>3.4063368178759599</v>
       </c>
       <c r="I12" s="20">
-        <v>23.913251447718</v>
+        <v>28.0139371288771</v>
       </c>
       <c r="J12" s="20">
-        <v>8.1510869694281993</v>
+        <v>6.5967845111939898</v>
       </c>
       <c r="K12" s="21">
-        <v>23.946380384421499</v>
+        <v>25.455725636490602</v>
       </c>
       <c r="L12" s="21">
-        <v>16.621917030710701</v>
+        <v>13.1957017226106</v>
       </c>
       <c r="M12" s="20">
-        <v>62.223978625368801</v>
+        <v>61.612315888210802</v>
       </c>
       <c r="N12" s="20">
-        <v>11.254044741659699</v>
+        <v>11.638971870263999</v>
       </c>
       <c r="O12" s="21">
-        <v>26.521976632971601</v>
+        <v>26.748712241525102</v>
       </c>
       <c r="P12" s="21">
-        <v>4.5161425556063302</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>4.5981788324311497</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
         <v>37</v>
       </c>
@@ -1986,49 +1986,49 @@
         <v>38</v>
       </c>
       <c r="C13" s="24">
-        <v>4.0964719045600999</v>
+        <v>4.9069218329992701</v>
       </c>
       <c r="D13" s="25">
-        <v>1.26127113121723</v>
+        <v>4.0702138176110401</v>
       </c>
       <c r="E13" s="26">
-        <v>8.1884297322595607</v>
+        <v>12.3050871060241</v>
       </c>
       <c r="F13" s="24">
-        <v>5.49155750679882</v>
+        <v>5.5780064538655196</v>
       </c>
       <c r="G13" s="25">
-        <v>25.051913930091001</v>
+        <v>26.905567071083802</v>
       </c>
       <c r="H13" s="25">
-        <v>4.0790969637463501</v>
+        <v>3.8093822068936198</v>
       </c>
       <c r="I13" s="25">
-        <v>14.725541752658801</v>
+        <v>15.240413704435101</v>
       </c>
       <c r="J13" s="25">
-        <v>6.9857369132663196</v>
+        <v>6.54719994450158</v>
       </c>
       <c r="K13" s="26">
-        <v>43.666152933237299</v>
+        <v>41.919430619549601</v>
       </c>
       <c r="L13" s="26">
-        <v>11.9592519372471</v>
+        <v>11.908084232033699</v>
       </c>
       <c r="M13" s="25">
-        <v>42.425598765634703</v>
+        <v>42.002058129476801</v>
       </c>
       <c r="N13" s="25">
-        <v>15.087616196254301</v>
+        <v>15.3423728416939</v>
       </c>
       <c r="O13" s="26">
-        <v>42.486796691557998</v>
+        <v>42.655583234528102</v>
       </c>
       <c r="P13" s="26">
-        <v>8.0571522288810105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+        <v>8.0594290051500703</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>39</v>
       </c>
@@ -2042,43 +2042,43 @@
         <v>0</v>
       </c>
       <c r="E14" s="21">
-        <v>12.408515926287899</v>
+        <v>13.9570339894077</v>
       </c>
       <c r="F14" s="19">
-        <v>37.158247502844702</v>
+        <v>37.526139467135003</v>
       </c>
       <c r="G14" s="20">
-        <v>14.971535512384699</v>
+        <v>14.926253267728001</v>
       </c>
       <c r="H14" s="20">
-        <v>3.8427253354147299</v>
+        <v>3.7973040328817</v>
       </c>
       <c r="I14" s="20">
-        <v>5.9847016806665101</v>
+        <v>5.7245707429118697</v>
       </c>
       <c r="J14" s="20">
-        <v>4.2611587046613097</v>
+        <v>4.21943057995309</v>
       </c>
       <c r="K14" s="21">
-        <v>33.7816312640281</v>
+        <v>33.806301909390399</v>
       </c>
       <c r="L14" s="21">
-        <v>13.7743174115547</v>
+        <v>13.739287443613099</v>
       </c>
       <c r="M14" s="20">
-        <v>86.094777454630702</v>
+        <v>85.850303053753095</v>
       </c>
       <c r="N14" s="20">
-        <v>3.4926771899375102</v>
+        <v>3.6194040891203398</v>
       </c>
       <c r="O14" s="21">
-        <v>10.412525583023999</v>
+        <v>10.5302928571266</v>
       </c>
       <c r="P14" s="21">
-        <v>1.7747515448676501</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1.81422565953737</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>41</v>
       </c>
@@ -2086,49 +2086,49 @@
         <v>42</v>
       </c>
       <c r="C15" s="19">
-        <v>1.7314143892434</v>
+        <v>2.3615995323854699</v>
       </c>
       <c r="D15" s="20">
         <v>0</v>
       </c>
       <c r="E15" s="21">
-        <v>4.6783712833870696</v>
+        <v>5.5259826839567898</v>
       </c>
       <c r="F15" s="19">
-        <v>18.747840140475802</v>
+        <v>18.6299117002544</v>
       </c>
       <c r="G15" s="20">
-        <v>18.679937027279198</v>
+        <v>19.741995988939902</v>
       </c>
       <c r="H15" s="20">
-        <v>6.5043889723250103</v>
+        <v>6.2282894891745704</v>
       </c>
       <c r="I15" s="20">
-        <v>17.468615475912099</v>
+        <v>17.503089369507101</v>
       </c>
       <c r="J15" s="20">
-        <v>13.6154375656683</v>
+        <v>13.388475349475</v>
       </c>
       <c r="K15" s="21">
-        <v>24.9837808183395</v>
+        <v>24.508238102648999</v>
       </c>
       <c r="L15" s="21">
-        <v>14.335175663369901</v>
+        <v>14.387094117347001</v>
       </c>
       <c r="M15" s="20">
-        <v>43.304174388970502</v>
+        <v>42.604571519979203</v>
       </c>
       <c r="N15" s="20">
-        <v>15.1474141641815</v>
+        <v>15.5249234847095</v>
       </c>
       <c r="O15" s="21">
-        <v>41.548411446848</v>
+        <v>41.8705049953114</v>
       </c>
       <c r="P15" s="21">
-        <v>10.9259672170461</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+        <v>11.098641468166701</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>43</v>
       </c>
@@ -2139,46 +2139,46 @@
         <v>0</v>
       </c>
       <c r="D16" s="20">
-        <v>9.7274528835740004E-2</v>
+        <v>0.76804803651011</v>
       </c>
       <c r="E16" s="21">
-        <v>9.3227676950671103</v>
+        <v>10.2601957578803</v>
       </c>
       <c r="F16" s="19">
-        <v>33.438157374306002</v>
+        <v>33.252410455018698</v>
       </c>
       <c r="G16" s="20">
-        <v>20.0254294498246</v>
+        <v>20.056230479651699</v>
       </c>
       <c r="H16" s="20">
-        <v>1.6607183301356101</v>
+        <v>1.6940504364993001</v>
       </c>
       <c r="I16" s="20">
-        <v>19.300688737714601</v>
+        <v>19.348956479661702</v>
       </c>
       <c r="J16" s="20">
-        <v>2.2380724719659701</v>
+        <v>2.15844614650611</v>
       </c>
       <c r="K16" s="21">
-        <v>23.336933636131398</v>
+        <v>23.4899060025874</v>
       </c>
       <c r="L16" s="21">
-        <v>19.2404334107928</v>
+        <v>19.282704503213399</v>
       </c>
       <c r="M16" s="20">
-        <v>68.944414253594701</v>
+        <v>68.522751565494502</v>
       </c>
       <c r="N16" s="20">
-        <v>6.5459352090235701</v>
+        <v>6.7009462699796103</v>
       </c>
       <c r="O16" s="21">
-        <v>24.509650537381798</v>
+        <v>24.776302164525902</v>
       </c>
       <c r="P16" s="21">
-        <v>4.8016350602560802</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+        <v>4.8654312870574898</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>45</v>
       </c>
@@ -2186,49 +2186,49 @@
         <v>46</v>
       </c>
       <c r="C17" s="28">
-        <v>11.333888488491199</v>
+        <v>16.751566161141699</v>
       </c>
       <c r="D17" s="29">
         <v>0</v>
       </c>
       <c r="E17" s="30">
-        <v>15.756875197206099</v>
+        <v>21.342931262515901</v>
       </c>
       <c r="F17" s="28">
-        <v>36.248664357223802</v>
+        <v>46.490627553015699</v>
       </c>
       <c r="G17" s="29">
-        <v>27.3269726113122</v>
+        <v>20.9838996211625</v>
       </c>
       <c r="H17" s="29">
-        <v>2.7900104531482701</v>
+        <v>1.9044542318333799</v>
       </c>
       <c r="I17" s="29">
-        <v>12.032764028328801</v>
+        <v>10.8279573626098</v>
       </c>
       <c r="J17" s="29">
-        <v>4.1982261063453103</v>
+        <v>3.8592255766634902</v>
       </c>
       <c r="K17" s="30">
-        <v>17.403362443652799</v>
+        <v>15.933835654726799</v>
       </c>
       <c r="L17" s="30">
-        <v>9.2247589167510302</v>
+        <v>7.0106402117507596</v>
       </c>
       <c r="M17" s="29">
-        <v>69.463435986334005</v>
+        <v>68.945357421925607</v>
       </c>
       <c r="N17" s="29">
-        <v>9.4092795028702501</v>
+        <v>9.7015175447548501</v>
       </c>
       <c r="O17" s="30">
-        <v>21.127304245685199</v>
+        <v>21.353144073076098</v>
       </c>
       <c r="P17" s="30">
-        <v>7.48676578317514</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+        <v>7.6822942449670402</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>47</v>
       </c>
@@ -2236,49 +2236,49 @@
         <v>48</v>
       </c>
       <c r="C18" s="28">
-        <v>31.910187116898101</v>
+        <v>34.3828809069635</v>
       </c>
       <c r="D18" s="29">
         <v>0</v>
       </c>
       <c r="E18" s="30">
-        <v>37.394862479906998</v>
+        <v>37.712548094668499</v>
       </c>
       <c r="F18" s="28">
-        <v>11.506574047089</v>
+        <v>8.7269595948409293</v>
       </c>
       <c r="G18" s="29">
-        <v>28.853006835855801</v>
+        <v>42.711852786022199</v>
       </c>
       <c r="H18" s="29">
-        <v>0.84311145267442</v>
+        <v>1.09306105616722</v>
       </c>
       <c r="I18" s="29">
-        <v>18.0576963710553</v>
+        <v>15.7796319403492</v>
       </c>
       <c r="J18" s="29">
-        <v>7.62241449073107</v>
+        <v>6.5404266435568896</v>
       </c>
       <c r="K18" s="30">
-        <v>33.117196802594599</v>
+        <v>25.148067979077801</v>
       </c>
       <c r="L18" s="30">
-        <v>11.816640882096401</v>
+        <v>9.2317483109204694</v>
       </c>
       <c r="M18" s="29">
-        <v>36.783843261383097</v>
+        <v>36.264116593924101</v>
       </c>
       <c r="N18" s="29">
-        <v>20.9905908311144</v>
+        <v>21.2055590780644</v>
       </c>
       <c r="O18" s="30">
-        <v>42.225623667900798</v>
+        <v>42.530324328011602</v>
       </c>
       <c r="P18" s="30">
-        <v>16.800593776894701</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+        <v>16.829764416845901</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>49</v>
       </c>
@@ -2286,49 +2286,49 @@
         <v>50</v>
       </c>
       <c r="C19" s="15">
-        <v>0.50031777412591005</v>
+        <v>0.64983690301922004</v>
       </c>
       <c r="D19" s="16">
-        <v>4.99356378605889</v>
+        <v>28.8127978039482</v>
       </c>
       <c r="E19" s="17">
-        <v>14.8842748515381</v>
+        <v>38.8272665239082</v>
       </c>
       <c r="F19" s="15">
-        <v>21.5599586539848</v>
+        <v>20.368524480949802</v>
       </c>
       <c r="G19" s="16">
-        <v>39.6114003280695</v>
+        <v>44.019460341244702</v>
       </c>
       <c r="H19" s="16">
-        <v>1.1020177965987099</v>
+        <v>1.0839098333538699</v>
       </c>
       <c r="I19" s="16">
-        <v>14.103546159358601</v>
+        <v>12.2728932890116</v>
       </c>
       <c r="J19" s="16">
-        <v>9.2543844787026792</v>
+        <v>9.0537740259086803</v>
       </c>
       <c r="K19" s="17">
-        <v>14.3686925832857</v>
+        <v>13.2014380295313</v>
       </c>
       <c r="L19" s="17">
-        <v>19.6064471075439</v>
+        <v>18.271971055614902</v>
       </c>
       <c r="M19" s="16">
-        <v>55.911123331592201</v>
+        <v>55.283810929229197</v>
       </c>
       <c r="N19" s="16">
-        <v>9.7727034915574205</v>
+        <v>10.0286872837333</v>
       </c>
       <c r="O19" s="17">
-        <v>34.316169928258397</v>
+        <v>34.687501787037498</v>
       </c>
       <c r="P19" s="17">
-        <v>6.3582741491312298</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+        <v>6.4851735494263103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>51</v>
       </c>
@@ -2336,49 +2336,49 @@
         <v>52</v>
       </c>
       <c r="C20" s="28">
-        <v>15.6036823965216</v>
+        <v>14.9400221325798</v>
       </c>
       <c r="D20" s="29">
         <v>0</v>
       </c>
       <c r="E20" s="30">
-        <v>23.3524208425472</v>
+        <v>23.500064053404</v>
       </c>
       <c r="F20" s="28">
-        <v>2.9974365875664502</v>
+        <v>2.6090498489885801</v>
       </c>
       <c r="G20" s="29">
-        <v>40.863002448439801</v>
+        <v>49.5789266283629</v>
       </c>
       <c r="H20" s="29">
-        <v>4.3877303911108196</v>
+        <v>3.5063742737574399</v>
       </c>
       <c r="I20" s="29">
-        <v>9.1336311698037491</v>
+        <v>7.8118063090708301</v>
       </c>
       <c r="J20" s="29">
-        <v>7.3507084993022698</v>
+        <v>6.1541974903037797</v>
       </c>
       <c r="K20" s="30">
-        <v>35.267490903776903</v>
+        <v>30.3396454495165</v>
       </c>
       <c r="L20" s="30">
-        <v>20.676996201398602</v>
+        <v>25.922407708921298</v>
       </c>
       <c r="M20" s="29">
-        <v>56.110496083550899</v>
+        <v>55.539695870918798</v>
       </c>
       <c r="N20" s="29">
-        <v>13.405953002611</v>
+        <v>13.727802049600699</v>
       </c>
       <c r="O20" s="30">
-        <v>30.483550913838101</v>
+        <v>30.7327039707985</v>
       </c>
       <c r="P20" s="30">
-        <v>8.1733681462141003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+        <v>8.2945029031971504</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>53</v>
       </c>
@@ -2386,49 +2386,49 @@
         <v>54</v>
       </c>
       <c r="C21" s="28">
-        <v>14.3218738678033</v>
+        <v>15.556509149146301</v>
       </c>
       <c r="D21" s="29">
-        <v>3.1721989516529998E-2</v>
+        <v>2.252663421017E-2</v>
       </c>
       <c r="E21" s="30">
-        <v>17.686702996385101</v>
+        <v>18.493344092517599</v>
       </c>
       <c r="F21" s="28">
-        <v>7.0564903846153904</v>
+        <v>6.4690905387514004</v>
       </c>
       <c r="G21" s="29">
-        <v>39.574519230769198</v>
+        <v>46.356044403707102</v>
       </c>
       <c r="H21" s="29">
-        <v>3.5841346153846199</v>
+        <v>3.4321213972909699</v>
       </c>
       <c r="I21" s="29">
-        <v>5.9915865384615401</v>
+        <v>5.1980853447397903</v>
       </c>
       <c r="J21" s="29">
-        <v>13.632211538461499</v>
+        <v>12.525715449638501</v>
       </c>
       <c r="K21" s="30">
-        <v>30.161057692307701</v>
+        <v>26.018942865872301</v>
       </c>
       <c r="L21" s="30">
-        <v>8.765625</v>
+        <v>7.9661880028516201</v>
       </c>
       <c r="M21" s="29">
-        <v>29.639822041747099</v>
+        <v>29.0042663834618</v>
       </c>
       <c r="N21" s="29">
-        <v>15.539717683512301</v>
+        <v>16.081335945654001</v>
       </c>
       <c r="O21" s="30">
-        <v>54.820270876855403</v>
+        <v>54.914397670884199</v>
       </c>
       <c r="P21" s="30">
-        <v>7.40375272969702</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7.5590060974493296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>55</v>
       </c>
@@ -2442,43 +2442,43 @@
         <v>0</v>
       </c>
       <c r="E22" s="21">
-        <v>1.92395077847041</v>
+        <v>1.8843959600662701</v>
       </c>
       <c r="F22" s="19">
-        <v>14.2683843344747</v>
+        <v>12.7108590800214</v>
       </c>
       <c r="G22" s="20">
-        <v>7.9244763283955004</v>
+        <v>8.5197114862455301</v>
       </c>
       <c r="H22" s="20">
-        <v>5.57564667303037</v>
+        <v>5.39125715898136</v>
       </c>
       <c r="I22" s="20">
-        <v>29.5828679314982</v>
+        <v>30.608528858775401</v>
       </c>
       <c r="J22" s="20">
-        <v>11.19671231917</v>
+        <v>11.381518350095501</v>
       </c>
       <c r="K22" s="21">
-        <v>31.451912413431302</v>
+        <v>31.3881250837455</v>
       </c>
       <c r="L22" s="21">
-        <v>5.6776204279494298</v>
+        <v>6.1291431069280398</v>
       </c>
       <c r="M22" s="20">
-        <v>18.351792306776201</v>
+        <v>18.0452118895406</v>
       </c>
       <c r="N22" s="20">
-        <v>19.777471545960299</v>
+        <v>20.239899822052301</v>
       </c>
       <c r="O22" s="21">
-        <v>61.8707361472635</v>
+        <v>61.714888288407103</v>
       </c>
       <c r="P22" s="21">
-        <v>9.7977168716718595</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>9.7657022342318598</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="22" t="s">
         <v>37</v>
       </c>
@@ -2486,49 +2486,49 @@
         <v>57</v>
       </c>
       <c r="C23" s="24">
-        <v>6.2775428415576897</v>
+        <v>7.1741656781693903</v>
       </c>
       <c r="D23" s="25">
-        <v>1.6034726137867801</v>
+        <v>9.4489297352117898</v>
       </c>
       <c r="E23" s="26">
-        <v>13.931548477083201</v>
+        <v>22.6963769011004</v>
       </c>
       <c r="F23" s="24">
-        <v>19.393565513594499</v>
+        <v>19.1444548037387</v>
       </c>
       <c r="G23" s="25">
-        <v>30.7871235505418</v>
+        <v>34.782941947839497</v>
       </c>
       <c r="H23" s="25">
-        <v>3.3352951044997798</v>
+        <v>3.0661390785090501</v>
       </c>
       <c r="I23" s="25">
-        <v>13.8172886630745</v>
+        <v>12.679862488627199</v>
       </c>
       <c r="J23" s="25">
-        <v>9.8466101030444193</v>
+        <v>9.4501176042401998</v>
       </c>
       <c r="K23" s="26">
-        <v>22.820117065247601</v>
+        <v>20.8764840771079</v>
       </c>
       <c r="L23" s="26">
-        <v>15.1698698844923</v>
+        <v>14.733640317418701</v>
       </c>
       <c r="M23" s="25">
-        <v>51.622653234286602</v>
+        <v>51.1177872475808</v>
       </c>
       <c r="N23" s="25">
-        <v>12.675749180085401</v>
+        <v>12.9811195075188</v>
       </c>
       <c r="O23" s="26">
-        <v>35.701582594117198</v>
+        <v>35.901117792797599</v>
       </c>
       <c r="P23" s="26">
-        <v>8.1692028087726491</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+        <v>8.2660824289865698</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>58</v>
       </c>
@@ -2542,43 +2542,43 @@
         <v>0</v>
       </c>
       <c r="E24" s="21">
-        <v>1.5037576789331299</v>
+        <v>1.62843413378353</v>
       </c>
       <c r="F24" s="19">
-        <v>38.100991755114897</v>
+        <v>38.731150593058203</v>
       </c>
       <c r="G24" s="20">
-        <v>7.83688662252339</v>
+        <v>7.8604016231732503</v>
       </c>
       <c r="H24" s="20">
-        <v>0.85347582690039003</v>
+        <v>0.87443348286762002</v>
       </c>
       <c r="I24" s="20">
-        <v>19.779151082629198</v>
+        <v>19.8902335876233</v>
       </c>
       <c r="J24" s="20">
-        <v>6.5436899365113597</v>
+        <v>6.48202201133837</v>
       </c>
       <c r="K24" s="21">
-        <v>26.8858047763207</v>
+        <v>26.161758702125301</v>
       </c>
       <c r="L24" s="21">
-        <v>6.6548812478979196</v>
+        <v>6.6780617748308897</v>
       </c>
       <c r="M24" s="20">
-        <v>35.600590620100398</v>
+        <v>34.973776958324898</v>
       </c>
       <c r="N24" s="20">
-        <v>19.687336678827499</v>
+        <v>20.171722614098702</v>
       </c>
       <c r="O24" s="21">
-        <v>44.712072701072202</v>
+        <v>44.854500427576497</v>
       </c>
       <c r="P24" s="21">
-        <v>9.6564356787310803</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+        <v>9.68201163601133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>60</v>
       </c>
@@ -2592,43 +2592,43 @@
         <v>0</v>
       </c>
       <c r="E25" s="21">
-        <v>0.29929354344884002</v>
+        <v>0.27711049035648999</v>
       </c>
       <c r="F25" s="19">
-        <v>1.37886238355034</v>
+        <v>1.3687186889985701</v>
       </c>
       <c r="G25" s="20">
-        <v>7.7711904857397203</v>
+        <v>7.69643564965404</v>
       </c>
       <c r="H25" s="20">
-        <v>4.20261711795116</v>
+        <v>4.1402091593775001</v>
       </c>
       <c r="I25" s="20">
-        <v>32.052542558021202</v>
+        <v>32.014636939936402</v>
       </c>
       <c r="J25" s="20">
-        <v>24.675169427865999</v>
+        <v>24.9484189024007</v>
       </c>
       <c r="K25" s="21">
-        <v>29.919618026694799</v>
+        <v>29.831580659986301</v>
       </c>
       <c r="L25" s="21">
-        <v>3.0254350690906899</v>
+        <v>2.9758011491543899</v>
       </c>
       <c r="M25" s="20">
-        <v>1.21645558942967</v>
+        <v>1.1849859082756899</v>
       </c>
       <c r="N25" s="20">
-        <v>5.8473013845542097</v>
+        <v>6.1141779051079599</v>
       </c>
       <c r="O25" s="21">
-        <v>92.9362430260162</v>
+        <v>92.700836186616399</v>
       </c>
       <c r="P25" s="21">
-        <v>0.26329425090677</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0.26378310390609</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>62</v>
       </c>
@@ -2645,40 +2645,40 @@
         <v>64</v>
       </c>
       <c r="F26" s="19">
-        <v>17.260940808452698</v>
+        <v>17.268418613205402</v>
       </c>
       <c r="G26" s="20">
-        <v>15.588770390607801</v>
+        <v>15.5868465228452</v>
       </c>
       <c r="H26" s="20">
-        <v>15.7271184946134</v>
+        <v>15.7234553512864</v>
       </c>
       <c r="I26" s="20">
-        <v>11.394786444525799</v>
+        <v>11.3948340996597</v>
       </c>
       <c r="J26" s="20">
-        <v>12.2909593724331</v>
+        <v>12.290371489686001</v>
       </c>
       <c r="K26" s="21">
-        <v>27.737424486243</v>
+        <v>27.736073920436301</v>
       </c>
       <c r="L26" s="21">
-        <v>6.0286318036511597</v>
+        <v>6.0280541386841699</v>
       </c>
       <c r="M26" s="20">
-        <v>62.858349280526099</v>
+        <v>62.419808133949601</v>
       </c>
       <c r="N26" s="20">
-        <v>8.4239503927767192</v>
+        <v>8.6229785449806293</v>
       </c>
       <c r="O26" s="21">
-        <v>28.717700326697202</v>
+        <v>28.957213321069801</v>
       </c>
       <c r="P26" s="21">
-        <v>4.7961843037332299</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+        <v>4.8103934155263302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>65</v>
       </c>
@@ -2689,46 +2689,46 @@
         <v>0</v>
       </c>
       <c r="D27" s="20">
-        <v>1.1739855385279999E-2</v>
+        <v>0.26458722872547003</v>
       </c>
       <c r="E27" s="21">
-        <v>5.0879638537738101</v>
+        <v>5.8670734736126704</v>
       </c>
       <c r="F27" s="19">
-        <v>37.238221388198298</v>
+        <v>39.153594180717597</v>
       </c>
       <c r="G27" s="20">
-        <v>6.5924796014583897</v>
+        <v>6.2756591372955297</v>
       </c>
       <c r="H27" s="20">
-        <v>17.601273109100301</v>
+        <v>16.495446822778099</v>
       </c>
       <c r="I27" s="20">
-        <v>16.254775624306902</v>
+        <v>15.613679156766</v>
       </c>
       <c r="J27" s="20">
-        <v>4.3541571927744602</v>
+        <v>4.4040216981831497</v>
       </c>
       <c r="K27" s="21">
-        <v>17.959093084099699</v>
+        <v>18.057599004235598</v>
       </c>
       <c r="L27" s="21">
-        <v>5.5538345946079604</v>
+        <v>4.7989297102937201</v>
       </c>
       <c r="M27" s="20">
-        <v>64.086419838902799</v>
+        <v>63.660297446377598</v>
       </c>
       <c r="N27" s="20">
-        <v>9.9106073961328001</v>
+        <v>10.187512794180099</v>
       </c>
       <c r="O27" s="21">
-        <v>26.0029746335467</v>
+        <v>26.152189759442301</v>
       </c>
       <c r="P27" s="21">
-        <v>5.1179086647432204</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+        <v>5.1388831667297596</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>67</v>
       </c>
@@ -2736,49 +2736,49 @@
         <v>68</v>
       </c>
       <c r="C28" s="19">
-        <v>1.5810537835229999E-2</v>
+        <v>0</v>
       </c>
       <c r="D28" s="20">
-        <v>5.7535912778899998E-3</v>
+        <v>5.6624309238899996E-3</v>
       </c>
       <c r="E28" s="21">
-        <v>1.2243645066956701</v>
+        <v>1.2279285777090101</v>
       </c>
       <c r="F28" s="19">
-        <v>24.078589977447699</v>
+        <v>23.901445104792899</v>
       </c>
       <c r="G28" s="20">
-        <v>11.074560482763699</v>
+        <v>10.646611124437801</v>
       </c>
       <c r="H28" s="20">
-        <v>7.4513523742961896</v>
+        <v>7.4646213068105798</v>
       </c>
       <c r="I28" s="20">
-        <v>9.3799807215699396</v>
+        <v>9.4930864641640902</v>
       </c>
       <c r="J28" s="20">
-        <v>14.170004360553801</v>
+        <v>14.7802946413646</v>
       </c>
       <c r="K28" s="21">
-        <v>33.845512083368703</v>
+        <v>33.713941358447698</v>
       </c>
       <c r="L28" s="21">
-        <v>8.1021011634217608</v>
+        <v>7.7200537311613404</v>
       </c>
       <c r="M28" s="20">
-        <v>33.637911506178099</v>
+        <v>33.033816455691799</v>
       </c>
       <c r="N28" s="20">
-        <v>15.2876615213885</v>
+        <v>15.7270838562881</v>
       </c>
       <c r="O28" s="21">
-        <v>51.0744269724334</v>
+        <v>51.2390952934418</v>
       </c>
       <c r="P28" s="21">
-        <v>6.9557762581631302</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+        <v>6.94481798359873</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>69</v>
       </c>
@@ -2786,49 +2786,49 @@
         <v>70</v>
       </c>
       <c r="C29" s="19">
-        <v>6.0959927764219997E-2</v>
+        <v>8.3829870039410004E-2</v>
       </c>
       <c r="D29" s="20">
         <v>0</v>
       </c>
       <c r="E29" s="21">
-        <v>5.3384978496512403</v>
+        <v>5.5311886434035999</v>
       </c>
       <c r="F29" s="19">
-        <v>26.6648671799616</v>
+        <v>25.409382127486701</v>
       </c>
       <c r="G29" s="20">
-        <v>13.287670732298</v>
+        <v>14.9116121752176</v>
       </c>
       <c r="H29" s="20">
-        <v>7.3672702718254302</v>
+        <v>7.4339774132719203</v>
       </c>
       <c r="I29" s="20">
-        <v>12.7669079270742</v>
+        <v>13.641912169625799</v>
       </c>
       <c r="J29" s="20">
-        <v>9.1277211369669295</v>
+        <v>8.4367642383098609</v>
       </c>
       <c r="K29" s="21">
-        <v>30.785562751873801</v>
+        <v>30.1663518760862</v>
       </c>
       <c r="L29" s="21">
-        <v>10.318866148658</v>
+        <v>10.288044669093299</v>
       </c>
       <c r="M29" s="20">
-        <v>74.254588757259597</v>
+        <v>73.900116806125098</v>
       </c>
       <c r="N29" s="20">
-        <v>10.219013528487</v>
+        <v>10.439536284278599</v>
       </c>
       <c r="O29" s="21">
-        <v>15.5263906082465</v>
+        <v>15.660346909596299</v>
       </c>
       <c r="P29" s="21">
-        <v>7.5211114135901402</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+        <v>7.6128294289709197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>71</v>
       </c>
@@ -2842,43 +2842,43 @@
         <v>0</v>
       </c>
       <c r="E30" s="21">
-        <v>2.8784052116899998E-3</v>
+        <v>2.7152691322800001E-3</v>
       </c>
       <c r="F30" s="19">
-        <v>3.5806144288519999</v>
+        <v>3.6937742545573502</v>
       </c>
       <c r="G30" s="20">
-        <v>14.640929097112901</v>
+        <v>15.451168023726</v>
       </c>
       <c r="H30" s="20">
-        <v>4.32453087389041</v>
+        <v>5.2765023352773701</v>
       </c>
       <c r="I30" s="20">
-        <v>15.377039372195799</v>
+        <v>14.433104314930199</v>
       </c>
       <c r="J30" s="20">
-        <v>10.732345633819</v>
+        <v>10.532532872351</v>
       </c>
       <c r="K30" s="21">
-        <v>51.344540594129803</v>
+        <v>50.612918199158202</v>
       </c>
       <c r="L30" s="21">
-        <v>12.326841831113001</v>
+        <v>13.182781446702601</v>
       </c>
       <c r="M30" s="20">
-        <v>5.3179676690544202</v>
+        <v>5.1475908532341101</v>
       </c>
       <c r="N30" s="20">
-        <v>23.404382016568299</v>
+        <v>23.631379491101601</v>
       </c>
       <c r="O30" s="21">
-        <v>71.277650314377297</v>
+        <v>71.221029655664296</v>
       </c>
       <c r="P30" s="21">
-        <v>13.317687444174</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+        <v>13.309042786309099</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>73</v>
       </c>
@@ -2892,43 +2892,43 @@
         <v>0</v>
       </c>
       <c r="E31" s="21">
-        <v>3.8968564191591999</v>
+        <v>4.0172363407187701</v>
       </c>
       <c r="F31" s="19">
-        <v>28.979268154525901</v>
+        <v>26.108081308874599</v>
       </c>
       <c r="G31" s="20">
-        <v>12.597711566783699</v>
+        <v>14.5661874070402</v>
       </c>
       <c r="H31" s="20">
-        <v>7.6923076923076898</v>
+        <v>7.5161130391670801</v>
       </c>
       <c r="I31" s="20">
-        <v>10.6944601789963</v>
+        <v>12.0277640059494</v>
       </c>
       <c r="J31" s="20">
-        <v>8.4060269627279993</v>
+        <v>8.1507188894397604</v>
       </c>
       <c r="K31" s="21">
-        <v>31.6302254446584</v>
+        <v>31.631135349529</v>
       </c>
       <c r="L31" s="21">
-        <v>9.5162569389373601</v>
+        <v>9.9652949925632193</v>
       </c>
       <c r="M31" s="20">
-        <v>55.489491808072799</v>
+        <v>54.6654780418664</v>
       </c>
       <c r="N31" s="20">
-        <v>17.544086441502898</v>
+        <v>18.676769977469402</v>
       </c>
       <c r="O31" s="21">
-        <v>26.9664217504242</v>
+        <v>26.657726840545799</v>
       </c>
       <c r="P31" s="21">
-        <v>4.2526833355426703</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+        <v>4.3706598728010597</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>75</v>
       </c>
@@ -2942,28 +2942,28 @@
         <v>0</v>
       </c>
       <c r="E32" s="21">
-        <v>0.15554113079955001</v>
+        <v>0.12064513250717999</v>
       </c>
       <c r="F32" s="19">
-        <v>3.2546598188008602</v>
+        <v>3.4416616430098101</v>
       </c>
       <c r="G32" s="20">
-        <v>12.4415719314444</v>
+        <v>12.906231161286801</v>
       </c>
       <c r="H32" s="20">
-        <v>5.3263315828957296</v>
+        <v>3.3210938784457702</v>
       </c>
       <c r="I32" s="20">
-        <v>16.273299094004301</v>
+        <v>18.2276538609086</v>
       </c>
       <c r="J32" s="20">
-        <v>8.4482659126320101</v>
+        <v>8.7521236367622102</v>
       </c>
       <c r="K32" s="21">
-        <v>54.255871660222802</v>
+        <v>53.351235819586798</v>
       </c>
       <c r="L32" s="21">
-        <v>8.9849385423278907</v>
+        <v>8.4123417548090096</v>
       </c>
       <c r="M32" s="20" t="s">
         <v>64</v>
@@ -2978,7 +2978,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>77</v>
       </c>
@@ -2992,43 +2992,43 @@
         <v>0</v>
       </c>
       <c r="E33" s="21">
-        <v>14.811093905484</v>
+        <v>11.235693491527501</v>
       </c>
       <c r="F33" s="19">
-        <v>60.180055740903001</v>
+        <v>60.177800840176197</v>
       </c>
       <c r="G33" s="20">
-        <v>3.1585849043373302</v>
+        <v>3.1595234760365298</v>
       </c>
       <c r="H33" s="20">
-        <v>4.1938109136759598</v>
+        <v>4.1947940986380301</v>
       </c>
       <c r="I33" s="20">
-        <v>10.629691287382499</v>
+        <v>10.6300452826737</v>
       </c>
       <c r="J33" s="20">
-        <v>9.3841727282166296</v>
+        <v>9.3817080976000398</v>
       </c>
       <c r="K33" s="21">
-        <v>12.453684425485401</v>
+        <v>12.456128204876199</v>
       </c>
       <c r="L33" s="21">
-        <v>2.48032173976791</v>
+        <v>2.4823877618307901</v>
       </c>
       <c r="M33" s="20">
-        <v>26.765428292003602</v>
+        <v>26.282370099676001</v>
       </c>
       <c r="N33" s="20">
-        <v>17.340238401911801</v>
+        <v>17.705323014777299</v>
       </c>
       <c r="O33" s="21">
-        <v>55.894333306084697</v>
+        <v>56.012347853874203</v>
       </c>
       <c r="P33" s="21">
-        <v>10.9042847201427</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+        <v>10.987910246588401</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>79</v>
       </c>
@@ -3045,40 +3045,40 @@
         <v>64</v>
       </c>
       <c r="F34" s="28">
-        <v>6.0475710339016802</v>
+        <v>4.0346843948681297</v>
       </c>
       <c r="G34" s="29">
-        <v>34.297060608459603</v>
+        <v>45.966922820066102</v>
       </c>
       <c r="H34" s="29">
-        <v>5.2057932852627102</v>
+        <v>6.0315026965333001</v>
       </c>
       <c r="I34" s="29">
-        <v>9.0433969606950502</v>
+        <v>8.2075999951490299</v>
       </c>
       <c r="J34" s="29">
-        <v>10.465517378064501</v>
+        <v>8.8134885259167692</v>
       </c>
       <c r="K34" s="30">
-        <v>34.940660733683899</v>
+        <v>26.945801567513701</v>
       </c>
       <c r="L34" s="30">
-        <v>2.5709534444752502</v>
+        <v>1.9675927695167901</v>
       </c>
       <c r="M34" s="29">
-        <v>62.6462220092371</v>
+        <v>62.121687120697899</v>
       </c>
       <c r="N34" s="29">
-        <v>12.7720378609727</v>
+        <v>13.1322047161085</v>
       </c>
       <c r="O34" s="30">
-        <v>24.581740129790202</v>
+        <v>24.746135833066599</v>
       </c>
       <c r="P34" s="30">
-        <v>5.4747758515060196</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+        <v>5.5110085973062297</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>81</v>
       </c>
@@ -3086,49 +3086,49 @@
         <v>82</v>
       </c>
       <c r="C35" s="19">
-        <v>3.2158805868704499</v>
+        <v>3.3022684571047498</v>
       </c>
       <c r="D35" s="20">
-        <v>5.1277387260171201</v>
+        <v>6.6340486764746602</v>
       </c>
       <c r="E35" s="21">
-        <v>12.3979778743956</v>
+        <v>12.7502116848016</v>
       </c>
       <c r="F35" s="19">
-        <v>20.440895817926702</v>
+        <v>19.734100968941899</v>
       </c>
       <c r="G35" s="20">
-        <v>17.8225394603861</v>
+        <v>18.875219442756102</v>
       </c>
       <c r="H35" s="20">
-        <v>3.2991607043584898</v>
+        <v>3.4015060148923499</v>
       </c>
       <c r="I35" s="20">
-        <v>17.786972207817001</v>
+        <v>16.857637982307999</v>
       </c>
       <c r="J35" s="20">
-        <v>8.7072358885469505</v>
+        <v>8.8433736299450096</v>
       </c>
       <c r="K35" s="21">
-        <v>31.943195921003401</v>
+        <v>32.288161961156703</v>
       </c>
       <c r="L35" s="21">
-        <v>8.7474863199608208</v>
+        <v>9.3488229876292603</v>
       </c>
       <c r="M35" s="20">
-        <v>41.197343515526299</v>
+        <v>40.605497842595099</v>
       </c>
       <c r="N35" s="20">
-        <v>14.3198409038914</v>
+        <v>14.6408598288719</v>
       </c>
       <c r="O35" s="21">
-        <v>44.482805736500701</v>
+        <v>44.753651799766402</v>
       </c>
       <c r="P35" s="21">
-        <v>8.1038349785418706</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+        <v>8.1430254737345198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>83</v>
       </c>
@@ -3139,46 +3139,46 @@
         <v>0</v>
       </c>
       <c r="D36" s="20">
-        <v>1.2360659078021501</v>
+        <v>4.0278041375763198</v>
       </c>
       <c r="E36" s="21">
-        <v>3.8617766850644299</v>
+        <v>6.6937090697947896</v>
       </c>
       <c r="F36" s="19">
-        <v>28.519268459485499</v>
+        <v>28.325982631631</v>
       </c>
       <c r="G36" s="20">
-        <v>16.856762199995401</v>
+        <v>17.089330414300498</v>
       </c>
       <c r="H36" s="20">
-        <v>15.2196078077734</v>
+        <v>15.000151527485</v>
       </c>
       <c r="I36" s="20">
-        <v>10.3056460953725</v>
+        <v>10.5783057001471</v>
       </c>
       <c r="J36" s="20">
-        <v>9.5404431018999496</v>
+        <v>9.3247400859793199</v>
       </c>
       <c r="K36" s="21">
-        <v>19.558272335473202</v>
+        <v>19.681489640456402</v>
       </c>
       <c r="L36" s="21">
-        <v>8.9420741974386893</v>
+        <v>8.4744648851675102</v>
       </c>
       <c r="M36" s="20">
-        <v>64.826525935344904</v>
+        <v>64.265737955965605</v>
       </c>
       <c r="N36" s="20">
-        <v>7.0047923012818796</v>
+        <v>7.24828913475476</v>
       </c>
       <c r="O36" s="21">
-        <v>28.168678068603398</v>
+        <v>28.485972909279599</v>
       </c>
       <c r="P36" s="21">
-        <v>2.9523982474228498</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>2.9973254634326301</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>85</v>
       </c>
@@ -3189,46 +3189,46 @@
         <v>0</v>
       </c>
       <c r="D37" s="20">
-        <v>1.2996504337000001E-4</v>
+        <v>0</v>
       </c>
       <c r="E37" s="21">
-        <v>7.2740367144158702</v>
+        <v>7.4755203233656697</v>
       </c>
       <c r="F37" s="19">
-        <v>26.564587130867601</v>
+        <v>25.2262712376561</v>
       </c>
       <c r="G37" s="20">
-        <v>22.884870339728799</v>
+        <v>23.654389082693399</v>
       </c>
       <c r="H37" s="20">
-        <v>5.66271173621901</v>
+        <v>5.7829774268446101</v>
       </c>
       <c r="I37" s="20">
-        <v>11.301262673356399</v>
+        <v>11.3004356282513</v>
       </c>
       <c r="J37" s="20">
-        <v>5.4607805033921704</v>
+        <v>5.4060837625731901</v>
       </c>
       <c r="K37" s="21">
-        <v>28.125787616436</v>
+        <v>28.629842861980698</v>
       </c>
       <c r="L37" s="21">
-        <v>17.156375881331499</v>
+        <v>17.957751428992601</v>
       </c>
       <c r="M37" s="20">
-        <v>63.477086856366398</v>
+        <v>62.916595254652997</v>
       </c>
       <c r="N37" s="20">
-        <v>9.2021123549249104</v>
+        <v>9.4569187398583701</v>
       </c>
       <c r="O37" s="21">
-        <v>27.320807049096199</v>
+        <v>27.626486005488601</v>
       </c>
       <c r="P37" s="21">
-        <v>5.5783308454553202</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>5.6455900277422604</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="22" t="s">
         <v>37</v>
       </c>
@@ -3236,49 +3236,49 @@
         <v>87</v>
       </c>
       <c r="C38" s="24">
-        <v>0.54023133868089002</v>
+        <v>0.52328773099134995</v>
       </c>
       <c r="D38" s="25">
-        <v>1.04399784117517</v>
+        <v>1.71818251345766</v>
       </c>
       <c r="E38" s="26">
-        <v>5.4370454590835804</v>
+        <v>6.0555367833267901</v>
       </c>
       <c r="F38" s="24">
-        <v>27.822825227258502</v>
+        <v>27.8531973909916</v>
       </c>
       <c r="G38" s="25">
-        <v>13.015712050018699</v>
+        <v>13.3506639513108</v>
       </c>
       <c r="H38" s="25">
-        <v>10.566542374935301</v>
+        <v>10.2250912169347</v>
       </c>
       <c r="I38" s="25">
-        <v>12.8208014134393</v>
+        <v>12.612892252556</v>
       </c>
       <c r="J38" s="25">
-        <v>9.0895549616121798</v>
+        <v>9.2284003060835005</v>
       </c>
       <c r="K38" s="26">
-        <v>26.684563972705199</v>
+        <v>26.729754882109201</v>
       </c>
       <c r="L38" s="26">
-        <v>8.5488887737988399</v>
+        <v>8.4072987004262103</v>
       </c>
       <c r="M38" s="25">
-        <v>45.490337052153997</v>
+        <v>45.013673759802501</v>
       </c>
       <c r="N38" s="25">
-        <v>13.1510277833247</v>
+        <v>13.5195966847597</v>
       </c>
       <c r="O38" s="26">
-        <v>41.358634201760701</v>
+        <v>41.466733291956103</v>
       </c>
       <c r="P38" s="26">
-        <v>6.5303619994348399</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+        <v>6.5705600925120997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>88</v>
       </c>
@@ -3286,49 +3286,49 @@
         <v>89</v>
       </c>
       <c r="C39" s="28">
-        <v>10.1943460569889</v>
+        <v>14.4615654623053</v>
       </c>
       <c r="D39" s="29">
-        <v>4.9712397446699998E-3</v>
+        <v>3.7867683651999998E-3</v>
       </c>
       <c r="E39" s="30">
-        <v>11.925719141949999</v>
+        <v>22.5902703479201</v>
       </c>
       <c r="F39" s="28">
-        <v>14.3228302618926</v>
+        <v>12.6470145462073</v>
       </c>
       <c r="G39" s="29">
-        <v>21.401859172988601</v>
+        <v>29.476769349466501</v>
       </c>
       <c r="H39" s="29">
-        <v>12.850563206820301</v>
+        <v>11.551344536233801</v>
       </c>
       <c r="I39" s="29">
-        <v>14.1192547561874</v>
+        <v>13.5370994147645</v>
       </c>
       <c r="J39" s="29">
-        <v>11.5020160723424</v>
+        <v>10.0002822679287</v>
       </c>
       <c r="K39" s="30">
-        <v>25.803476529768702</v>
+        <v>22.7874898853992</v>
       </c>
       <c r="L39" s="30">
-        <v>4.9516086401493702</v>
+        <v>4.4659490788656599</v>
       </c>
       <c r="M39" s="29">
-        <v>10.524502480318599</v>
+        <v>10.323789023396699</v>
       </c>
       <c r="N39" s="29">
-        <v>30.492725109888799</v>
+        <v>31.035558921946599</v>
       </c>
       <c r="O39" s="30">
-        <v>58.982772409792602</v>
+        <v>58.640652054656798</v>
       </c>
       <c r="P39" s="30">
-        <v>10.660805161261599</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+        <v>10.480692170405399</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>90</v>
       </c>
@@ -3336,49 +3336,49 @@
         <v>91</v>
       </c>
       <c r="C40" s="19">
-        <v>2.11697906801699</v>
+        <v>2.9858145825019702</v>
       </c>
       <c r="D40" s="20">
         <v>0</v>
       </c>
       <c r="E40" s="21">
-        <v>2.69101761584955</v>
+        <v>5.1391200748227002</v>
       </c>
       <c r="F40" s="19">
-        <v>12.1333550006092</v>
+        <v>12.025986779079901</v>
       </c>
       <c r="G40" s="20">
-        <v>26.862046447929799</v>
+        <v>25.200171463833399</v>
       </c>
       <c r="H40" s="20">
-        <v>6.7125941972486602</v>
+        <v>7.59376851457721</v>
       </c>
       <c r="I40" s="20">
-        <v>16.849344721062099</v>
+        <v>16.209497898908399</v>
       </c>
       <c r="J40" s="20">
-        <v>9.1386525134043008</v>
+        <v>9.5176804048409895</v>
       </c>
       <c r="K40" s="21">
-        <v>28.304007119746</v>
+        <v>29.4528949387601</v>
       </c>
       <c r="L40" s="21">
-        <v>17.178583528056102</v>
+        <v>16.282846456813601</v>
       </c>
       <c r="M40" s="20">
-        <v>20.3791283410071</v>
+        <v>19.8291313036564</v>
       </c>
       <c r="N40" s="20">
-        <v>28.496450116466601</v>
+        <v>29.0841170463755</v>
       </c>
       <c r="O40" s="21">
-        <v>51.124421542526299</v>
+        <v>51.0867516499681</v>
       </c>
       <c r="P40" s="21">
-        <v>13.048763387135301</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+        <v>13.0326265429934</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>92</v>
       </c>
@@ -3386,49 +3386,49 @@
         <v>93</v>
       </c>
       <c r="C41" s="28">
-        <v>21.1421479342577</v>
+        <v>56.3779371892049</v>
       </c>
       <c r="D41" s="29">
         <v>0</v>
       </c>
       <c r="E41" s="30">
-        <v>22.7403164689885</v>
+        <v>61.034708941110303</v>
       </c>
       <c r="F41" s="28">
-        <v>3.5998290779937299</v>
+        <v>3.59185746447127</v>
       </c>
       <c r="G41" s="29">
-        <v>39.113462709477197</v>
+        <v>41.324729499872802</v>
       </c>
       <c r="H41" s="29">
-        <v>3.3027763873759399</v>
+        <v>3.0605454816145201</v>
       </c>
       <c r="I41" s="29">
-        <v>7.8259071120558996</v>
+        <v>6.7461193703824502</v>
       </c>
       <c r="J41" s="29">
-        <v>3.9735550210342701</v>
+        <v>3.7920484796085998</v>
       </c>
       <c r="K41" s="30">
-        <v>42.184469692062997</v>
+        <v>41.484699704050399</v>
       </c>
       <c r="L41" s="30">
-        <v>2.6391253584335299</v>
+        <v>2.6437610847947499</v>
       </c>
       <c r="M41" s="29">
-        <v>16.772073344212199</v>
+        <v>16.295152928543899</v>
       </c>
       <c r="N41" s="29">
-        <v>18.668463395620101</v>
+        <v>19.268549122247801</v>
       </c>
       <c r="O41" s="30">
-        <v>64.559463260167803</v>
+        <v>64.436297949208395</v>
       </c>
       <c r="P41" s="30">
-        <v>8.2799130082439891</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+        <v>8.3675877612424507</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>94</v>
       </c>
@@ -3439,46 +3439,46 @@
         <v>0</v>
       </c>
       <c r="D42" s="29">
-        <v>0.61032726994686004</v>
+        <v>9.5850357707749207</v>
       </c>
       <c r="E42" s="30">
-        <v>2.4764946396107201</v>
+        <v>11.4487520863931</v>
       </c>
       <c r="F42" s="28">
-        <v>21.160170556462901</v>
+        <v>20.223930203374099</v>
       </c>
       <c r="G42" s="29">
-        <v>30.617779210395501</v>
+        <v>31.582048146543499</v>
       </c>
       <c r="H42" s="29">
-        <v>4.3446773291116401</v>
+        <v>4.2284118968513704</v>
       </c>
       <c r="I42" s="29">
-        <v>12.042647946961599</v>
+        <v>12.1760538994849</v>
       </c>
       <c r="J42" s="29">
-        <v>6.4874716684837299</v>
+        <v>6.2740833763530404</v>
       </c>
       <c r="K42" s="30">
-        <v>25.3472532889297</v>
+        <v>25.515472477091102</v>
       </c>
       <c r="L42" s="30">
-        <v>6.4773206976454203</v>
+        <v>5.7529527801308404</v>
       </c>
       <c r="M42" s="29">
-        <v>30.142408278417001</v>
+        <v>29.490369656473099</v>
       </c>
       <c r="N42" s="29">
-        <v>18.406772628008099</v>
+        <v>18.859396776799901</v>
       </c>
       <c r="O42" s="30">
-        <v>51.450819093574999</v>
+        <v>51.650337420318401</v>
       </c>
       <c r="P42" s="30">
-        <v>11.5427064417394</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+        <v>11.6924604369744</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>96</v>
       </c>
@@ -3486,49 +3486,49 @@
         <v>97</v>
       </c>
       <c r="C43" s="19">
-        <v>5.7258453896000001E-4</v>
+        <v>1.01118511153E-3</v>
       </c>
       <c r="D43" s="20">
-        <v>0.17581530347443</v>
+        <v>0.26590797988768999</v>
       </c>
       <c r="E43" s="21">
-        <v>0.32471054578962</v>
+        <v>0.39170293322819999</v>
       </c>
       <c r="F43" s="19">
-        <v>11.861323203105499</v>
+        <v>13.4221374649052</v>
       </c>
       <c r="G43" s="20">
-        <v>22.769559514606101</v>
+        <v>22.8294180837031</v>
       </c>
       <c r="H43" s="20">
-        <v>6.1990701732543103</v>
+        <v>6.25554157407191</v>
       </c>
       <c r="I43" s="20">
-        <v>13.0352367081778</v>
+        <v>13.8822238027378</v>
       </c>
       <c r="J43" s="20">
-        <v>6.41642224210434</v>
+        <v>6.1818131292210401</v>
       </c>
       <c r="K43" s="21">
-        <v>39.7183881587519</v>
+        <v>37.428865945361103</v>
       </c>
       <c r="L43" s="21">
-        <v>16.881943660259001</v>
+        <v>17.1098623301489</v>
       </c>
       <c r="M43" s="20">
-        <v>34.9888789232634</v>
+        <v>34.563290839210502</v>
       </c>
       <c r="N43" s="20">
-        <v>22.323539952786401</v>
+        <v>22.789389817224201</v>
       </c>
       <c r="O43" s="21">
-        <v>42.6875714454535</v>
+        <v>42.6473193435653</v>
       </c>
       <c r="P43" s="21">
-        <v>10.9948304245095</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>10.974598790715</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>98</v>
       </c>
@@ -3536,49 +3536,49 @@
         <v>99</v>
       </c>
       <c r="C44" s="19">
-        <v>0.98705318195855996</v>
+        <v>1.5489621013289001</v>
       </c>
       <c r="D44" s="20">
         <v>0</v>
       </c>
       <c r="E44" s="21">
-        <v>1.3849092383033901</v>
+        <v>2.24923087429424</v>
       </c>
       <c r="F44" s="19">
-        <v>11.2703986292157</v>
+        <v>10.855682955033201</v>
       </c>
       <c r="G44" s="20">
-        <v>19.137887064585001</v>
+        <v>20.448970312939799</v>
       </c>
       <c r="H44" s="20">
-        <v>4.24639992158649</v>
+        <v>4.3034870580240803</v>
       </c>
       <c r="I44" s="20">
-        <v>15.480859027218701</v>
+        <v>15.6851545002491</v>
       </c>
       <c r="J44" s="20">
-        <v>7.5105436215967503</v>
+        <v>7.55943690361</v>
       </c>
       <c r="K44" s="21">
-        <v>42.353911735797297</v>
+        <v>41.147268270143798</v>
       </c>
       <c r="L44" s="21">
-        <v>14.8680719988456</v>
+        <v>15.437057900969799</v>
       </c>
       <c r="M44" s="20">
-        <v>14.283025808665499</v>
+        <v>13.924252077872101</v>
       </c>
       <c r="N44" s="20">
-        <v>33.651595806463099</v>
+        <v>34.186924474015797</v>
       </c>
       <c r="O44" s="21">
-        <v>52.065407790089097</v>
+        <v>51.888823448112099</v>
       </c>
       <c r="P44" s="21">
-        <v>18.340769422807899</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>18.298464614094701</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="22" t="s">
         <v>37</v>
       </c>
@@ -3586,49 +3586,49 @@
         <v>100</v>
       </c>
       <c r="C45" s="24">
-        <v>4.2847089965714202</v>
+        <v>7.7761845521380799</v>
       </c>
       <c r="D45" s="25">
-        <v>2.9052954520720001E-2</v>
+        <v>0.13235854750083001</v>
       </c>
       <c r="E45" s="26">
-        <v>5.1204293867233499</v>
+        <v>11.058046646110199</v>
       </c>
       <c r="F45" s="24">
-        <v>11.967474905885901</v>
+        <v>11.9572147768138</v>
       </c>
       <c r="G45" s="25">
-        <v>25.6236961393558</v>
+        <v>26.345083663904301</v>
       </c>
       <c r="H45" s="25">
-        <v>7.4514642150791301</v>
+        <v>7.7036441446027197</v>
       </c>
       <c r="I45" s="25">
-        <v>14.930460318824201</v>
+        <v>14.711139812480001</v>
       </c>
       <c r="J45" s="25">
-        <v>8.6958887618920997</v>
+        <v>8.6168786355445608</v>
       </c>
       <c r="K45" s="26">
-        <v>31.331015658966699</v>
+        <v>30.6660389666512</v>
       </c>
       <c r="L45" s="26">
-        <v>13.3918991392281</v>
+        <v>13.149099044031599</v>
       </c>
       <c r="M45" s="25">
-        <v>21.181669529314</v>
+        <v>20.7376643048588</v>
       </c>
       <c r="N45" s="25">
-        <v>25.3399245015388</v>
+        <v>25.870656026435</v>
       </c>
       <c r="O45" s="26">
-        <v>53.478409256934</v>
+        <v>53.391696977638198</v>
       </c>
       <c r="P45" s="26">
-        <v>12.144631307616301</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+        <v>12.1410717194042</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>101</v>
       </c>
@@ -3636,49 +3636,49 @@
         <v>102</v>
       </c>
       <c r="C46" s="19">
-        <v>6.7445872833459999E-2</v>
+        <v>0</v>
       </c>
       <c r="D46" s="20">
         <v>0</v>
       </c>
       <c r="E46" s="21">
-        <v>2.3216233414265801</v>
+        <v>2.3044202832041698</v>
       </c>
       <c r="F46" s="19">
-        <v>29.693372568402602</v>
+        <v>31.3914336908833</v>
       </c>
       <c r="G46" s="20">
-        <v>11.9523209153612</v>
+        <v>11.795019287998199</v>
       </c>
       <c r="H46" s="20">
-        <v>5.8911339928672097</v>
+        <v>6.3246554977498803</v>
       </c>
       <c r="I46" s="20">
-        <v>15.9437108494096</v>
+        <v>16.5186772139079</v>
       </c>
       <c r="J46" s="20">
-        <v>12.744845011125101</v>
+        <v>9.8203773577562998</v>
       </c>
       <c r="K46" s="21">
-        <v>23.774616662834301</v>
+        <v>24.149836951693199</v>
       </c>
       <c r="L46" s="21">
-        <v>10.611418930415001</v>
+        <v>10.4309305726324</v>
       </c>
       <c r="M46" s="20">
-        <v>28.873960329799399</v>
+        <v>28.149548404079301</v>
       </c>
       <c r="N46" s="20">
-        <v>22.057564266511999</v>
+        <v>22.508645286695501</v>
       </c>
       <c r="O46" s="21">
-        <v>49.068475403688602</v>
+        <v>49.341806309225198</v>
       </c>
       <c r="P46" s="21">
-        <v>16.751158129387498</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+        <v>16.9362869032913</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>103</v>
       </c>
@@ -3689,46 +3689,46 @@
         <v>0</v>
       </c>
       <c r="D47" s="20">
-        <v>4.3873504128901697</v>
+        <v>15.4526004842572</v>
       </c>
       <c r="E47" s="21">
-        <v>8.9631700646808206</v>
+        <v>20.135401437991099</v>
       </c>
       <c r="F47" s="19">
-        <v>20.0380981127214</v>
+        <v>19.069482979262599</v>
       </c>
       <c r="G47" s="20">
-        <v>31.887802712128099</v>
+        <v>31.410471073969401</v>
       </c>
       <c r="H47" s="20">
-        <v>3.6087383395530899</v>
+        <v>3.5478661661175299</v>
       </c>
       <c r="I47" s="20">
-        <v>8.7234582519325308</v>
+        <v>9.8532452558545707</v>
       </c>
       <c r="J47" s="20">
-        <v>4.1622790850465901</v>
+        <v>4.6370363683394604</v>
       </c>
       <c r="K47" s="21">
-        <v>31.579623498628798</v>
+        <v>31.4818981564664</v>
       </c>
       <c r="L47" s="21">
-        <v>10.131817111987401</v>
+        <v>10.399405594627</v>
       </c>
       <c r="M47" s="20">
-        <v>73.814410442931901</v>
+        <v>73.267250264532194</v>
       </c>
       <c r="N47" s="20">
-        <v>6.7963355728686796</v>
+        <v>7.0714947243186801</v>
       </c>
       <c r="O47" s="21">
-        <v>19.389253984199499</v>
+        <v>19.661241942989601</v>
       </c>
       <c r="P47" s="21">
-        <v>3.75156853160416</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+        <v>3.8722524684773099</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>105</v>
       </c>
@@ -3742,93 +3742,93 @@
         <v>0</v>
       </c>
       <c r="E48" s="30">
-        <v>11.4732102311572</v>
+        <v>17.6577234520724</v>
       </c>
       <c r="F48" s="28">
-        <v>5.6029174194046503</v>
+        <v>5.0766038783026097</v>
       </c>
       <c r="G48" s="29">
-        <v>12.3019052527381</v>
+        <v>13.7283031647668</v>
       </c>
       <c r="H48" s="29">
-        <v>14.2923808931208</v>
+        <v>15.208075151649499</v>
       </c>
       <c r="I48" s="29">
-        <v>13.9551183566599</v>
+        <v>12.609713759080501</v>
       </c>
       <c r="J48" s="29">
-        <v>12.454781149025701</v>
+        <v>12.715224672056101</v>
       </c>
       <c r="K48" s="30">
-        <v>41.392896929050899</v>
+        <v>40.662079374144398</v>
       </c>
       <c r="L48" s="30">
-        <v>8.46316060823683</v>
+        <v>9.9092784150348407</v>
       </c>
       <c r="M48" s="29">
-        <v>11.2902650629416</v>
+        <v>10.97821007127</v>
       </c>
       <c r="N48" s="29">
-        <v>21.755742690773499</v>
+        <v>22.159422829769799</v>
       </c>
       <c r="O48" s="30">
-        <v>66.954501688801997</v>
+        <v>66.861880281964403</v>
       </c>
       <c r="P48" s="30">
-        <v>9.9504312430906907</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+        <v>9.9325271643883593</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>107</v>
       </c>
       <c r="B49" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="19" t="s">
-        <v>64</v>
+      <c r="C49" s="19">
+        <v>0.70017290136454002</v>
       </c>
       <c r="D49" s="20">
-        <v>0.75162218866955</v>
+        <v>2.5010769995236299</v>
       </c>
       <c r="E49" s="21">
-        <v>2.0245493662527299</v>
+        <v>4.7350220621211303</v>
       </c>
       <c r="F49" s="19">
-        <v>21.461098560062101</v>
+        <v>21.863856751725301</v>
       </c>
       <c r="G49" s="20">
-        <v>18.482500259042499</v>
+        <v>18.600355506297699</v>
       </c>
       <c r="H49" s="20">
-        <v>3.9499384657952099</v>
+        <v>3.93949061113126</v>
       </c>
       <c r="I49" s="20">
-        <v>14.1837107468924</v>
+        <v>14.0914730100515</v>
       </c>
       <c r="J49" s="20">
-        <v>10.659634342655901</v>
+        <v>10.420774075699599</v>
       </c>
       <c r="K49" s="21">
-        <v>31.263117625545799</v>
+        <v>31.084050045100199</v>
       </c>
       <c r="L49" s="21">
-        <v>12.118831416605699</v>
+        <v>12.513928975614</v>
       </c>
       <c r="M49" s="20">
-        <v>45.566527502704197</v>
+        <v>45.037401324830199</v>
       </c>
       <c r="N49" s="20">
-        <v>10.575520986690099</v>
+        <v>10.7655223794878</v>
       </c>
       <c r="O49" s="21">
-        <v>43.857961842005999</v>
+        <v>44.197066359356</v>
       </c>
       <c r="P49" s="21">
-        <v>7.1610654979786599</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+        <v>7.1865769774133401</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>109</v>
       </c>
@@ -3842,43 +3842,43 @@
         <v>0</v>
       </c>
       <c r="E50" s="21">
-        <v>2.81836847620866</v>
+        <v>2.8567304109364202</v>
       </c>
       <c r="F50" s="19">
-        <v>23.078416955708601</v>
+        <v>24.141036769035999</v>
       </c>
       <c r="G50" s="20">
-        <v>5.8840689232636798</v>
+        <v>4.8268789938242298</v>
       </c>
       <c r="H50" s="20">
-        <v>12.424925780218601</v>
+        <v>13.5739494457042</v>
       </c>
       <c r="I50" s="20">
-        <v>36.446651296185102</v>
+        <v>35.705481528036401</v>
       </c>
       <c r="J50" s="20">
-        <v>7.1167682416378302</v>
+        <v>6.4967412638610798</v>
       </c>
       <c r="K50" s="21">
-        <v>15.0491688029862</v>
+        <v>15.255911998512101</v>
       </c>
       <c r="L50" s="21">
-        <v>2.8390484905791298</v>
+        <v>2.0144182853679</v>
       </c>
       <c r="M50" s="20">
-        <v>49.030050508109198</v>
+        <v>48.521881669385202</v>
       </c>
       <c r="N50" s="20">
-        <v>7.0765857971681596</v>
+        <v>7.3845055221494604</v>
       </c>
       <c r="O50" s="21">
-        <v>43.893363694722701</v>
+        <v>44.093728734768703</v>
       </c>
       <c r="P50" s="21">
-        <v>1.3138164508666299</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1.3213280053604299</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>111</v>
       </c>
@@ -3886,49 +3886,49 @@
         <v>112</v>
       </c>
       <c r="C51" s="15">
-        <v>3.0845250258148398</v>
+        <v>4.0550191779643097</v>
       </c>
       <c r="D51" s="16">
-        <v>2.2900866408952201</v>
+        <v>5.1650497121749996</v>
       </c>
       <c r="E51" s="17">
-        <v>9.4705212149566602</v>
+        <v>13.3474845007777</v>
       </c>
       <c r="F51" s="15">
-        <v>20.0745743046912</v>
+        <v>20.988215344496499</v>
       </c>
       <c r="G51" s="16">
-        <v>24.9904946826626</v>
+        <v>23.302033928676099</v>
       </c>
       <c r="H51" s="16">
-        <v>6.8207939941817397</v>
+        <v>6.7973300053159198</v>
       </c>
       <c r="I51" s="16">
-        <v>19.265369287080802</v>
+        <v>19.0908774638343</v>
       </c>
       <c r="J51" s="16">
-        <v>10.968069435917901</v>
+        <v>12.019656613158901</v>
       </c>
       <c r="K51" s="17">
-        <v>17.880698295465798</v>
+        <v>17.801886644518198</v>
       </c>
       <c r="L51" s="17">
-        <v>11.6622715693073</v>
+        <v>11.3947753036138</v>
       </c>
       <c r="M51" s="16">
-        <v>39.996240980395903</v>
+        <v>39.4932306706677</v>
       </c>
       <c r="N51" s="16">
-        <v>18.706055865326601</v>
+        <v>19.1286181405778</v>
       </c>
       <c r="O51" s="17">
-        <v>41.297710720742103</v>
+        <v>41.378151188754501</v>
       </c>
       <c r="P51" s="17">
-        <v>12.1199478337666</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+        <v>12.2347707755287</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>113</v>
       </c>
@@ -3942,43 +3942,43 @@
         <v>0</v>
       </c>
       <c r="E52" s="21">
-        <v>4.1256576233323603</v>
+        <v>4.5195587902864398</v>
       </c>
       <c r="F52" s="19">
-        <v>27.621068553276402</v>
+        <v>28.1297905917028</v>
       </c>
       <c r="G52" s="20">
-        <v>29.405996631589101</v>
+        <v>28.724887428755899</v>
       </c>
       <c r="H52" s="20">
-        <v>1.41017165702614</v>
+        <v>2.2921443077091999</v>
       </c>
       <c r="I52" s="20">
-        <v>18.654573293818402</v>
+        <v>19.0647725689984</v>
       </c>
       <c r="J52" s="20">
-        <v>5.55842958037353</v>
+        <v>4.7496822215835097</v>
       </c>
       <c r="K52" s="21">
-        <v>17.349760283917298</v>
+        <v>17.038722881251001</v>
       </c>
       <c r="L52" s="21">
-        <v>10.2336246468124</v>
+        <v>10.337800330622899</v>
       </c>
       <c r="M52" s="20">
-        <v>59.762574983623203</v>
+        <v>59.187724630106402</v>
       </c>
       <c r="N52" s="20">
-        <v>6.8045605019026896</v>
+        <v>7.0394445627415703</v>
       </c>
       <c r="O52" s="21">
-        <v>33.432864514474197</v>
+        <v>33.772830807151998</v>
       </c>
       <c r="P52" s="21">
-        <v>2.5857483917239299</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+        <v>2.60252811707544</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>115</v>
       </c>
@@ -3992,43 +3992,43 @@
         <v>0</v>
       </c>
       <c r="E53" s="21">
-        <v>10.5264162997476</v>
+        <v>10.4285037712862</v>
       </c>
       <c r="F53" s="19">
-        <v>32.587927807982197</v>
+        <v>32.431697550182797</v>
       </c>
       <c r="G53" s="20">
-        <v>12.3480659329659</v>
+        <v>11.9683234286776</v>
       </c>
       <c r="H53" s="20">
-        <v>1.85335146880788</v>
+        <v>1.8926048879295501</v>
       </c>
       <c r="I53" s="20">
-        <v>26.359209886292401</v>
+        <v>26.8098571477388</v>
       </c>
       <c r="J53" s="20">
-        <v>6.7037628380524099</v>
+        <v>6.7461895554883604</v>
       </c>
       <c r="K53" s="21">
-        <v>20.1476820660274</v>
+        <v>20.151327429982899</v>
       </c>
       <c r="L53" s="21">
-        <v>11.265552425947201</v>
+        <v>10.809179634823201</v>
       </c>
       <c r="M53" s="20">
-        <v>50.926986444475197</v>
+        <v>50.338434777301401</v>
       </c>
       <c r="N53" s="20">
-        <v>10.264817308781501</v>
+        <v>10.4777453957307</v>
       </c>
       <c r="O53" s="21">
-        <v>38.8081962467433</v>
+        <v>39.183819826967998</v>
       </c>
       <c r="P53" s="21">
-        <v>7.1441832072598199</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+        <v>7.2386590780780304</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>117</v>
       </c>
@@ -4039,46 +4039,46 @@
         <v>0</v>
       </c>
       <c r="D54" s="20">
-        <v>0</v>
+        <v>5.4351585004601599</v>
       </c>
       <c r="E54" s="21">
-        <v>15.6644877788783</v>
+        <v>21.915600087105599</v>
       </c>
       <c r="F54" s="19">
-        <v>75.6081416696817</v>
+        <v>73.907429321554901</v>
       </c>
       <c r="G54" s="20">
-        <v>6.2553115957766803</v>
+        <v>6.74451445393903</v>
       </c>
       <c r="H54" s="20">
-        <v>1.6878870153647501</v>
+        <v>1.7093939391527599</v>
       </c>
       <c r="I54" s="20">
-        <v>4.5984324502662499</v>
+        <v>4.9308551945422501</v>
       </c>
       <c r="J54" s="20">
-        <v>5.0498591287247896</v>
+        <v>5.4152848468343402</v>
       </c>
       <c r="K54" s="21">
-        <v>6.8003681401858698</v>
+        <v>7.2925222439767703</v>
       </c>
       <c r="L54" s="21">
-        <v>3.9360564237058902</v>
+        <v>4.3963067064146104</v>
       </c>
       <c r="M54" s="20">
-        <v>41.228569405841498</v>
+        <v>40.645435636617599</v>
       </c>
       <c r="N54" s="20">
-        <v>7.8948529797111</v>
+        <v>8.0691896196019499</v>
       </c>
       <c r="O54" s="21">
-        <v>50.876577614447498</v>
+        <v>51.285374743780402</v>
       </c>
       <c r="P54" s="21">
-        <v>3.5409267229292101</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+        <v>3.53261992498593</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>119</v>
       </c>
@@ -4089,46 +4089,46 @@
         <v>0</v>
       </c>
       <c r="D55" s="20">
-        <v>7.1572764429682199</v>
+        <v>16.183315464413401</v>
       </c>
       <c r="E55" s="21">
-        <v>9.3675858827921594</v>
+        <v>18.417882197049199</v>
       </c>
       <c r="F55" s="19">
-        <v>38.424789702952303</v>
+        <v>38.2352740403566</v>
       </c>
       <c r="G55" s="20">
-        <v>18.782520600842499</v>
+        <v>18.120752100303701</v>
       </c>
       <c r="H55" s="20">
-        <v>4.5588583742269897</v>
+        <v>4.6173775804598698</v>
       </c>
       <c r="I55" s="20">
-        <v>10.898265792511401</v>
+        <v>11.081074436650701</v>
       </c>
       <c r="J55" s="20">
-        <v>5.4434326596742899</v>
+        <v>5.6925674710112499</v>
       </c>
       <c r="K55" s="21">
-        <v>21.892132869803199</v>
+        <v>22.2529543712281</v>
       </c>
       <c r="L55" s="21">
-        <v>17.800302900938998</v>
+        <v>17.110543135805401</v>
       </c>
       <c r="M55" s="20">
-        <v>68.0618071076901</v>
+        <v>67.732513860913201</v>
       </c>
       <c r="N55" s="20">
-        <v>9.3060948007842903</v>
+        <v>9.9812700267790007</v>
       </c>
       <c r="O55" s="21">
-        <v>22.632083949964301</v>
+        <v>22.286216112307901</v>
       </c>
       <c r="P55" s="21">
-        <v>6.5242517169623104</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+        <v>6.9957616022889102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>121</v>
       </c>
@@ -4136,49 +4136,49 @@
         <v>122</v>
       </c>
       <c r="C56" s="19">
-        <v>0.73243091174099995</v>
+        <v>0.62267820553379005</v>
       </c>
       <c r="D56" s="20">
-        <v>0.15176045296417001</v>
+        <v>0.83010016842533996</v>
       </c>
       <c r="E56" s="21">
-        <v>5.5665643755423204</v>
+        <v>6.4090704716771603</v>
       </c>
       <c r="F56" s="19">
-        <v>40.520200345723097</v>
+        <v>38.657838707759801</v>
       </c>
       <c r="G56" s="20">
-        <v>16.803232528763999</v>
+        <v>17.192483499383499</v>
       </c>
       <c r="H56" s="20">
-        <v>4.5665925554812796</v>
+        <v>4.8849739769056599</v>
       </c>
       <c r="I56" s="20">
-        <v>14.078869655267001</v>
+        <v>14.5588981791423</v>
       </c>
       <c r="J56" s="20">
-        <v>4.9311121360617998</v>
+        <v>5.1140640061680802</v>
       </c>
       <c r="K56" s="21">
-        <v>19.099992778702902</v>
+        <v>19.591741630653502</v>
       </c>
       <c r="L56" s="21">
-        <v>7.8029781242230003</v>
+        <v>8.0952974107290103</v>
       </c>
       <c r="M56" s="20">
-        <v>71.138687124723404</v>
+        <v>70.716021733547507</v>
       </c>
       <c r="N56" s="20">
-        <v>7.43368565638586</v>
+        <v>7.6173869236731999</v>
       </c>
       <c r="O56" s="21">
-        <v>21.427627218890802</v>
+        <v>21.666591342779299</v>
       </c>
       <c r="P56" s="21">
-        <v>5.97698568846989</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+        <v>6.0824396029153203</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>123</v>
       </c>
@@ -4186,49 +4186,49 @@
         <v>124</v>
       </c>
       <c r="C57" s="19">
-        <v>4.4096738469646404</v>
+        <v>6.2467496900501303</v>
       </c>
       <c r="D57" s="20">
-        <v>5.1663570319099997E-3</v>
+        <v>8.0083180987100006E-3</v>
       </c>
       <c r="E57" s="21">
-        <v>6.2291704743239702</v>
+        <v>8.5529542383080592</v>
       </c>
       <c r="F57" s="19">
-        <v>24.448932473393</v>
+        <v>23.7000014185137</v>
       </c>
       <c r="G57" s="20">
-        <v>20.936482415522701</v>
+        <v>22.310072684363998</v>
       </c>
       <c r="H57" s="20">
-        <v>7.6412623860276403</v>
+        <v>9.5586060253707608</v>
       </c>
       <c r="I57" s="20">
-        <v>14.736552563442199</v>
+        <v>14.2793224723368</v>
       </c>
       <c r="J57" s="20">
-        <v>12.767783071896901</v>
+        <v>12.1897194426688</v>
       </c>
       <c r="K57" s="21">
-        <v>19.468987089717601</v>
+        <v>17.962277956746501</v>
       </c>
       <c r="L57" s="21">
-        <v>12.8276182365236</v>
+        <v>14.8252262706047</v>
       </c>
       <c r="M57" s="20">
-        <v>35.759223857056902</v>
+        <v>35.205116300915499</v>
       </c>
       <c r="N57" s="20">
-        <v>12.398864544296099</v>
+        <v>12.6612038836822</v>
       </c>
       <c r="O57" s="21">
-        <v>51.841911598647101</v>
+        <v>52.1336813207988</v>
       </c>
       <c r="P57" s="21">
-        <v>8.3968596683231098</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+        <v>8.4673527661962602</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>125</v>
       </c>
@@ -4239,46 +4239,46 @@
         <v>0</v>
       </c>
       <c r="D58" s="20">
-        <v>1.68081485598032</v>
+        <v>2.8956632820772099</v>
       </c>
       <c r="E58" s="21">
-        <v>3.2072792494846398</v>
+        <v>4.4015971200545199</v>
       </c>
       <c r="F58" s="19">
-        <v>18.0773355750588</v>
+        <v>17.104891585649298</v>
       </c>
       <c r="G58" s="20">
-        <v>23.009263407039501</v>
+        <v>24.0624447621909</v>
       </c>
       <c r="H58" s="20">
-        <v>2.8874656606631</v>
+        <v>3.4705262171543501</v>
       </c>
       <c r="I58" s="20">
-        <v>14.799223261418</v>
+        <v>15.3119184921281</v>
       </c>
       <c r="J58" s="20">
-        <v>7.9851980960937601</v>
+        <v>8.2445386033197501</v>
       </c>
       <c r="K58" s="21">
-        <v>33.241513999726898</v>
+        <v>31.8056803395576</v>
       </c>
       <c r="L58" s="21">
-        <v>15.941225399449699</v>
+        <v>16.477323399754201</v>
       </c>
       <c r="M58" s="20">
-        <v>22.59003876913</v>
+        <v>21.611682880565301</v>
       </c>
       <c r="N58" s="20">
-        <v>21.797169758171801</v>
+        <v>22.633549304412199</v>
       </c>
       <c r="O58" s="21">
-        <v>55.612813141114302</v>
+        <v>55.754767815022497</v>
       </c>
       <c r="P58" s="21">
-        <v>13.155848782191701</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+        <v>13.4518862586872</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>127</v>
       </c>
@@ -4289,46 +4289,46 @@
         <v>0</v>
       </c>
       <c r="D59" s="20">
-        <v>2.875851930099E-2</v>
+        <v>0.21278111834602001</v>
       </c>
       <c r="E59" s="21">
-        <v>7.8064966271756902</v>
+        <v>9.0370141412896707</v>
       </c>
       <c r="F59" s="19">
-        <v>62.151087600653298</v>
+        <v>60.025368246112599</v>
       </c>
       <c r="G59" s="20">
-        <v>4.6184582468976396</v>
+        <v>5.3980152083226702</v>
       </c>
       <c r="H59" s="20">
-        <v>0.85973845348160005</v>
+        <v>0.80181483465086001</v>
       </c>
       <c r="I59" s="20">
-        <v>6.03945289842021</v>
+        <v>6.1269371428932198</v>
       </c>
       <c r="J59" s="20">
-        <v>3.1614047393904001</v>
+        <v>2.98251309997084</v>
       </c>
       <c r="K59" s="21">
-        <v>23.169858061156901</v>
+        <v>24.665351468049899</v>
       </c>
       <c r="L59" s="21">
-        <v>1.96930691315814</v>
+        <v>1.9619889447377701</v>
       </c>
       <c r="M59" s="20">
-        <v>43.649797284065599</v>
+        <v>42.713940883758902</v>
       </c>
       <c r="N59" s="20">
-        <v>11.4031882775994</v>
+        <v>11.9039510318786</v>
       </c>
       <c r="O59" s="21">
-        <v>44.947014438335003</v>
+        <v>45.382146350273899</v>
       </c>
       <c r="P59" s="21">
-        <v>4.4442883397229496</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>4.59925641681067</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>129</v>
       </c>
@@ -4339,1582 +4339,1582 @@
         <v>0</v>
       </c>
       <c r="D60" s="16">
-        <v>1.36091463517349</v>
+        <v>4.8805920269970002</v>
       </c>
       <c r="E60" s="17">
-        <v>4.3125607287222403</v>
+        <v>7.8641741978751298</v>
       </c>
       <c r="F60" s="15">
-        <v>20.558392323268102</v>
+        <v>21.120994574988099</v>
       </c>
       <c r="G60" s="16">
-        <v>19.9791581933295</v>
+        <v>19.439167033706799</v>
       </c>
       <c r="H60" s="16">
-        <v>3.0130448662568101</v>
+        <v>3.0151364449079101</v>
       </c>
       <c r="I60" s="16">
-        <v>9.3034695790395094</v>
+        <v>9.2326057209815495</v>
       </c>
       <c r="J60" s="16">
-        <v>13.6372026982331</v>
+        <v>13.979242496316401</v>
       </c>
       <c r="K60" s="17">
-        <v>33.508732339899403</v>
+        <v>33.212853729074702</v>
       </c>
       <c r="L60" s="17">
-        <v>14.5920003568206</v>
+        <v>13.9232458998949</v>
       </c>
       <c r="M60" s="16">
-        <v>31.518273364420899</v>
+        <v>30.8986831244579</v>
       </c>
       <c r="N60" s="16">
-        <v>20.056849421425198</v>
+        <v>20.380985813843701</v>
       </c>
       <c r="O60" s="17">
-        <v>48.424841018164301</v>
+        <v>48.720331061698502</v>
       </c>
       <c r="P60" s="17">
-        <v>15.302180410223601</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>15.399329860717</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="22"/>
       <c r="B61" s="23" t="s">
         <v>131</v>
       </c>
       <c r="C61" s="24">
-        <v>3.3808453591585099</v>
+        <v>4.3790654772602897</v>
       </c>
       <c r="D61" s="25">
-        <v>0.70313549953716004</v>
+        <v>1.84605745804588</v>
       </c>
       <c r="E61" s="26">
-        <v>6.1620869867168304</v>
+        <v>8.9620183256069197</v>
       </c>
       <c r="F61" s="24">
-        <v>24.6114605266899</v>
+        <v>24.1528185587484</v>
       </c>
       <c r="G61" s="25">
-        <v>21.0762098027256</v>
+        <v>21.771610634880599</v>
       </c>
       <c r="H61" s="25">
-        <v>6.5888705907216396</v>
+        <v>7.7611707137522803</v>
       </c>
       <c r="I61" s="25">
-        <v>14.923759963592801</v>
+        <v>14.728727834896601</v>
       </c>
       <c r="J61" s="25">
-        <v>11.449017945781</v>
+        <v>11.055619602844001</v>
       </c>
       <c r="K61" s="26">
-        <v>21.350681170489601</v>
+        <v>20.530052654876499</v>
       </c>
       <c r="L61" s="26">
-        <v>12.492421284936601</v>
+        <v>13.7282183674203</v>
       </c>
       <c r="M61" s="25">
-        <v>44.880494211193898</v>
+        <v>44.299805082196599</v>
       </c>
       <c r="N61" s="25">
-        <v>12.955192561893099</v>
+        <v>13.3188623630228</v>
       </c>
       <c r="O61" s="26">
-        <v>42.164346471662803</v>
+        <v>42.381308946522701</v>
       </c>
       <c r="P61" s="26">
-        <v>7.8746173743000503</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7.9902383948142699</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="32"/>
       <c r="B62" s="33" t="s">
         <v>132</v>
       </c>
       <c r="C62" s="34">
-        <v>3.5078480209527099</v>
+        <v>5.1723222678423104</v>
       </c>
       <c r="D62" s="35">
-        <v>0.66667658976101996</v>
+        <v>1.9879265659559</v>
       </c>
       <c r="E62" s="36">
-        <v>6.4215483278091803</v>
+        <v>10.4893206119652</v>
       </c>
       <c r="F62" s="34">
-        <v>17.261322246061901</v>
+        <v>16.711454347242199</v>
       </c>
       <c r="G62" s="35">
-        <v>22.5295580462511</v>
+        <v>23.7823925756935</v>
       </c>
       <c r="H62" s="35">
-        <v>6.7963833596788996</v>
+        <v>6.98444699691587</v>
       </c>
       <c r="I62" s="35">
-        <v>14.4880836443356</v>
+        <v>14.385022548519</v>
       </c>
       <c r="J62" s="35">
-        <v>9.2779686998082003</v>
+        <v>8.9696114928332502</v>
       </c>
       <c r="K62" s="36">
-        <v>29.646684003821601</v>
+        <v>29.167072038866799</v>
       </c>
       <c r="L62" s="36">
-        <v>12.196170539536899</v>
+        <v>12.413384856989399</v>
       </c>
       <c r="M62" s="35">
-        <v>43.028899599749501</v>
+        <v>42.5317261785383</v>
       </c>
       <c r="N62" s="35">
-        <v>14.7601641736634</v>
+        <v>15.113498726234599</v>
       </c>
       <c r="O62" s="36">
-        <v>42.210945424567299</v>
+        <v>42.354778138482203</v>
       </c>
       <c r="P62" s="36">
-        <v>8.1127566418984003</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>8.1718173462957804</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="32"/>
       <c r="B63" s="37" t="s">
         <v>133</v>
       </c>
       <c r="C63" s="38">
-        <v>1.26425720892654</v>
+        <v>1.6827480315485801</v>
       </c>
       <c r="D63" s="39">
-        <v>0.34485148525018999</v>
+        <v>0.91528348296096995</v>
       </c>
       <c r="E63" s="40">
-        <v>2.22384198546052</v>
+        <v>3.73243902084868</v>
       </c>
       <c r="F63" s="38">
-        <v>4.19905241111148</v>
+        <v>4.2018882274487996</v>
       </c>
       <c r="G63" s="39">
-        <v>21.414786716395199</v>
+        <v>22.583385002866599</v>
       </c>
       <c r="H63" s="39">
-        <v>5.7751182438433002</v>
+        <v>5.76458252384709</v>
       </c>
       <c r="I63" s="39">
-        <v>13.378100228120299</v>
+        <v>13.6762668361265</v>
       </c>
       <c r="J63" s="39">
-        <v>9.1298526894296703</v>
+        <v>9.2647273212746697</v>
       </c>
       <c r="K63" s="40">
-        <v>46.103090985752999</v>
+        <v>44.509151554002898</v>
       </c>
       <c r="L63" s="40">
-        <v>16.5277075401338</v>
+        <v>17.004093070108102</v>
       </c>
       <c r="M63" s="39">
-        <v>16.4712918497078</v>
+        <v>15.6334254637651</v>
       </c>
       <c r="N63" s="39">
-        <v>21.910545635451999</v>
+        <v>22.1645936484441</v>
       </c>
       <c r="O63" s="40">
-        <v>61.618147484068302</v>
+        <v>62.201974571369803</v>
       </c>
       <c r="P63" s="40">
-        <v>11.7975648619851</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+        <v>11.750343460423601</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="41"/>
       <c r="B64" s="42" t="s">
         <v>134</v>
       </c>
       <c r="C64" s="34">
-        <v>1.44776098854863</v>
+        <v>2.0216591903926999</v>
       </c>
       <c r="D64" s="35">
-        <v>0.76983017578698998</v>
+        <v>3.4899234459460899</v>
       </c>
       <c r="E64" s="36">
-        <v>2.8969773070296698</v>
+        <v>6.1407057827970402</v>
       </c>
       <c r="F64" s="34">
-        <v>6.31401764005121</v>
+        <v>6.5088625340901496</v>
       </c>
       <c r="G64" s="35">
-        <v>22.989486178477499</v>
+        <v>23.239285982991198</v>
       </c>
       <c r="H64" s="35">
-        <v>5.7833265271251104</v>
+        <v>6.1016896207502596</v>
       </c>
       <c r="I64" s="35">
-        <v>16.924571705365199</v>
+        <v>17.451253634962502</v>
       </c>
       <c r="J64" s="35">
-        <v>7.7055478471010801</v>
+        <v>7.7518832412103302</v>
       </c>
       <c r="K64" s="36">
-        <v>40.283050100968801</v>
+        <v>38.947024985912797</v>
       </c>
       <c r="L64" s="36">
-        <v>14.400983771737501</v>
+        <v>14.620955291986901</v>
       </c>
       <c r="M64" s="35">
-        <v>16.6684787374117</v>
+        <v>16.294249792734298</v>
       </c>
       <c r="N64" s="35">
-        <v>19.075882053862301</v>
+        <v>19.567579279836899</v>
       </c>
       <c r="O64" s="36">
-        <v>64.255608492972001</v>
+        <v>64.138176107882003</v>
       </c>
       <c r="P64" s="36">
-        <v>9.8475303631134992</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+        <v>9.8146733411284206</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="41"/>
       <c r="B65" s="33" t="s">
         <v>135</v>
       </c>
       <c r="C65" s="43">
-        <v>1.0722891645293799</v>
+        <v>1.23988388192919</v>
       </c>
       <c r="D65" s="44">
-        <v>0.44325507737436998</v>
+        <v>0.89249697280849005</v>
       </c>
       <c r="E65" s="45">
-        <v>2.4301743269165601</v>
+        <v>3.6593282005323702</v>
       </c>
       <c r="F65" s="43">
-        <v>10.4140215134586</v>
+        <v>9.8656434769478203</v>
       </c>
       <c r="G65" s="44">
-        <v>29.0372927418478</v>
+        <v>30.628209293878701</v>
       </c>
       <c r="H65" s="44">
-        <v>7.0398828832650002</v>
+        <v>7.0495529558736898</v>
       </c>
       <c r="I65" s="44">
-        <v>11.9323267512976</v>
+        <v>12.000818301604401</v>
       </c>
       <c r="J65" s="44">
-        <v>7.7486670612005097</v>
+        <v>7.8536095838325499</v>
       </c>
       <c r="K65" s="45">
-        <v>33.827809048931698</v>
+        <v>32.602166387863399</v>
       </c>
       <c r="L65" s="45">
-        <v>23.709260316456302</v>
+        <v>24.632358476604601</v>
       </c>
       <c r="M65" s="44">
-        <v>30.874831859005202</v>
+        <v>29.1634305548776</v>
       </c>
       <c r="N65" s="44">
-        <v>21.6068430717471</v>
+        <v>22.339923698362799</v>
       </c>
       <c r="O65" s="45">
-        <v>47.518319063471502</v>
+        <v>48.496655313254003</v>
       </c>
       <c r="P65" s="45">
-        <v>12.096656451995401</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>12.317333849013099</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="41"/>
       <c r="B66" s="46" t="s">
         <v>136</v>
       </c>
       <c r="C66" s="47">
-        <v>1.3786980520565499</v>
+        <v>1.86223096331427</v>
       </c>
       <c r="D66" s="48">
-        <v>0.36160498482777997</v>
+        <v>0.97045175821680996</v>
       </c>
       <c r="E66" s="49">
-        <v>2.4423652468458501</v>
+        <v>4.0799595609047499</v>
       </c>
       <c r="F66" s="47">
-        <v>4.5749654767455796</v>
+        <v>4.5555525679382001</v>
       </c>
       <c r="G66" s="48">
-        <v>21.446868208615399</v>
+        <v>22.617282759065699</v>
       </c>
       <c r="H66" s="48">
-        <v>5.8045087636664103</v>
+        <v>5.79906993613805</v>
       </c>
       <c r="I66" s="48">
-        <v>13.4100439311723</v>
+        <v>13.696304431290899</v>
       </c>
       <c r="J66" s="48">
-        <v>9.1341152520802904</v>
+        <v>9.2563839507824994</v>
       </c>
       <c r="K66" s="49">
-        <v>45.629499605689098</v>
+        <v>44.075407778919399</v>
       </c>
       <c r="L66" s="49">
-        <v>16.4030522257531</v>
+        <v>16.874306810774701</v>
       </c>
       <c r="M66" s="48">
-        <v>24.378894157304401</v>
+        <v>23.733481929009301</v>
       </c>
       <c r="N66" s="48">
-        <v>19.781499469863299</v>
+        <v>20.041252563915101</v>
       </c>
       <c r="O66" s="49">
-        <v>55.839598556239302</v>
+        <v>56.225262009193401</v>
       </c>
       <c r="P66" s="49">
-        <v>10.7004028638694</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+        <v>10.672719119237399</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="41"/>
       <c r="B67" s="50" t="s">
         <v>137</v>
       </c>
       <c r="C67" s="51">
-        <v>2.1413823749013101</v>
+        <v>4.4247636842766003</v>
       </c>
       <c r="D67" s="52">
-        <v>0.66695700208491004</v>
+        <v>2.22438644588722</v>
       </c>
       <c r="E67" s="53">
-        <v>5.2110615099527999</v>
+        <v>9.9376539568048301</v>
       </c>
       <c r="F67" s="51">
-        <v>17.7581219126204</v>
+        <v>17.6526636672473</v>
       </c>
       <c r="G67" s="52">
-        <v>22.510952473197701</v>
+        <v>22.310462523738899</v>
       </c>
       <c r="H67" s="52">
-        <v>7.1670403174133099</v>
+        <v>7.4605165157073801</v>
       </c>
       <c r="I67" s="52">
-        <v>14.9899738319821</v>
+        <v>14.715911928851</v>
       </c>
       <c r="J67" s="52">
-        <v>8.7472516893169505</v>
+        <v>8.9312845186852901</v>
       </c>
       <c r="K67" s="53">
-        <v>28.826659775337699</v>
+        <v>28.929160845974099</v>
       </c>
       <c r="L67" s="53">
-        <v>13.0348643564162</v>
+        <v>12.797743810149401</v>
       </c>
       <c r="M67" s="52">
-        <v>42.690605856021399</v>
+        <v>42.229496064818399</v>
       </c>
       <c r="N67" s="52">
-        <v>14.8623657474251</v>
+        <v>15.229705099628699</v>
       </c>
       <c r="O67" s="53">
-        <v>42.447028166826499</v>
+        <v>42.540799880796101</v>
       </c>
       <c r="P67" s="53">
-        <v>7.6687447375273097</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+        <v>7.7028022394570801</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="41"/>
       <c r="B68" s="33" t="s">
         <v>138</v>
       </c>
       <c r="C68" s="43">
-        <v>3.0999446087625699</v>
+        <v>5.2426171432869699</v>
       </c>
       <c r="D68" s="44">
-        <v>0.57587937318105997</v>
+        <v>1.19191826001304</v>
       </c>
       <c r="E68" s="45">
-        <v>5.1559887132786404</v>
+        <v>8.7899519060320408</v>
       </c>
       <c r="F68" s="43">
-        <v>18.904469743940599</v>
+        <v>18.741505990419999</v>
       </c>
       <c r="G68" s="44">
-        <v>23.4145066668172</v>
+        <v>23.2971045417376</v>
       </c>
       <c r="H68" s="44">
-        <v>6.22528281895333</v>
+        <v>7.0880679348791098</v>
       </c>
       <c r="I68" s="44">
-        <v>15.1057996898759</v>
+        <v>14.9117879126637</v>
       </c>
       <c r="J68" s="44">
-        <v>9.7902530326741495</v>
+        <v>9.6623076128800207</v>
       </c>
       <c r="K68" s="45">
-        <v>26.559688047737001</v>
+        <v>26.299226007412901</v>
       </c>
       <c r="L68" s="45">
-        <v>13.615156470014</v>
+        <v>14.1963628087119</v>
       </c>
       <c r="M68" s="44">
-        <v>41.732004437288197</v>
+        <v>41.1964070104423</v>
       </c>
       <c r="N68" s="44">
-        <v>14.7119198852445</v>
+        <v>15.0960090382082</v>
       </c>
       <c r="O68" s="45">
-        <v>43.556076431317699</v>
+        <v>43.707596192390902</v>
       </c>
       <c r="P68" s="45">
-        <v>8.5138928043361606</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+        <v>8.6075606554660293</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="41"/>
       <c r="B69" s="33" t="s">
         <v>139</v>
       </c>
       <c r="C69" s="43">
-        <v>6.9581381119700001E-3</v>
+        <v>0.10250538868568</v>
       </c>
       <c r="D69" s="44">
-        <v>0.37681084474034998</v>
+        <v>5.5590828634302296</v>
       </c>
       <c r="E69" s="45">
-        <v>3.4897286436819002</v>
+        <v>9.8173481651564298</v>
       </c>
       <c r="F69" s="43">
-        <v>25.874460668568702</v>
+        <v>24.420038493781199</v>
       </c>
       <c r="G69" s="44">
-        <v>15.3829651878092</v>
+        <v>20.940485629860799</v>
       </c>
       <c r="H69" s="44">
-        <v>9.3367312775537492</v>
+        <v>7.7360031212819997</v>
       </c>
       <c r="I69" s="44">
-        <v>9.9783393634627409</v>
+        <v>10.5462870373239</v>
       </c>
       <c r="J69" s="44">
-        <v>10.833510461118401</v>
+        <v>10.634341926039999</v>
       </c>
       <c r="K69" s="45">
-        <v>28.593993041488599</v>
+        <v>25.7228437917192</v>
       </c>
       <c r="L69" s="45">
-        <v>9.9367640173746992</v>
+        <v>11.387224180175201</v>
       </c>
       <c r="M69" s="44">
-        <v>61.028669261638299</v>
+        <v>59.733918401693799</v>
       </c>
       <c r="N69" s="44">
-        <v>10.883894611668101</v>
+        <v>11.127051113904701</v>
       </c>
       <c r="O69" s="45">
-        <v>28.087433258895299</v>
+        <v>29.139030217998101</v>
       </c>
       <c r="P69" s="45">
-        <v>4.4981193471596104</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+        <v>4.8241144505492297</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="41"/>
       <c r="B70" s="33" t="s">
         <v>140</v>
       </c>
       <c r="C70" s="43">
-        <v>12.578033928327701</v>
+        <v>14.4979564905323</v>
       </c>
       <c r="D70" s="44">
-        <v>0.92512142639880002</v>
+        <v>5.4853271854221397</v>
       </c>
       <c r="E70" s="45">
-        <v>17.745424095854499</v>
+        <v>24.34468503387</v>
       </c>
       <c r="F70" s="43">
-        <v>17.280097777955099</v>
+        <v>17.182555039540102</v>
       </c>
       <c r="G70" s="44">
-        <v>31.747239158595299</v>
+        <v>35.843081369256304</v>
       </c>
       <c r="H70" s="44">
-        <v>4.8599702681196097</v>
+        <v>4.19706049031414</v>
       </c>
       <c r="I70" s="44">
-        <v>15.5432158025568</v>
+        <v>15.143840383208</v>
       </c>
       <c r="J70" s="44">
-        <v>7.7182084436642597</v>
+        <v>7.20480497195478</v>
       </c>
       <c r="K70" s="45">
-        <v>22.8512685491106</v>
+        <v>20.428657745768199</v>
       </c>
       <c r="L70" s="45">
-        <v>12.7155715858894</v>
+        <v>12.111611513507</v>
       </c>
       <c r="M70" s="44">
-        <v>52.663539554840497</v>
+        <v>52.125702254124398</v>
       </c>
       <c r="N70" s="44">
-        <v>12.647347998278599</v>
+        <v>13.027592902534399</v>
       </c>
       <c r="O70" s="45">
-        <v>34.689100181099398</v>
+        <v>34.846723343552902</v>
       </c>
       <c r="P70" s="45">
-        <v>7.2132882980638504</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+        <v>7.30535271691706</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="41"/>
       <c r="B71" s="33" t="s">
         <v>141</v>
       </c>
       <c r="C71" s="43">
-        <v>3.3808453591585099</v>
+        <v>4.3790654772602897</v>
       </c>
       <c r="D71" s="44">
-        <v>0.70313549953716004</v>
+        <v>1.84605745804588</v>
       </c>
       <c r="E71" s="45">
-        <v>6.1620869867168304</v>
+        <v>8.9620183256069108</v>
       </c>
       <c r="F71" s="43">
-        <v>24.6114605266899</v>
+        <v>24.1528185587484</v>
       </c>
       <c r="G71" s="44">
-        <v>21.0762098027256</v>
+        <v>21.771610634880599</v>
       </c>
       <c r="H71" s="44">
-        <v>6.5888705907216396</v>
+        <v>7.7611707137522803</v>
       </c>
       <c r="I71" s="44">
-        <v>14.923759963592801</v>
+        <v>14.728727834896601</v>
       </c>
       <c r="J71" s="44">
-        <v>11.449017945781</v>
+        <v>11.055619602844001</v>
       </c>
       <c r="K71" s="45">
-        <v>21.350681170489601</v>
+        <v>20.530052654876499</v>
       </c>
       <c r="L71" s="45">
-        <v>12.492421284936601</v>
+        <v>13.7282183674203</v>
       </c>
       <c r="M71" s="44">
-        <v>44.880494211193898</v>
+        <v>44.299805082196499</v>
       </c>
       <c r="N71" s="44">
-        <v>12.955192561893099</v>
+        <v>13.3188623630228</v>
       </c>
       <c r="O71" s="45">
-        <v>42.164346471662803</v>
+        <v>42.381308946522701</v>
       </c>
       <c r="P71" s="45">
-        <v>7.8746173743000503</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+        <v>7.9902383948142699</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="41"/>
       <c r="B72" s="33" t="s">
         <v>142</v>
       </c>
       <c r="C72" s="43">
-        <v>0.71222898494678999</v>
+        <v>0.68770580587665997</v>
       </c>
       <c r="D72" s="44">
-        <v>1.1339134255615799</v>
+        <v>1.47182955003094</v>
       </c>
       <c r="E72" s="45">
-        <v>6.0148919892739903</v>
+        <v>6.2506664460432999</v>
       </c>
       <c r="F72" s="43">
-        <v>28.614739860077499</v>
+        <v>28.8126438111121</v>
       </c>
       <c r="G72" s="44">
-        <v>12.120469369812101</v>
+        <v>12.3527748907639</v>
       </c>
       <c r="H72" s="44">
-        <v>10.0565131345206</v>
+        <v>9.6260373132477799</v>
       </c>
       <c r="I72" s="44">
-        <v>13.3240289531853</v>
+        <v>12.9222447082379</v>
       </c>
       <c r="J72" s="44">
-        <v>8.9631360411680099</v>
+        <v>9.2501215229454203</v>
       </c>
       <c r="K72" s="45">
-        <v>26.921112641194899</v>
+        <v>27.036177753673002</v>
       </c>
       <c r="L72" s="45">
-        <v>8.2150705913553708</v>
+        <v>8.0896560594856499</v>
       </c>
       <c r="M72" s="44">
-        <v>44.485652111021302</v>
+        <v>44.028132282739598</v>
       </c>
       <c r="N72" s="44">
-        <v>11.6379687770691</v>
+        <v>11.948382425021601</v>
       </c>
       <c r="O72" s="45">
-        <v>43.876378897520702</v>
+        <v>44.023494506595803</v>
       </c>
       <c r="P72" s="45">
-        <v>5.8992987341490304</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+        <v>5.9306765018915399</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="41"/>
       <c r="B73" s="33" t="s">
         <v>143</v>
       </c>
       <c r="C73" s="43">
-        <v>3.23424676730161</v>
+        <v>3.8721477825519699</v>
       </c>
       <c r="D73" s="44">
-        <v>1.44480106204081</v>
+        <v>5.5243743037425004</v>
       </c>
       <c r="E73" s="45">
-        <v>7.9302823667725102</v>
+        <v>13.049740790379101</v>
       </c>
       <c r="F73" s="43">
-        <v>9.6143410104578404</v>
+        <v>9.2232687066027097</v>
       </c>
       <c r="G73" s="44">
-        <v>24.815593441003401</v>
+        <v>26.796078489432301</v>
       </c>
       <c r="H73" s="44">
-        <v>5.0922371488532203</v>
+        <v>4.7402384054012696</v>
       </c>
       <c r="I73" s="44">
-        <v>14.196392758063</v>
+        <v>14.554292139926501</v>
       </c>
       <c r="J73" s="44">
-        <v>7.5385403174777403</v>
+        <v>7.0918967550299703</v>
       </c>
       <c r="K73" s="45">
-        <v>38.7428953239884</v>
+        <v>37.594225503869097</v>
       </c>
       <c r="L73" s="45">
-        <v>12.1807718630275</v>
+        <v>12.030850961757301</v>
       </c>
       <c r="M73" s="44">
-        <v>44.011118931313199</v>
+        <v>43.572774319843198</v>
       </c>
       <c r="N73" s="44">
-        <v>14.730959331951</v>
+        <v>14.996222881660399</v>
       </c>
       <c r="O73" s="45">
-        <v>41.257928569075801</v>
+        <v>41.431012268962398</v>
       </c>
       <c r="P73" s="45">
-        <v>8.0251619481239604</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+        <v>8.0453781943767293</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="41"/>
       <c r="B74" s="33" t="s">
         <v>143</v>
       </c>
       <c r="C74" s="43">
-        <v>7.0896210865948497</v>
+        <v>13.7379424265708</v>
       </c>
       <c r="D74" s="44">
-        <v>6.6645729484339999E-2</v>
+        <v>0.29708269570092</v>
       </c>
       <c r="E74" s="45">
-        <v>8.2639420346819108</v>
+        <v>18.4243267702408</v>
       </c>
       <c r="F74" s="43">
-        <v>11.7980287233743</v>
+        <v>11.8839781453461</v>
       </c>
       <c r="G74" s="44">
-        <v>24.358723794422399</v>
+        <v>27.5643227451657</v>
       </c>
       <c r="H74" s="44">
-        <v>8.2062184494703594</v>
+        <v>7.8206528219467497</v>
       </c>
       <c r="I74" s="44">
-        <v>12.970323768488999</v>
+        <v>13.115509390702201</v>
       </c>
       <c r="J74" s="44">
-        <v>8.2436064818910406</v>
+        <v>7.6575974596362597</v>
       </c>
       <c r="K74" s="45">
-        <v>34.423098782360597</v>
+        <v>31.957939437195702</v>
       </c>
       <c r="L74" s="45">
-        <v>9.5238086662068504</v>
+        <v>9.8119109904588697</v>
       </c>
       <c r="M74" s="44">
-        <v>21.342177766975301</v>
+        <v>20.9193709050992</v>
       </c>
       <c r="N74" s="44">
-        <v>24.708619378553301</v>
+        <v>25.227963822446899</v>
       </c>
       <c r="O74" s="45">
-        <v>53.949206799815599</v>
+        <v>53.852686043172199</v>
       </c>
       <c r="P74" s="45">
-        <v>11.963804891712501</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>11.9627607546864</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="41"/>
       <c r="B75" s="46" t="s">
         <v>144</v>
       </c>
       <c r="C75" s="47">
-        <v>19.513954622754</v>
+        <v>22.856002386360199</v>
       </c>
       <c r="D75" s="48">
-        <v>3.40258143256E-3</v>
+        <v>2.1920976814660001E-2</v>
       </c>
       <c r="E75" s="49">
-        <v>22.835160605423901</v>
+        <v>26.996474700211401</v>
       </c>
       <c r="F75" s="47">
-        <v>13.749231757923701</v>
+        <v>14.8163527776018</v>
       </c>
       <c r="G75" s="48">
-        <v>33.626966284975602</v>
+        <v>37.1415031989658</v>
       </c>
       <c r="H75" s="48">
-        <v>6.9857540093788</v>
+        <v>5.57422311123947</v>
       </c>
       <c r="I75" s="48">
-        <v>19.4646103342712</v>
+        <v>19.614101879576801</v>
       </c>
       <c r="J75" s="48">
-        <v>3.93744615057166</v>
+        <v>3.5880571352393602</v>
       </c>
       <c r="K75" s="49">
-        <v>22.2359914629223</v>
+        <v>19.265761897486701</v>
       </c>
       <c r="L75" s="49">
-        <v>7.4761744147195701</v>
+        <v>7.0283944208195797</v>
       </c>
       <c r="M75" s="48">
-        <v>42.121813593776103</v>
+        <v>41.661925096434103</v>
       </c>
       <c r="N75" s="48">
-        <v>13.644031976009</v>
+        <v>13.984773342086999</v>
       </c>
       <c r="O75" s="49">
-        <v>44.234256318718302</v>
+        <v>44.353207214941598</v>
       </c>
       <c r="P75" s="49">
-        <v>6.6621256714766997</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+        <v>6.6984675525763704</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="41"/>
       <c r="B76" s="50" t="s">
         <v>145</v>
       </c>
       <c r="C76" s="51">
-        <v>0.59484382486745002</v>
+        <v>0.69267360955753998</v>
       </c>
       <c r="D76" s="52">
-        <v>0.26480977234870001</v>
+        <v>1.01099382470901</v>
       </c>
       <c r="E76" s="53">
-        <v>2.47410749111173</v>
+        <v>3.92272189496367</v>
       </c>
       <c r="F76" s="51">
-        <v>10.8239008853629</v>
+        <v>10.729943876214</v>
       </c>
       <c r="G76" s="52">
-        <v>28.454077360699799</v>
+        <v>29.8302001841822</v>
       </c>
       <c r="H76" s="52">
-        <v>6.8190091201947602</v>
+        <v>6.8290461012304098</v>
       </c>
       <c r="I76" s="52">
-        <v>18.022376834410899</v>
+        <v>17.527397309139101</v>
       </c>
       <c r="J76" s="52">
-        <v>8.9229621364425995</v>
+        <v>8.78179468205267</v>
       </c>
       <c r="K76" s="53">
-        <v>26.9576736628897</v>
+        <v>26.301617847181699</v>
       </c>
       <c r="L76" s="53">
-        <v>21.941090918839699</v>
+        <v>22.232277028623901</v>
       </c>
       <c r="M76" s="52">
-        <v>27.461297553212098</v>
+        <v>24.677773975008201</v>
       </c>
       <c r="N76" s="52">
-        <v>21.352376363562701</v>
+        <v>22.1430803747471</v>
       </c>
       <c r="O76" s="53">
-        <v>51.186276617114302</v>
+        <v>53.179146973747997</v>
       </c>
       <c r="P76" s="53">
-        <v>12.3145775053933</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+        <v>12.4868428889353</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="41"/>
       <c r="B77" s="33" t="s">
         <v>146</v>
       </c>
       <c r="C77" s="43">
-        <v>1.62691498716682</v>
+        <v>2.2654977569793102</v>
       </c>
       <c r="D77" s="44">
-        <v>0.96631514832168997</v>
+        <v>4.6270117009172402</v>
       </c>
       <c r="E77" s="45">
-        <v>3.4489595154680202</v>
+        <v>7.6916214033411503</v>
       </c>
       <c r="F77" s="43">
-        <v>7.2035738788161998</v>
+        <v>7.6968221261321004</v>
       </c>
       <c r="G77" s="44">
-        <v>21.844704820211899</v>
+        <v>21.715529031841701</v>
       </c>
       <c r="H77" s="44">
-        <v>4.87389634895146</v>
+        <v>5.07990904497575</v>
       </c>
       <c r="I77" s="44">
-        <v>14.775847710469201</v>
+        <v>14.7464617911501</v>
       </c>
       <c r="J77" s="44">
-        <v>7.7007417933796702</v>
+        <v>7.7191746126064498</v>
       </c>
       <c r="K77" s="45">
-        <v>43.601235446785502</v>
+        <v>43.042103393293097</v>
       </c>
       <c r="L77" s="45">
-        <v>13.069283520986099</v>
+        <v>13.0145092380693</v>
       </c>
       <c r="M77" s="44">
-        <v>16.614472879989201</v>
+        <v>16.201947313086201</v>
       </c>
       <c r="N77" s="44">
-        <v>19.776973636115699</v>
+        <v>20.599003455870601</v>
       </c>
       <c r="O77" s="45">
-        <v>63.608595400575403</v>
+        <v>63.199048561940401</v>
       </c>
       <c r="P77" s="45">
-        <v>10.5013777177787</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+        <v>10.433503323554801</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="41"/>
       <c r="B78" s="33" t="s">
         <v>146</v>
       </c>
       <c r="C78" s="43">
-        <v>2.7698363602270001E-2</v>
+        <v>4.6253008960359998E-2</v>
       </c>
       <c r="D78" s="44">
-        <v>3.4259241463930001E-2</v>
+        <v>8.1447887142499995E-2</v>
       </c>
       <c r="E78" s="45">
-        <v>0.16826661142041999</v>
+        <v>0.26655302563244998</v>
       </c>
       <c r="F78" s="43">
-        <v>1.8288860011383401</v>
+        <v>1.8135280226463</v>
       </c>
       <c r="G78" s="44">
-        <v>19.6401917404167</v>
+        <v>19.956718808623499</v>
       </c>
       <c r="H78" s="44">
-        <v>5.4551802918053598</v>
+        <v>5.5347773759407897</v>
       </c>
       <c r="I78" s="44">
-        <v>13.229783606233701</v>
+        <v>13.584034583026099</v>
       </c>
       <c r="J78" s="44">
-        <v>9.9296606818044193</v>
+        <v>10.309967778918301</v>
       </c>
       <c r="K78" s="45">
-        <v>49.916297678616097</v>
+        <v>48.8009734308527</v>
       </c>
       <c r="L78" s="45">
-        <v>16.319148263800201</v>
+        <v>16.482758244777301</v>
       </c>
       <c r="M78" s="44">
-        <v>4.5997878409446704</v>
+        <v>4.4875192718954704</v>
       </c>
       <c r="N78" s="44">
-        <v>24.426265173451799</v>
+        <v>24.067971067535499</v>
       </c>
       <c r="O78" s="45">
-        <v>70.973948481369803</v>
+        <v>71.444520619095201</v>
       </c>
       <c r="P78" s="45">
-        <v>15.407358413492799</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>15.1142001527703</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="41"/>
       <c r="B79" s="46" t="s">
         <v>147</v>
       </c>
       <c r="C79" s="47">
-        <v>0.25511040973257998</v>
+        <v>0.49783272968526998</v>
       </c>
       <c r="D79" s="48">
-        <v>0.16430416435281001</v>
+        <v>0.53996194483394</v>
       </c>
       <c r="E79" s="49">
-        <v>0.60069584006409005</v>
+        <v>1.4236368448443599</v>
       </c>
       <c r="F79" s="47">
-        <v>1.4220137054002</v>
+        <v>1.4880229521813799</v>
       </c>
       <c r="G79" s="48">
-        <v>17.631610393698299</v>
+        <v>18.166822768636301</v>
       </c>
       <c r="H79" s="48">
-        <v>5.1858972139109101</v>
+        <v>5.1171477420531497</v>
       </c>
       <c r="I79" s="48">
-        <v>13.740679753680199</v>
+        <v>14.252155722851899</v>
       </c>
       <c r="J79" s="48">
-        <v>9.8416076043678604</v>
+        <v>10.089082248878199</v>
       </c>
       <c r="K79" s="49">
-        <v>52.178193317034598</v>
+        <v>50.886770900049299</v>
       </c>
       <c r="L79" s="49">
-        <v>13.821922938567999</v>
+        <v>13.912626208795899</v>
       </c>
       <c r="M79" s="48">
-        <v>5.0188662112408498</v>
+        <v>4.8769451972922697</v>
       </c>
       <c r="N79" s="48">
-        <v>22.746692950126199</v>
+        <v>22.498452125817401</v>
       </c>
       <c r="O79" s="49">
-        <v>72.234440930153099</v>
+        <v>72.624587456998398</v>
       </c>
       <c r="P79" s="49">
-        <v>13.868915927771701</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+        <v>13.604515095638501</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="41"/>
       <c r="B80" s="50" t="s">
         <v>148</v>
       </c>
       <c r="C80" s="51">
-        <v>9.4090981343247204</v>
+        <v>23.486153272542801</v>
       </c>
       <c r="D80" s="52">
-        <v>1.212021981406E-2</v>
+        <v>0.25061551747157002</v>
       </c>
       <c r="E80" s="53">
-        <v>11.3592758801648</v>
+        <v>29.4976430091662</v>
       </c>
       <c r="F80" s="51">
-        <v>19.331783435242201</v>
+        <v>12.062351640983501</v>
       </c>
       <c r="G80" s="52">
-        <v>24.499006044062199</v>
+        <v>35.238347783821197</v>
       </c>
       <c r="H80" s="52">
-        <v>8.0405242490174604</v>
+        <v>7.6473920013524097</v>
       </c>
       <c r="I80" s="52">
-        <v>14.298879586912699</v>
+        <v>13.478209281049899</v>
       </c>
       <c r="J80" s="52">
-        <v>10.7432694874405</v>
+        <v>7.0895384246211899</v>
       </c>
       <c r="K80" s="53">
-        <v>23.086537197328902</v>
+        <v>24.484160868165301</v>
       </c>
       <c r="L80" s="53">
-        <v>10.0354282305659</v>
+        <v>5.9437222606185198</v>
       </c>
       <c r="M80" s="52">
-        <v>35.569163458255503</v>
+        <v>37.761980659588801</v>
       </c>
       <c r="N80" s="52">
-        <v>16.856310830748701</v>
+        <v>17.2968023367686</v>
       </c>
       <c r="O80" s="53">
-        <v>47.574565464987799</v>
+        <v>44.941204338534298</v>
       </c>
       <c r="P80" s="53">
-        <v>9.0265858622845592</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+        <v>8.7943321945183701</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="41"/>
       <c r="B81" s="33" t="s">
         <v>149</v>
       </c>
       <c r="C81" s="43">
-        <v>11.784669729720999</v>
+        <v>15.325050579753899</v>
       </c>
       <c r="D81" s="44">
-        <v>1.1014541535678299</v>
+        <v>2.17457612076814</v>
       </c>
       <c r="E81" s="45">
-        <v>15.146488952056</v>
+        <v>23.0973320013021</v>
       </c>
       <c r="F81" s="43">
-        <v>5.4060666003128999</v>
+        <v>5.0792043375040103</v>
       </c>
       <c r="G81" s="44">
-        <v>31.407370134178802</v>
+        <v>35.5217993647721</v>
       </c>
       <c r="H81" s="44">
-        <v>6.5426764972817102</v>
+        <v>6.6194765540715199</v>
       </c>
       <c r="I81" s="44">
-        <v>13.7360017011473</v>
+        <v>13.154693280824601</v>
       </c>
       <c r="J81" s="44">
-        <v>7.6087480550150497</v>
+        <v>7.1952078668340196</v>
       </c>
       <c r="K81" s="45">
-        <v>35.299137011356997</v>
+        <v>32.429618595899001</v>
       </c>
       <c r="L81" s="45">
-        <v>13.850273368429701</v>
+        <v>14.169672397398401</v>
       </c>
       <c r="M81" s="44">
-        <v>14.784806474750299</v>
+        <v>14.486455638152499</v>
       </c>
       <c r="N81" s="44">
-        <v>25.081457599398799</v>
+        <v>25.319182169586799</v>
       </c>
       <c r="O81" s="45">
-        <v>60.133734157910403</v>
+        <v>60.194365428155301</v>
       </c>
       <c r="P81" s="45">
-        <v>9.7894986900023202</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+        <v>9.7174620599564303</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="41"/>
       <c r="B82" s="33" t="s">
         <v>150</v>
       </c>
       <c r="C82" s="43">
-        <v>0.95187599138848</v>
+        <v>2.1938149062069101</v>
       </c>
       <c r="D82" s="44">
-        <v>0.94162331977576996</v>
+        <v>2.2704777015447801</v>
       </c>
       <c r="E82" s="45">
-        <v>4.34745340404596</v>
+        <v>7.39786322230872</v>
       </c>
       <c r="F82" s="43">
-        <v>16.310099819213399</v>
+        <v>17.426555657238499</v>
       </c>
       <c r="G82" s="44">
-        <v>21.624743643634201</v>
+        <v>22.020295867104402</v>
       </c>
       <c r="H82" s="44">
-        <v>6.2247934538731498</v>
+        <v>6.8824761713434697</v>
       </c>
       <c r="I82" s="44">
-        <v>14.5750087910672</v>
+        <v>14.524503948793599</v>
       </c>
       <c r="J82" s="44">
-        <v>8.6047723228085697</v>
+        <v>9.2587947608555403</v>
       </c>
       <c r="K82" s="45">
-        <v>32.660581969339503</v>
+        <v>29.887373594747</v>
       </c>
       <c r="L82" s="45">
-        <v>13.1888704045111</v>
+        <v>13.408515420930399</v>
       </c>
       <c r="M82" s="44">
-        <v>44.763721958236403</v>
+        <v>43.640969322479997</v>
       </c>
       <c r="N82" s="44">
-        <v>14.272688206899399</v>
+        <v>14.6057537005291</v>
       </c>
       <c r="O82" s="45">
-        <v>40.963591926795203</v>
+        <v>41.753283673353899</v>
       </c>
       <c r="P82" s="45">
-        <v>7.90023821855279</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>8.0270464513603006</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="41"/>
       <c r="B83" s="46" t="s">
         <v>151</v>
       </c>
       <c r="C83" s="47">
-        <v>0.32515929867559001</v>
+        <v>0.50900241847322003</v>
       </c>
       <c r="D83" s="48">
-        <v>0.27731411653565002</v>
+        <v>0.80694218623084002</v>
       </c>
       <c r="E83" s="49">
-        <v>1.0703150293747099</v>
+        <v>2.0664103682903101</v>
       </c>
       <c r="F83" s="47">
-        <v>4.1333424221137198</v>
+        <v>4.1527859506612197</v>
       </c>
       <c r="G83" s="48">
-        <v>20.8707893447685</v>
+        <v>21.859238260422099</v>
       </c>
       <c r="H83" s="48">
-        <v>5.7333322856997997</v>
+        <v>5.7167351826037098</v>
       </c>
       <c r="I83" s="48">
-        <v>13.3586160314428</v>
+        <v>13.7054586505523</v>
       </c>
       <c r="J83" s="48">
-        <v>9.2126617977947909</v>
+        <v>9.3805557164272706</v>
       </c>
       <c r="K83" s="49">
-        <v>46.6912594622641</v>
+        <v>45.1852277869312</v>
       </c>
       <c r="L83" s="49">
-        <v>16.6734673593132</v>
+        <v>17.1627320222584</v>
       </c>
       <c r="M83" s="48">
-        <v>16.8315120268832</v>
+        <v>15.8832604752847</v>
       </c>
       <c r="N83" s="48">
-        <v>21.2332634683954</v>
+        <v>21.477455554729801</v>
       </c>
       <c r="O83" s="49">
-        <v>61.935206641111698</v>
+        <v>62.639275572862097</v>
       </c>
       <c r="P83" s="49">
-        <v>12.2264721996901</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+        <v>12.1931493100303</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="41"/>
       <c r="B84" s="50" t="s">
         <v>152</v>
       </c>
       <c r="C84" s="51">
-        <v>0.90307609481789997</v>
+        <v>0.94613430401349996</v>
       </c>
       <c r="D84" s="52">
-        <v>1.8886924484635299</v>
+        <v>6.7224842385492103</v>
       </c>
       <c r="E84" s="53">
-        <v>8.61396890180837</v>
+        <v>13.691400914286399</v>
       </c>
       <c r="F84" s="51">
-        <v>30.487357308799702</v>
+        <v>29.2450691067442</v>
       </c>
       <c r="G84" s="52">
-        <v>19.129194397381099</v>
+        <v>20.674988748335</v>
       </c>
       <c r="H84" s="52">
-        <v>7.2358508081850603</v>
+        <v>7.2994554248269097</v>
       </c>
       <c r="I84" s="52">
-        <v>13.9811850194115</v>
+        <v>13.758850997095401</v>
       </c>
       <c r="J84" s="52">
-        <v>6.6007375865029498</v>
+        <v>6.7291770751591997</v>
       </c>
       <c r="K84" s="53">
-        <v>22.565674879701099</v>
+        <v>22.292458647801698</v>
       </c>
       <c r="L84" s="53">
-        <v>10.7100483494382</v>
+        <v>10.487371256366499</v>
       </c>
       <c r="M84" s="52">
-        <v>58.851743848671397</v>
+        <v>58.336772867104102</v>
       </c>
       <c r="N84" s="52">
-        <v>10.122784564691599</v>
+        <v>10.375021866226801</v>
       </c>
       <c r="O84" s="53">
-        <v>31.025469490888899</v>
+        <v>31.288214454421698</v>
       </c>
       <c r="P84" s="53">
-        <v>5.7288474404606404</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+        <v>5.7614547485760701</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" s="41"/>
       <c r="B85" s="33" t="s">
         <v>153</v>
       </c>
       <c r="C85" s="43">
-        <v>1.03117587543E-3</v>
+        <v>1.786950565819E-2</v>
       </c>
       <c r="D85" s="44">
         <v>0</v>
       </c>
       <c r="E85" s="45">
-        <v>0.65362170279262999</v>
+        <v>0.42852544964292</v>
       </c>
       <c r="F85" s="43">
-        <v>22.998519184994102</v>
+        <v>24.708721758316099</v>
       </c>
       <c r="G85" s="44">
-        <v>22.5295836477653</v>
+        <v>23.778979905105199</v>
       </c>
       <c r="H85" s="44">
-        <v>5.1447821546808798</v>
+        <v>5.2336171044006896</v>
       </c>
       <c r="I85" s="44">
-        <v>13.521646027968901</v>
+        <v>13.2556758208143</v>
       </c>
       <c r="J85" s="44">
-        <v>8.53498908210595</v>
+        <v>8.2872301325798894</v>
       </c>
       <c r="K85" s="45">
-        <v>27.270479902482801</v>
+        <v>24.735775278783802</v>
       </c>
       <c r="L85" s="45">
-        <v>9.3112141848752206</v>
+        <v>10.483399613588199</v>
       </c>
       <c r="M85" s="44">
-        <v>32.957445161077501</v>
+        <v>28.028632743638202</v>
       </c>
       <c r="N85" s="44">
-        <v>16.3026308198198</v>
+        <v>16.002045865964899</v>
       </c>
       <c r="O85" s="45">
-        <v>50.739924019102801</v>
+        <v>55.969324330476702</v>
       </c>
       <c r="P85" s="45">
-        <v>8.4535838945129207</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+        <v>8.5649234855589906</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" s="41"/>
       <c r="B86" s="33" t="s">
         <v>154</v>
       </c>
       <c r="C86" s="43">
-        <v>4.2446477872172901</v>
+        <v>5.5452177393205702</v>
       </c>
       <c r="D86" s="44">
-        <v>0.27528202369959998</v>
+        <v>0.57199181020681</v>
       </c>
       <c r="E86" s="45">
-        <v>5.8853656541045796</v>
+        <v>8.7954510485540496</v>
       </c>
       <c r="F86" s="43">
-        <v>17.959189511465699</v>
+        <v>17.6214451721427</v>
       </c>
       <c r="G86" s="44">
-        <v>22.502165735501801</v>
+        <v>23.5619009757391</v>
       </c>
       <c r="H86" s="44">
-        <v>7.6699131251846397</v>
+        <v>8.0648828498631904</v>
       </c>
       <c r="I86" s="44">
-        <v>15.2391211212316</v>
+        <v>15.078641510038601</v>
       </c>
       <c r="J86" s="44">
-        <v>10.487604151131601</v>
+        <v>10.097328854058199</v>
       </c>
       <c r="K86" s="45">
-        <v>26.142006355421</v>
+        <v>25.575800638279802</v>
       </c>
       <c r="L86" s="45">
-        <v>12.7570574712833</v>
+        <v>12.9886920118715</v>
       </c>
       <c r="M86" s="44">
-        <v>32.688266905680699</v>
+        <v>30.9828487007223</v>
       </c>
       <c r="N86" s="44">
-        <v>18.7112204486045</v>
+        <v>19.586398876710899</v>
       </c>
       <c r="O86" s="45">
-        <v>48.600539010972902</v>
+        <v>49.430740554164203</v>
       </c>
       <c r="P86" s="45">
-        <v>10.385455602136499</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+        <v>10.7009107652487</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" s="41"/>
       <c r="B87" s="33" t="s">
         <v>155</v>
       </c>
       <c r="C87" s="43">
-        <v>1.43672146548276</v>
+        <v>1.5562444008169101</v>
       </c>
       <c r="D87" s="44">
-        <v>0.68182971070679999</v>
+        <v>1.6393815568732</v>
       </c>
       <c r="E87" s="45">
-        <v>3.4018312972832199</v>
+        <v>5.41173501015634</v>
       </c>
       <c r="F87" s="43">
-        <v>16.796358321517801</v>
+        <v>16.218968334441399</v>
       </c>
       <c r="G87" s="44">
-        <v>23.806880630548701</v>
+        <v>24.457918837261801</v>
       </c>
       <c r="H87" s="44">
-        <v>7.3043451466551099</v>
+        <v>7.6014801051643897</v>
       </c>
       <c r="I87" s="44">
-        <v>13.3617865044447</v>
+        <v>13.440140495627899</v>
       </c>
       <c r="J87" s="44">
-        <v>7.5958173581278299</v>
+        <v>7.5637142361327996</v>
       </c>
       <c r="K87" s="45">
-        <v>31.1348120386887</v>
+        <v>30.717777991380402</v>
       </c>
       <c r="L87" s="45">
-        <v>17.513835894647698</v>
+        <v>17.304427280416999</v>
       </c>
       <c r="M87" s="44">
-        <v>33.774300907529799</v>
+        <v>32.018201636366797</v>
       </c>
       <c r="N87" s="44">
-        <v>19.570495016710101</v>
+        <v>20.197838275783798</v>
       </c>
       <c r="O87" s="45">
-        <v>46.655215251054599</v>
+        <v>47.783942429276102</v>
       </c>
       <c r="P87" s="45">
-        <v>11.045255913842</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+        <v>11.156693880197301</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="41"/>
       <c r="B88" s="33" t="s">
         <v>156</v>
       </c>
       <c r="C88" s="43">
-        <v>3.0537598407183202</v>
+        <v>8.1528443793115404</v>
       </c>
       <c r="D88" s="44">
-        <v>1.13654166248667</v>
+        <v>2.9130944240727299</v>
       </c>
       <c r="E88" s="45">
-        <v>6.5407578712363597</v>
+        <v>14.269465169760499</v>
       </c>
       <c r="F88" s="43">
-        <v>3.2093703764113402</v>
+        <v>3.10714785052709</v>
       </c>
       <c r="G88" s="44">
-        <v>25.609108137319598</v>
+        <v>27.168969840721001</v>
       </c>
       <c r="H88" s="44">
-        <v>3.1680433266573802</v>
+        <v>3.0109181010109198</v>
       </c>
       <c r="I88" s="44">
-        <v>12.129821100344101</v>
+        <v>12.5145461356226</v>
       </c>
       <c r="J88" s="44">
-        <v>7.1048734117160004</v>
+        <v>6.9670883123906204</v>
       </c>
       <c r="K88" s="45">
-        <v>48.7787836475663</v>
+        <v>47.231329759713802</v>
       </c>
       <c r="L88" s="45">
-        <v>11.4078393972993</v>
+        <v>12.056551860458701</v>
       </c>
       <c r="M88" s="44">
-        <v>25.015918776660602</v>
+        <v>24.639466748019998</v>
       </c>
       <c r="N88" s="44">
-        <v>17.0152265569074</v>
+        <v>17.302018916193202</v>
       </c>
       <c r="O88" s="45">
-        <v>57.968844565606602</v>
+        <v>58.058543177403699</v>
       </c>
       <c r="P88" s="45">
-        <v>8.4781617201258204</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+        <v>8.4873383646255292</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" s="41"/>
       <c r="B89" s="33" t="s">
         <v>157</v>
       </c>
       <c r="C89" s="43">
-        <v>1.5134177157228299</v>
+        <v>2.1933182537992</v>
       </c>
       <c r="D89" s="44">
-        <v>0.466170808617</v>
+        <v>1.19026350487406</v>
       </c>
       <c r="E89" s="45">
-        <v>2.8392039675137899</v>
+        <v>4.8453078661057098</v>
       </c>
       <c r="F89" s="43">
-        <v>7.4648807343642796</v>
+        <v>7.2066717474712201</v>
       </c>
       <c r="G89" s="44">
-        <v>28.875757203460999</v>
+        <v>30.729071564518801</v>
       </c>
       <c r="H89" s="44">
-        <v>6.68316332799135</v>
+        <v>6.6956899561015897</v>
       </c>
       <c r="I89" s="44">
-        <v>12.996020543245599</v>
+        <v>13.0717297745308</v>
       </c>
       <c r="J89" s="44">
-        <v>8.0373642733258297</v>
+        <v>8.0715534129638193</v>
       </c>
       <c r="K89" s="45">
-        <v>35.942813917611197</v>
+        <v>34.225283544403702</v>
       </c>
       <c r="L89" s="45">
-        <v>22.971280152075</v>
+        <v>24.2403988693769</v>
       </c>
       <c r="M89" s="44">
-        <v>18.248315777694302</v>
+        <v>18.2460694482401</v>
       </c>
       <c r="N89" s="44">
-        <v>22.007063766291299</v>
+        <v>22.397478064945201</v>
       </c>
       <c r="O89" s="45">
-        <v>59.744594689967997</v>
+        <v>59.356433639931403</v>
       </c>
       <c r="P89" s="45">
-        <v>12.1269404188777</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>12.096862943264</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="41"/>
       <c r="B90" s="46" t="s">
         <v>158</v>
       </c>
       <c r="C90" s="47">
-        <v>1.0237051515343201</v>
+        <v>1.3514283522608901</v>
       </c>
       <c r="D90" s="48">
-        <v>0.14244524209066001</v>
+        <v>0.47052501728516</v>
       </c>
       <c r="E90" s="49">
-        <v>1.3752532308121299</v>
+        <v>2.35271319025113</v>
       </c>
       <c r="F90" s="47">
-        <v>1.2612556505614001</v>
+        <v>1.34748170388477</v>
       </c>
       <c r="G90" s="48">
-        <v>17.802788805211598</v>
+        <v>18.558555256985201</v>
       </c>
       <c r="H90" s="48">
-        <v>5.2033806445694601</v>
+        <v>5.1215636517818899</v>
       </c>
       <c r="I90" s="48">
-        <v>13.527532340467699</v>
+        <v>13.9639799972609</v>
       </c>
       <c r="J90" s="48">
-        <v>9.7961333235712402</v>
+        <v>10.024952251322601</v>
       </c>
       <c r="K90" s="49">
-        <v>52.408911224393599</v>
+        <v>50.983469460285598</v>
       </c>
       <c r="L90" s="49">
-        <v>13.590098254496001</v>
+        <v>13.6427024899948</v>
       </c>
       <c r="M90" s="48">
-        <v>3.4326997076174601</v>
+        <v>3.9093893986227202</v>
       </c>
       <c r="N90" s="48">
-        <v>23.759444523141799</v>
+        <v>23.5149789088875</v>
       </c>
       <c r="O90" s="49">
-        <v>72.807832896667605</v>
+        <v>72.575640762594901</v>
       </c>
       <c r="P90" s="49">
-        <v>12.2634882305379</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+        <v>12.025325383914</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" s="41"/>
       <c r="B91" s="50" t="s">
         <v>159</v>
       </c>
       <c r="C91" s="51">
-        <v>3.6285299029421898</v>
+        <v>4.1113557020457296</v>
       </c>
       <c r="D91" s="52">
-        <v>1.5750584100013401</v>
+        <v>5.3019900459475897</v>
       </c>
       <c r="E91" s="53">
-        <v>9.8982629400862407</v>
+        <v>14.2154423124449</v>
       </c>
       <c r="F91" s="51">
-        <v>26.423189615548001</v>
+        <v>26.256501467386698</v>
       </c>
       <c r="G91" s="52">
-        <v>20.979714321715999</v>
+        <v>22.7005203376977</v>
       </c>
       <c r="H91" s="52">
-        <v>8.1898461278737695</v>
+        <v>7.7280618063481503</v>
       </c>
       <c r="I91" s="52">
-        <v>14.5699096575462</v>
+        <v>14.4994349290744</v>
       </c>
       <c r="J91" s="52">
-        <v>7.0162022936100197</v>
+        <v>6.6910201342284799</v>
       </c>
       <c r="K91" s="53">
-        <v>22.8211379836976</v>
+        <v>22.124461325241299</v>
       </c>
       <c r="L91" s="53">
-        <v>10.177086242909199</v>
+        <v>9.9576252582248408</v>
       </c>
       <c r="M91" s="52">
-        <v>51.6358699711163</v>
+        <v>51.103858731429803</v>
       </c>
       <c r="N91" s="52">
-        <v>12.0592623963351</v>
+        <v>12.409472395131701</v>
       </c>
       <c r="O91" s="53">
-        <v>36.3048662195554</v>
+        <v>36.486682783853901</v>
       </c>
       <c r="P91" s="53">
-        <v>6.8114772914561597</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+        <v>6.8989830423022802</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="41"/>
       <c r="B92" s="33" t="s">
         <v>160</v>
       </c>
       <c r="C92" s="43">
-        <v>5.5708612995010003E-2</v>
+        <v>5.281138161915E-2</v>
       </c>
       <c r="D92" s="44">
-        <v>0.17513970190961001</v>
+        <v>0.400221783045</v>
       </c>
       <c r="E92" s="45">
-        <v>1.2035622291585599</v>
+        <v>1.9977493595271401</v>
       </c>
       <c r="F92" s="43">
-        <v>16.222429509096099</v>
+        <v>15.902192315316601</v>
       </c>
       <c r="G92" s="44">
-        <v>23.840521471360798</v>
+        <v>23.924253672033199</v>
       </c>
       <c r="H92" s="44">
-        <v>8.6195755144460406</v>
+        <v>8.7678289848518993</v>
       </c>
       <c r="I92" s="44">
-        <v>16.5611942015362</v>
+        <v>16.467262612785699</v>
       </c>
       <c r="J92" s="44">
-        <v>8.9322550775152703</v>
+        <v>8.8068713353141206</v>
       </c>
       <c r="K92" s="45">
-        <v>25.824024226166301</v>
+        <v>26.131591079545</v>
       </c>
       <c r="L92" s="45">
-        <v>19.6813479562759</v>
+        <v>19.996423496636499</v>
       </c>
       <c r="M92" s="44">
-        <v>45.801554551430598</v>
+        <v>45.068748291073</v>
       </c>
       <c r="N92" s="44">
-        <v>15.205452720381</v>
+        <v>14.837295141781301</v>
       </c>
       <c r="O92" s="45">
-        <v>38.992968666641701</v>
+        <v>40.093980480210298</v>
       </c>
       <c r="P92" s="45">
-        <v>9.1262080317246994</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+        <v>8.9548498207851104</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" s="41"/>
       <c r="B93" s="33" t="s">
         <v>161</v>
@@ -5926,283 +5926,283 @@
         <v>0</v>
       </c>
       <c r="E93" s="45">
-        <v>2.3405995906796901</v>
+        <v>2.92383933181728</v>
       </c>
       <c r="F93" s="43">
-        <v>9.2680789909653303</v>
+        <v>9.6084252176673104</v>
       </c>
       <c r="G93" s="44">
-        <v>13.3515836493949</v>
+        <v>13.9450276312888</v>
       </c>
       <c r="H93" s="44">
-        <v>4.8948053776441398</v>
+        <v>5.5058542686281902</v>
       </c>
       <c r="I93" s="44">
-        <v>17.026652597615399</v>
+        <v>16.636239036393398</v>
       </c>
       <c r="J93" s="44">
-        <v>10.091158322720799</v>
+        <v>9.9896528654619505</v>
       </c>
       <c r="K93" s="45">
-        <v>45.367721061670601</v>
+        <v>44.314800981170102</v>
       </c>
       <c r="L93" s="45">
-        <v>11.0161655122553</v>
+        <v>11.5566977641334</v>
       </c>
       <c r="M93" s="44">
-        <v>24.297520420669599</v>
+        <v>23.896644909934199</v>
       </c>
       <c r="N93" s="44">
-        <v>18.977950048182201</v>
+        <v>19.3360340305506</v>
       </c>
       <c r="O93" s="45">
-        <v>56.724631419651601</v>
+        <v>56.767223696115998</v>
       </c>
       <c r="P93" s="45">
-        <v>9.9732908889854794</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+        <v>9.9855885798037303</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" s="41"/>
       <c r="B94" s="33" t="s">
         <v>162</v>
       </c>
       <c r="C94" s="43">
-        <v>0.92710661734697997</v>
+        <v>0.65467996405868001</v>
       </c>
       <c r="D94" s="44">
-        <v>0.39086907041244001</v>
+        <v>1.0491634833535399</v>
       </c>
       <c r="E94" s="45">
-        <v>1.88981731205433</v>
+        <v>2.53762386306123</v>
       </c>
       <c r="F94" s="43">
-        <v>3.2319135903154099</v>
+        <v>3.1654980976142699</v>
       </c>
       <c r="G94" s="44">
-        <v>20.645243847998501</v>
+        <v>20.378558265942001</v>
       </c>
       <c r="H94" s="44">
-        <v>5.9153922358446804</v>
+        <v>6.0524319316373898</v>
       </c>
       <c r="I94" s="44">
-        <v>19.124074168051699</v>
+        <v>19.091402841931899</v>
       </c>
       <c r="J94" s="44">
-        <v>9.2997592664717192</v>
+        <v>9.2384783002427096</v>
       </c>
       <c r="K94" s="45">
-        <v>41.783616891353901</v>
+        <v>42.073630562395998</v>
       </c>
       <c r="L94" s="45">
-        <v>16.564255365861701</v>
+        <v>16.735292499250999</v>
       </c>
       <c r="M94" s="44">
-        <v>18.330829351606202</v>
+        <v>18.964289702844699</v>
       </c>
       <c r="N94" s="44">
-        <v>17.920612588666799</v>
+        <v>17.655456559587901</v>
       </c>
       <c r="O94" s="45">
-        <v>63.748507871751002</v>
+        <v>63.380216806394799</v>
       </c>
       <c r="P94" s="45">
-        <v>7.9202594823161796</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+        <v>7.7762401563592496</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" s="41"/>
       <c r="B95" s="33" t="s">
         <v>163</v>
       </c>
       <c r="C95" s="43">
-        <v>0.4201785016938</v>
+        <v>0.56503505265978005</v>
       </c>
       <c r="D95" s="44">
-        <v>1.23742249390674</v>
+        <v>4.6186007331084298</v>
       </c>
       <c r="E95" s="45">
-        <v>6.72010291183161</v>
+        <v>10.4095265513882</v>
       </c>
       <c r="F95" s="43">
-        <v>27.248600380553601</v>
+        <v>27.418022531067301</v>
       </c>
       <c r="G95" s="44">
-        <v>17.847179945290499</v>
+        <v>18.1857814656329</v>
       </c>
       <c r="H95" s="44">
-        <v>9.7509096692555897</v>
+        <v>9.4584012319928803</v>
       </c>
       <c r="I95" s="44">
-        <v>14.5977514197966</v>
+        <v>14.8197324965293</v>
       </c>
       <c r="J95" s="44">
-        <v>5.9218851696887</v>
+        <v>5.6045093109855504</v>
       </c>
       <c r="K95" s="45">
-        <v>24.6336734150368</v>
+        <v>24.513552964416501</v>
       </c>
       <c r="L95" s="45">
-        <v>10.326322560001399</v>
+        <v>10.0231901805954</v>
       </c>
       <c r="M95" s="44">
-        <v>58.350149116517599</v>
+        <v>57.878473298370302</v>
       </c>
       <c r="N95" s="44">
-        <v>12.069697547570501</v>
+        <v>12.4272868746316</v>
       </c>
       <c r="O95" s="45">
-        <v>29.580160241184402</v>
+        <v>29.694248294125099</v>
       </c>
       <c r="P95" s="45">
-        <v>6.78706997996008</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>6.8812095410322698</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="41"/>
       <c r="B96" s="46" t="s">
         <v>164</v>
       </c>
       <c r="C96" s="47">
-        <v>4.5601712507334096</v>
+        <v>6.9403401826854898</v>
       </c>
       <c r="D96" s="48">
-        <v>3.3046713832396102</v>
+        <v>6.1452953171836002</v>
       </c>
       <c r="E96" s="49">
-        <v>9.8908263929831008</v>
+        <v>17.267108020076702</v>
       </c>
       <c r="F96" s="47">
-        <v>13.2261871444304</v>
+        <v>12.8475466468162</v>
       </c>
       <c r="G96" s="48">
-        <v>27.034512164041701</v>
+        <v>29.492399469300999</v>
       </c>
       <c r="H96" s="48">
-        <v>6.7108214036323703</v>
+        <v>6.4187649037951502</v>
       </c>
       <c r="I96" s="48">
-        <v>13.9676361559538</v>
+        <v>14.1254391999489</v>
       </c>
       <c r="J96" s="48">
-        <v>8.4535291740441707</v>
+        <v>8.4892554033665899</v>
       </c>
       <c r="K96" s="49">
-        <v>30.607313957886799</v>
+        <v>28.626594376800899</v>
       </c>
       <c r="L96" s="49">
-        <v>15.2842574975699</v>
+        <v>15.804091265351699</v>
       </c>
       <c r="M96" s="48">
-        <v>33.6970127444634</v>
+        <v>32.1994435708298</v>
       </c>
       <c r="N96" s="48">
-        <v>19.754964407430499</v>
+        <v>20.2654606513888</v>
       </c>
       <c r="O96" s="49">
-        <v>46.548006159300002</v>
+        <v>47.535102402773802</v>
       </c>
       <c r="P96" s="49">
-        <v>10.1840983883781</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+        <v>10.3608391895247</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="41"/>
       <c r="B97" s="50" t="s">
         <v>165</v>
       </c>
       <c r="C97" s="51">
-        <v>4.5836927469664204</v>
+        <v>6.9176896816407396</v>
       </c>
       <c r="D97" s="52">
-        <v>0.84944594944818996</v>
+        <v>1.69046656587552</v>
       </c>
       <c r="E97" s="53">
-        <v>8.5258167127238806</v>
+        <v>11.8892971012302</v>
       </c>
       <c r="F97" s="51">
-        <v>23.5195581059949</v>
+        <v>23.5438031968561</v>
       </c>
       <c r="G97" s="52">
-        <v>21.3920005991741</v>
+        <v>21.287855981042799</v>
       </c>
       <c r="H97" s="52">
-        <v>7.4384618637325799</v>
+        <v>8.5315940065561993</v>
       </c>
       <c r="I97" s="52">
-        <v>14.1683407753083</v>
+        <v>14.1937261348478</v>
       </c>
       <c r="J97" s="52">
-        <v>9.7715790032231293</v>
+        <v>9.5973325262130498</v>
       </c>
       <c r="K97" s="53">
-        <v>23.710059652479099</v>
+        <v>22.845688154647</v>
       </c>
       <c r="L97" s="53">
-        <v>11.0008622010208</v>
+        <v>11.3185162805923</v>
       </c>
       <c r="M97" s="52">
-        <v>50.245937336920797</v>
+        <v>46.655506429832201</v>
       </c>
       <c r="N97" s="52">
-        <v>12.1823423667198</v>
+        <v>13.0623992983442</v>
       </c>
       <c r="O97" s="53">
-        <v>37.571719905873898</v>
+        <v>40.282107636435299</v>
       </c>
       <c r="P97" s="53">
-        <v>7.1310251322658402</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7.4356804873551496</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="41"/>
       <c r="B98" s="46" t="s">
         <v>166</v>
       </c>
       <c r="C98" s="47">
-        <v>7.4821607683932498</v>
+        <v>5.7877018880995701</v>
       </c>
       <c r="D98" s="48">
-        <v>0.61104195293297003</v>
+        <v>1.44901653412706</v>
       </c>
       <c r="E98" s="49">
-        <v>9.6358194248438593</v>
+        <v>10.9509752491716</v>
       </c>
       <c r="F98" s="47">
-        <v>14.4976630956817</v>
+        <v>15.1549206628719</v>
       </c>
       <c r="G98" s="48">
-        <v>28.0352909771048</v>
+        <v>27.5611948658347</v>
       </c>
       <c r="H98" s="48">
-        <v>5.2584925848054</v>
+        <v>5.5057090921779599</v>
       </c>
       <c r="I98" s="48">
-        <v>15.3096865772343</v>
+        <v>15.7729634776968</v>
       </c>
       <c r="J98" s="48">
-        <v>8.8652332048291402</v>
+        <v>8.67228593855436</v>
       </c>
       <c r="K98" s="49">
-        <v>28.0336335583231</v>
+        <v>27.332925962818202</v>
       </c>
       <c r="L98" s="49">
-        <v>16.310909292813498</v>
+        <v>17.879193052753202</v>
       </c>
       <c r="M98" s="48">
-        <v>33.360204183411</v>
+        <v>32.589777286858698</v>
       </c>
       <c r="N98" s="48">
-        <v>18.419142460267398</v>
+        <v>20.1614839581731</v>
       </c>
       <c r="O98" s="49">
-        <v>48.2206379649163</v>
+        <v>47.248753173254698</v>
       </c>
       <c r="P98" s="49">
-        <v>10.424935197920201</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+        <v>12.1920291974072</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" s="54"/>
       <c r="B99" s="55"/>
       <c r="C99" s="56"/>
@@ -6220,7 +6220,7 @@
       <c r="O99" s="56"/>
       <c r="P99" s="56"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>167</v>
       </c>
@@ -6239,7 +6239,7 @@
       <c r="O100" s="57"/>
       <c r="P100" s="57"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>168</v>
       </c>
@@ -6258,7 +6258,7 @@
       <c r="O101" s="57"/>
       <c r="P101" s="57"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>169</v>
       </c>
@@ -6277,7 +6277,7 @@
       <c r="O102" s="57"/>
       <c r="P102" s="57"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>170</v>
       </c>
@@ -6296,7 +6296,7 @@
       <c r="O103" s="57"/>
       <c r="P103" s="57"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>171</v>
       </c>
@@ -6315,7 +6315,7 @@
       <c r="O104" s="57"/>
       <c r="P104" s="57"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C105" s="57"/>
       <c r="D105" s="57"/>
       <c r="E105" s="57"/>
@@ -6331,7 +6331,7 @@
       <c r="O105" s="57"/>
       <c r="P105" s="57"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C106" s="57"/>
       <c r="D106" s="57"/>
       <c r="E106" s="57"/>
@@ -6347,7 +6347,7 @@
       <c r="O106" s="57"/>
       <c r="P106" s="57"/>
     </row>
-    <row r="107" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B107" s="58" t="s">
         <v>172</v>
       </c>
@@ -6366,7 +6366,7 @@
       <c r="O107" s="57"/>
       <c r="P107" s="57"/>
     </row>
-    <row r="108" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B108" s="58"/>
       <c r="C108" s="57"/>
       <c r="D108" s="57"/>
@@ -6383,7 +6383,7 @@
       <c r="O108" s="57"/>
       <c r="P108" s="57"/>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
         <v>175</v>
       </c>
@@ -6402,7 +6402,7 @@
       <c r="O109" s="57"/>
       <c r="P109" s="57"/>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
         <v>176</v>
       </c>
@@ -6421,7 +6421,7 @@
       <c r="O110" s="57"/>
       <c r="P110" s="57"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
         <v>177</v>
       </c>
@@ -6440,7 +6440,7 @@
       <c r="O111" s="57"/>
       <c r="P111" s="57"/>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
         <v>173</v>
       </c>
@@ -6459,7 +6459,7 @@
       <c r="O112" s="57"/>
       <c r="P112" s="57"/>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B113" s="2" t="s">
         <v>174</v>
       </c>
@@ -6478,7 +6478,7 @@
       <c r="O113" s="57"/>
       <c r="P113" s="57"/>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="57"/>
       <c r="D114" s="57"/>
@@ -6497,12 +6497,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{2D7126C0-2CDD-4A27-A057-21427BC8E3A0}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{DE87CA60-BF59-4FF9-ABAC-8042C885DBDF}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{B93D7809-D159-40B0-BFB2-0ED0A5E4442C}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{5749A365-814A-4211-BBB8-F0B9C732765E}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{FF12C7B4-83FE-407B-8CCC-CB8E7FBBF5AC}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{CC975979-EC82-41C9-B871-F7D9C4ADD694}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{8E6AA81D-2970-4D0B-9ABB-F36C51755741}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{B6B3985B-CD71-4A9A-956B-0E6B577A35E4}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{AAEC347C-1641-46EF-837E-810462E7A356}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{563A4FE3-5403-4365-AA68-572F181CDCFF}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{18487029-740D-4900-9007-FC8C4DDBB9EB}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{E9150216-EAD5-4A2C-94EA-AA8B9ADA4920}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
